--- a/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.036965242401608</v>
+      </c>
+      <c r="D3">
+        <v>0.9663026480904368</v>
+      </c>
+      <c r="E3">
         <v>1.072567366147534</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1.005729413725936</v>
+      </c>
+      <c r="G3">
         <v>1.036965242401608</v>
       </c>
-      <c r="E3">
-        <v>1.005729413725936</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.9972453555767875</v>
+      </c>
+      <c r="I3">
+        <v>1.003414476122849</v>
+      </c>
+      <c r="J3">
         <v>1.072567366147534</v>
       </c>
-      <c r="G3">
-        <v>0.9972453555767875</v>
-      </c>
-      <c r="H3">
-        <v>1.003414476122849</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.072567366147534</v>
       </c>
-      <c r="J3">
-        <v>1.036965242401608</v>
-      </c>
-      <c r="K3">
-        <v>0.9663026480904368</v>
-      </c>
       <c r="L3">
+        <v>1.002476443339916</v>
+      </c>
+      <c r="M3">
         <v>1.005042255997808</v>
-      </c>
-      <c r="M3">
-        <v>1.002476443339916</v>
       </c>
       <c r="N3">
         <v>1.072567366147534</v>
@@ -761,10 +713,10 @@
         <v>1.03701494879988</v>
       </c>
       <c r="W3">
-        <v>1.011217900175359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.01121790017536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.064321935967398</v>
+      </c>
+      <c r="D4">
+        <v>0.9398226413650237</v>
+      </c>
+      <c r="E4">
         <v>1.13719015288514</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.006698973300732</v>
+      </c>
+      <c r="G4">
         <v>1.064321935967398</v>
       </c>
-      <c r="E4">
-        <v>1.006698973300732</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.9947388519851915</v>
+      </c>
+      <c r="I4">
+        <v>1.005807698721177</v>
+      </c>
+      <c r="J4">
         <v>1.13719015288514</v>
       </c>
-      <c r="G4">
-        <v>0.9947388519851915</v>
-      </c>
-      <c r="H4">
-        <v>1.005807698721177</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.13719015288514</v>
       </c>
-      <c r="J4">
-        <v>1.064321935967398</v>
-      </c>
-      <c r="K4">
-        <v>0.9398226413650237</v>
-      </c>
       <c r="L4">
+        <v>1.004709783190724</v>
+      </c>
+      <c r="M4">
         <v>1.011394490403949</v>
-      </c>
-      <c r="M4">
-        <v>1.004709783190724</v>
       </c>
       <c r="N4">
         <v>1.13719015288514</v>
@@ -835,7 +787,7 @@
         <v>1.020585565977417</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.135015456391049</v>
+      </c>
+      <c r="D5">
+        <v>0.888666132837603</v>
+      </c>
+      <c r="E5">
         <v>1.276944721361809</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.024289187636179</v>
+      </c>
+      <c r="G5">
         <v>1.135015456391049</v>
       </c>
-      <c r="E5">
-        <v>1.024289187636179</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0.9918407958225328</v>
+      </c>
+      <c r="I5">
+        <v>1.021716497644927</v>
+      </c>
+      <c r="J5">
         <v>1.276944721361809</v>
       </c>
-      <c r="G5">
-        <v>0.9918407958225328</v>
-      </c>
-      <c r="H5">
-        <v>1.021716497644927</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.276944721361809</v>
       </c>
-      <c r="J5">
-        <v>1.135015456391049</v>
-      </c>
-      <c r="K5">
-        <v>0.888666132837603</v>
-      </c>
       <c r="L5">
+        <v>1.013095311980762</v>
+      </c>
+      <c r="M5">
         <v>1.025735084627094</v>
-      </c>
-      <c r="M5">
-        <v>1.013095311980762</v>
       </c>
       <c r="N5">
         <v>1.276944721361809</v>
@@ -906,7 +858,7 @@
         <v>1.047162898537744</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.261101042591308</v>
+      </c>
+      <c r="D6">
+        <v>0.7878851631677727</v>
+      </c>
+      <c r="E6">
         <v>1.465847113496503</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.107667706015549</v>
+      </c>
+      <c r="G6">
         <v>1.261101042591308</v>
       </c>
-      <c r="E6">
-        <v>1.107667706015549</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.04606773006256</v>
+      </c>
+      <c r="I6">
+        <v>1.015203022926041</v>
+      </c>
+      <c r="J6">
         <v>1.465847113496503</v>
       </c>
-      <c r="G6">
-        <v>1.04606773006256</v>
-      </c>
-      <c r="H6">
-        <v>1.015203022926041</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.465847113496503</v>
       </c>
-      <c r="J6">
-        <v>1.261101042591308</v>
-      </c>
-      <c r="K6">
-        <v>0.7878851631677727</v>
-      </c>
       <c r="L6">
+        <v>1.012765302427835</v>
+      </c>
+      <c r="M6">
         <v>1.008904989168817</v>
-      </c>
-      <c r="M6">
-        <v>1.012765302427835</v>
       </c>
       <c r="N6">
         <v>1.465847113496503</v>
@@ -977,7 +929,7 @@
         <v>1.088180258732048</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989698924307922</v>
+        <v>0.9987145329602173</v>
       </c>
       <c r="D7">
-        <v>0.9987145329602168</v>
+        <v>0.9995283337584981</v>
       </c>
       <c r="E7">
+        <v>0.9989698924307933</v>
+      </c>
+      <c r="F7">
         <v>1.006474779620875</v>
       </c>
-      <c r="F7">
-        <v>0.9989698924307922</v>
-      </c>
       <c r="G7">
-        <v>0.9992476449335379</v>
+        <v>0.9987145329602173</v>
       </c>
       <c r="H7">
+        <v>0.9992476449335369</v>
+      </c>
+      <c r="I7">
         <v>1.001302610139186</v>
       </c>
-      <c r="I7">
-        <v>0.9989698924307922</v>
-      </c>
       <c r="J7">
-        <v>0.9987145329602168</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="K7">
-        <v>0.9995283337584973</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="L7">
+        <v>0.9988638822499092</v>
+      </c>
+      <c r="M7">
         <v>0.9994044950626975</v>
       </c>
-      <c r="M7">
-        <v>0.9988638822499101</v>
-      </c>
       <c r="N7">
-        <v>0.9989698924307922</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="O7">
         <v>1.006474779620875</v>
@@ -1030,13 +982,13 @@
         <v>1.002861212277206</v>
       </c>
       <c r="R7">
-        <v>1.001386401670628</v>
+        <v>1.001386401670629</v>
       </c>
       <c r="S7">
         <v>1.00147898583821</v>
       </c>
       <c r="T7">
-        <v>1.001386401670628</v>
+        <v>1.001386401670629</v>
       </c>
       <c r="U7">
         <v>1.000851712486356</v>
@@ -1048,7 +1000,7 @@
         <v>1.000313271394464</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,40 +1008,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.997391395391752</v>
+        <v>0.9966410272784649</v>
       </c>
       <c r="D8">
-        <v>0.996641027278466</v>
+        <v>0.9995601028375825</v>
       </c>
       <c r="E8">
+        <v>0.9973913953917507</v>
+      </c>
+      <c r="F8">
         <v>1.013557099933327</v>
       </c>
-      <c r="F8">
-        <v>0.997391395391752</v>
-      </c>
       <c r="G8">
-        <v>0.9971391388592499</v>
+        <v>0.9966410272784649</v>
       </c>
       <c r="H8">
-        <v>1.003463314452178</v>
+        <v>0.997139138859251</v>
       </c>
       <c r="I8">
-        <v>0.997391395391752</v>
+        <v>1.003463314452179</v>
       </c>
       <c r="J8">
-        <v>0.996641027278466</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="K8">
-        <v>0.9995601028375812</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="L8">
-        <v>0.9989408786502176</v>
+        <v>0.996313720286784</v>
       </c>
       <c r="M8">
-        <v>0.9963137202867849</v>
+        <v>0.998940878650218</v>
       </c>
       <c r="N8">
-        <v>0.997391395391752</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="O8">
         <v>1.013557099933327</v>
@@ -1098,7 +1050,7 @@
         <v>1.005099063605896</v>
       </c>
       <c r="Q8">
-        <v>1.005348119396288</v>
+        <v>1.005348119396289</v>
       </c>
       <c r="R8">
         <v>1.002529840867848</v>
@@ -1110,16 +1062,16 @@
         <v>1.002529840867848</v>
       </c>
       <c r="U8">
-        <v>1.001182165365699</v>
+        <v>1.001182165365698</v>
       </c>
       <c r="V8">
         <v>1.000424011370909</v>
       </c>
       <c r="W8">
-        <v>1.000375834711194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000375834711195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,40 +1079,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9959410896239497</v>
+        <v>0.9946834761648908</v>
       </c>
       <c r="D9">
-        <v>0.9946834761648907</v>
+        <v>0.9982343046442744</v>
       </c>
       <c r="E9">
+        <v>0.9959410896239499</v>
+      </c>
+      <c r="F9">
         <v>1.017165676068001</v>
       </c>
-      <c r="F9">
-        <v>0.9959410896239497</v>
-      </c>
       <c r="G9">
+        <v>0.9946834761648908</v>
+      </c>
+      <c r="H9">
         <v>0.9982993125756853</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.003938014320451</v>
       </c>
-      <c r="I9">
-        <v>0.9959410896239497</v>
-      </c>
       <c r="J9">
-        <v>0.9946834761648907</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="K9">
-        <v>0.9982343046442744</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="L9">
+        <v>0.9954790203751883</v>
+      </c>
+      <c r="M9">
         <v>1.000971007105117</v>
       </c>
-      <c r="M9">
-        <v>0.9954790203751883</v>
-      </c>
       <c r="N9">
-        <v>0.9959410896239497</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="O9">
         <v>1.017165676068001</v>
@@ -1190,7 +1142,7 @@
         <v>1.000588987609695</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9889031052246625</v>
+      </c>
+      <c r="D10">
+        <v>0.9964769609863934</v>
+      </c>
+      <c r="E10">
         <v>0.9915977098176272</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.041216472673288</v>
+      </c>
+      <c r="G10">
         <v>0.9889031052246625</v>
       </c>
-      <c r="E10">
-        <v>1.041216472673288</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0.9947264074317996</v>
+      </c>
+      <c r="I10">
+        <v>1.009134869489735</v>
+      </c>
+      <c r="J10">
         <v>0.9915977098176272</v>
       </c>
-      <c r="G10">
-        <v>0.9947264074317996</v>
-      </c>
-      <c r="H10">
-        <v>1.009134869489735</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.9915977098176272</v>
       </c>
-      <c r="J10">
-        <v>0.9889031052246625</v>
-      </c>
-      <c r="K10">
-        <v>0.9964769609863934</v>
-      </c>
       <c r="L10">
+        <v>0.9898202727096107</v>
+      </c>
+      <c r="M10">
         <v>1.000277280143379</v>
-      </c>
-      <c r="M10">
-        <v>0.9898202727096107</v>
       </c>
       <c r="N10">
         <v>0.9915977098176272</v>
@@ -1261,7 +1213,7 @@
         <v>1.001519134809562</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,40 +1221,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9872028227904528</v>
+        <v>0.9800727663260642</v>
       </c>
       <c r="D11">
+        <v>0.9962670173106613</v>
+      </c>
+      <c r="E11">
+        <v>0.9872028227904524</v>
+      </c>
+      <c r="F11">
+        <v>1.05788586573848</v>
+      </c>
+      <c r="G11">
         <v>0.9800727663260642</v>
       </c>
-      <c r="E11">
-        <v>1.05788586573848</v>
-      </c>
-      <c r="F11">
-        <v>0.9872028227904528</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.9908793646931114</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.013052545395172</v>
       </c>
-      <c r="I11">
-        <v>0.9872028227904528</v>
-      </c>
       <c r="J11">
-        <v>0.9800727663260642</v>
+        <v>0.9872028227904524</v>
       </c>
       <c r="K11">
-        <v>0.9962670173106613</v>
+        <v>0.9872028227904524</v>
       </c>
       <c r="L11">
+        <v>0.9832152176922976</v>
+      </c>
+      <c r="M11">
         <v>1.005691990545817</v>
       </c>
-      <c r="M11">
-        <v>0.9832152176922976</v>
-      </c>
       <c r="N11">
-        <v>0.9872028227904528</v>
+        <v>0.9872028227904524</v>
       </c>
       <c r="O11">
         <v>1.05788586573848</v>
@@ -1332,7 +1284,7 @@
         <v>1.001783448811507</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,43 +1292,43 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>2.327374721268487</v>
+      </c>
+      <c r="D12">
+        <v>0.6298883385390468</v>
+      </c>
+      <c r="E12">
         <v>2.034395729111162</v>
       </c>
-      <c r="D12">
-        <v>2.327374721268486</v>
-      </c>
-      <c r="E12">
-        <v>0.1153595862717338</v>
-      </c>
       <c r="F12">
+        <v>0.1153595862717336</v>
+      </c>
+      <c r="G12">
+        <v>2.327374721268487</v>
+      </c>
+      <c r="H12">
+        <v>0.8753736642658296</v>
+      </c>
+      <c r="I12">
+        <v>0.68763290974809</v>
+      </c>
+      <c r="J12">
         <v>2.034395729111162</v>
       </c>
-      <c r="G12">
-        <v>0.8753736642658295</v>
-      </c>
-      <c r="H12">
-        <v>0.6876329097480902</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>2.034395729111162</v>
       </c>
-      <c r="J12">
-        <v>2.327374721268486</v>
-      </c>
-      <c r="K12">
-        <v>0.6298883385390467</v>
-      </c>
       <c r="L12">
+        <v>1.40085442028962</v>
+      </c>
+      <c r="M12">
         <v>1.063288951095446</v>
-      </c>
-      <c r="M12">
-        <v>1.40085442028962</v>
       </c>
       <c r="N12">
         <v>2.034395729111162</v>
       </c>
       <c r="O12">
-        <v>0.1153595862717338</v>
+        <v>0.1153595862717336</v>
       </c>
       <c r="P12">
         <v>1.22136715377011</v>
@@ -1403,7 +1355,7 @@
         <v>1.141771040073677</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.4291899956988436</v>
+      </c>
+      <c r="D13">
+        <v>1.120542303011416</v>
+      </c>
+      <c r="E13">
         <v>0.1870952442526272</v>
       </c>
-      <c r="D13">
-        <v>0.4291899956988435</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.12407327173895</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>0.4291899956988436</v>
+      </c>
+      <c r="H13">
+        <v>1.324001475886512</v>
+      </c>
+      <c r="I13">
+        <v>1.016747159982073</v>
+      </c>
+      <c r="J13">
         <v>0.1870952442526272</v>
       </c>
-      <c r="G13">
-        <v>1.324001475886511</v>
-      </c>
-      <c r="H13">
-        <v>1.016747159982073</v>
-      </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.1870952442526272</v>
       </c>
-      <c r="J13">
-        <v>0.4291899956988435</v>
-      </c>
-      <c r="K13">
-        <v>1.120542303011417</v>
-      </c>
       <c r="L13">
+        <v>0.9538174391954827</v>
+      </c>
+      <c r="M13">
         <v>1.136765566205405</v>
-      </c>
-      <c r="M13">
-        <v>0.9538174391954826</v>
       </c>
       <c r="N13">
         <v>0.1870952442526272</v>
@@ -1459,22 +1411,22 @@
         <v>0.5801195038968069</v>
       </c>
       <c r="S13">
-        <v>0.9590882477747682</v>
+        <v>0.9590882477747685</v>
       </c>
       <c r="T13">
         <v>0.5801195038968069</v>
       </c>
       <c r="U13">
-        <v>0.766089996894233</v>
+        <v>0.7660899968942332</v>
       </c>
       <c r="V13">
-        <v>0.6502910463659118</v>
+        <v>0.650291046365912</v>
       </c>
       <c r="W13">
         <v>0.9115290569964136</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1434,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1984753693927995</v>
+        <v>1.124890800717806</v>
       </c>
       <c r="D14">
+        <v>1.311327858802549</v>
+      </c>
+      <c r="E14">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="F14">
+        <v>0.2822497524117137</v>
+      </c>
+      <c r="G14">
         <v>1.124890800717806</v>
       </c>
-      <c r="E14">
-        <v>0.2822497524117139</v>
-      </c>
-      <c r="F14">
-        <v>0.1984753693927995</v>
-      </c>
-      <c r="G14">
-        <v>1.427999128784145</v>
-      </c>
       <c r="H14">
-        <v>0.4083458592629885</v>
+        <v>1.427999128784146</v>
       </c>
       <c r="I14">
-        <v>0.1984753693927995</v>
+        <v>0.4083458592629884</v>
       </c>
       <c r="J14">
-        <v>1.124890800717806</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="K14">
-        <v>1.311327858802549</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="L14">
+        <v>1.533670443087697</v>
+      </c>
+      <c r="M14">
         <v>1.193647977931714</v>
       </c>
-      <c r="M14">
-        <v>1.533670443087696</v>
-      </c>
       <c r="N14">
-        <v>0.1984753693927995</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="O14">
-        <v>0.2822497524117139</v>
+        <v>0.2822497524117137</v>
       </c>
       <c r="P14">
-        <v>0.7035702765647598</v>
+        <v>0.7035702765647596</v>
       </c>
       <c r="Q14">
-        <v>0.8551244405979295</v>
+        <v>0.8551244405979297</v>
       </c>
       <c r="R14">
-        <v>0.5352053075074397</v>
+        <v>0.5352053075074396</v>
       </c>
       <c r="S14">
         <v>0.9450465606378883</v>
       </c>
       <c r="T14">
-        <v>0.5352053075074398</v>
+        <v>0.5352053075074396</v>
       </c>
       <c r="U14">
         <v>0.758403762826616</v>
       </c>
       <c r="V14">
-        <v>0.6464180841398528</v>
+        <v>0.6464180841398527</v>
       </c>
       <c r="W14">
         <v>0.9350758987989265</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>2.094402482795869</v>
+      </c>
+      <c r="D15">
+        <v>0.9332565901690115</v>
+      </c>
+      <c r="E15">
         <v>1.227257498184662</v>
       </c>
-      <c r="D15">
-        <v>2.094402482795868</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.450493793635849</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>2.094402482795869</v>
+      </c>
+      <c r="H15">
+        <v>0.6198510108965755</v>
+      </c>
+      <c r="I15">
+        <v>1.21129753887605</v>
+      </c>
+      <c r="J15">
         <v>1.227257498184662</v>
       </c>
-      <c r="G15">
-        <v>0.6198510108965755</v>
-      </c>
-      <c r="H15">
-        <v>1.21129753887605</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
         <v>1.227257498184662</v>
       </c>
-      <c r="J15">
-        <v>2.094402482795868</v>
-      </c>
-      <c r="K15">
-        <v>0.9332565901690115</v>
-      </c>
       <c r="L15">
+        <v>1.148648632712702</v>
+      </c>
+      <c r="M15">
         <v>0.4680577318229997</v>
-      </c>
-      <c r="M15">
-        <v>1.148648632712702</v>
       </c>
       <c r="N15">
         <v>1.227257498184662</v>
@@ -1598,13 +1550,13 @@
         <v>1.035172402266212</v>
       </c>
       <c r="R15">
-        <v>1.590717924872126</v>
+        <v>1.590717924872127</v>
       </c>
       <c r="S15">
         <v>1.388249095776098</v>
       </c>
       <c r="T15">
-        <v>1.590717924872126</v>
+        <v>1.590717924872127</v>
       </c>
       <c r="U15">
         <v>1.348001196378239</v>
@@ -1616,7 +1568,7 @@
         <v>1.144158159886715</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.007283224576939</v>
+        <v>1.565635945286266</v>
       </c>
       <c r="D16">
-        <v>1.007180184780424</v>
+        <v>0.4453582881901167</v>
       </c>
       <c r="E16">
-        <v>1.00069098069891</v>
+        <v>2.261212544212993</v>
       </c>
       <c r="F16">
-        <v>1.007283224576939</v>
+        <v>1.062737134374848</v>
       </c>
       <c r="G16">
-        <v>0.9957179641009922</v>
+        <v>1.565635945286266</v>
       </c>
       <c r="H16">
-        <v>0.9995659097983443</v>
+        <v>0.9256181646081388</v>
       </c>
       <c r="I16">
-        <v>1.007283224576939</v>
+        <v>1.082939675926975</v>
       </c>
       <c r="J16">
-        <v>1.007180184780424</v>
+        <v>2.261212544212993</v>
       </c>
       <c r="K16">
-        <v>1.000230740500656</v>
+        <v>2.261212544212993</v>
       </c>
       <c r="L16">
-        <v>0.996968141885395</v>
+        <v>1.014964337327872</v>
       </c>
       <c r="M16">
-        <v>0.99928393035672</v>
+        <v>1.101453819172163</v>
       </c>
       <c r="N16">
-        <v>1.007283224576939</v>
+        <v>2.261212544212993</v>
       </c>
       <c r="O16">
-        <v>1.00069098069891</v>
+        <v>1.062737134374848</v>
       </c>
       <c r="P16">
-        <v>1.003935582739667</v>
+        <v>1.314186539830557</v>
       </c>
       <c r="Q16">
-        <v>0.9982044723999512</v>
+        <v>0.9941776494914936</v>
       </c>
       <c r="R16">
-        <v>1.005051463352092</v>
+        <v>1.629861874624702</v>
       </c>
       <c r="S16">
-        <v>1.001196376526776</v>
+        <v>1.184663748089751</v>
       </c>
       <c r="T16">
-        <v>1.005051463352092</v>
+        <v>1.629861874624702</v>
       </c>
       <c r="U16">
-        <v>1.002718088539317</v>
+        <v>1.453800947120562</v>
       </c>
       <c r="V16">
-        <v>1.003631115746841</v>
+        <v>1.615283266539048</v>
       </c>
       <c r="W16">
-        <v>1.000865134587298</v>
+        <v>1.182489988637422</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9847317910283866</v>
+        <v>1.320143222240684</v>
       </c>
       <c r="D17">
-        <v>0.9876083775710348</v>
+        <v>0.6312646170717535</v>
       </c>
       <c r="E17">
-        <v>1.011819517744103</v>
+        <v>1.806785876503361</v>
       </c>
       <c r="F17">
-        <v>0.9847317910283866</v>
+        <v>1.216495813973677</v>
       </c>
       <c r="G17">
-        <v>1.002977713984881</v>
+        <v>1.320143222240684</v>
       </c>
       <c r="H17">
-        <v>1.003794364128101</v>
+        <v>0.9133850990502544</v>
       </c>
       <c r="I17">
-        <v>0.9847317910283866</v>
+        <v>1.109429653463193</v>
       </c>
       <c r="J17">
-        <v>0.9876083775710348</v>
+        <v>1.806785876503361</v>
       </c>
       <c r="K17">
-        <v>0.9988177280202958</v>
+        <v>1.806785876503361</v>
       </c>
       <c r="L17">
-        <v>1.003075939002608</v>
+        <v>0.9616802710850841</v>
       </c>
       <c r="M17">
-        <v>0.9996297990972419</v>
+        <v>1.038549872627111</v>
       </c>
       <c r="N17">
-        <v>0.9847317910283866</v>
+        <v>1.806785876503361</v>
       </c>
       <c r="O17">
-        <v>1.011819517744103</v>
+        <v>1.216495813973677</v>
       </c>
       <c r="P17">
-        <v>0.9997139476575687</v>
+        <v>1.26831951810718</v>
       </c>
       <c r="Q17">
-        <v>1.007398615864492</v>
+        <v>1.064940456511966</v>
       </c>
       <c r="R17">
-        <v>0.9947198954478415</v>
+        <v>1.44780830423924</v>
       </c>
       <c r="S17">
-        <v>1.000801869766673</v>
+        <v>1.150008045088205</v>
       </c>
       <c r="T17">
-        <v>0.9947198954478415</v>
+        <v>1.44780830423924</v>
       </c>
       <c r="U17">
-        <v>0.9967843500821012</v>
+        <v>1.314202502941994</v>
       </c>
       <c r="V17">
-        <v>0.9943738382713583</v>
+        <v>1.412719177654267</v>
       </c>
       <c r="W17">
-        <v>0.9990569038220815</v>
+        <v>1.12471680325189</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.053531579994518</v>
+        <v>0.8314979857697127</v>
       </c>
       <c r="D18">
-        <v>1.039252265096551</v>
+        <v>1.001671204405375</v>
       </c>
       <c r="E18">
-        <v>0.9910118460667627</v>
+        <v>0.9022362742921659</v>
       </c>
       <c r="F18">
-        <v>1.053531579994518</v>
+        <v>1.513883646287317</v>
       </c>
       <c r="G18">
-        <v>0.9891649221164635</v>
+        <v>0.8314979857697127</v>
       </c>
       <c r="H18">
-        <v>0.9951843398594346</v>
+        <v>0.8907535834842215</v>
       </c>
       <c r="I18">
-        <v>1.053531579994518</v>
+        <v>1.160331329316308</v>
       </c>
       <c r="J18">
-        <v>1.039252265096551</v>
+        <v>0.9022362742921659</v>
       </c>
       <c r="K18">
-        <v>0.9939908758921788</v>
+        <v>0.9022362742921659</v>
       </c>
       <c r="L18">
-        <v>0.9972877311775813</v>
+        <v>0.8562919910508224</v>
       </c>
       <c r="M18">
-        <v>0.9969663716627418</v>
+        <v>0.9160228916108742</v>
       </c>
       <c r="N18">
-        <v>1.053531579994518</v>
+        <v>0.9022362742921659</v>
       </c>
       <c r="O18">
-        <v>0.9910118460667627</v>
+        <v>1.513883646287317</v>
       </c>
       <c r="P18">
-        <v>1.015132055581657</v>
+        <v>1.172690816028515</v>
       </c>
       <c r="Q18">
-        <v>0.990088384091613</v>
+        <v>1.202318614885769</v>
       </c>
       <c r="R18">
-        <v>1.027931897052611</v>
+        <v>1.082539302116398</v>
       </c>
       <c r="S18">
-        <v>1.006476344426593</v>
+        <v>1.07871173851375</v>
       </c>
       <c r="T18">
-        <v>1.027931897052611</v>
+        <v>1.082539302116398</v>
       </c>
       <c r="U18">
-        <v>1.018240153318574</v>
+        <v>1.034592872458354</v>
       </c>
       <c r="V18">
-        <v>1.025298438653763</v>
+        <v>1.008121552825117</v>
       </c>
       <c r="W18">
-        <v>1.007048741483279</v>
+        <v>1.0090861132771</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8791384894230498</v>
+      </c>
+      <c r="D19">
+        <v>0.9947840770225298</v>
+      </c>
+      <c r="E19">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="F19">
+        <v>1.785573920447649</v>
+      </c>
+      <c r="G19">
+        <v>0.8791384894230498</v>
+      </c>
+      <c r="H19">
+        <v>0.8003334378045489</v>
+      </c>
+      <c r="I19">
+        <v>1.236653765448589</v>
+      </c>
+      <c r="J19">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="K19">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="L19">
+        <v>0.8273357059683958</v>
+      </c>
+      <c r="M19">
+        <v>0.8358600550508909</v>
+      </c>
+      <c r="N19">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="O19">
+        <v>1.785573920447649</v>
+      </c>
+      <c r="P19">
+        <v>1.332356204935349</v>
+      </c>
+      <c r="Q19">
+        <v>1.292953679126099</v>
+      </c>
+      <c r="R19">
+        <v>1.170592821128931</v>
+      </c>
+      <c r="S19">
+        <v>1.155015282558416</v>
+      </c>
+      <c r="T19">
+        <v>1.170592821128931</v>
+      </c>
+      <c r="U19">
+        <v>1.078027975297835</v>
+      </c>
+      <c r="V19">
+        <v>1.031835590941487</v>
+      </c>
+      <c r="W19">
+        <v>1.025843188085219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.007180184780424</v>
+      </c>
+      <c r="D20">
+        <v>1.000230740500655</v>
+      </c>
+      <c r="E20">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="F20">
+        <v>1.000690980698909</v>
+      </c>
+      <c r="G20">
+        <v>1.007180184780424</v>
+      </c>
+      <c r="H20">
+        <v>0.9957179641009924</v>
+      </c>
+      <c r="I20">
+        <v>0.9995659097983443</v>
+      </c>
+      <c r="J20">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="K20">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="L20">
+        <v>0.9992839303567203</v>
+      </c>
+      <c r="M20">
+        <v>0.9969681418853953</v>
+      </c>
+      <c r="N20">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="O20">
+        <v>1.000690980698909</v>
+      </c>
+      <c r="P20">
+        <v>1.003935582739667</v>
+      </c>
+      <c r="Q20">
+        <v>0.998204472399951</v>
+      </c>
+      <c r="R20">
+        <v>1.005051463352091</v>
+      </c>
+      <c r="S20">
+        <v>1.001196376526775</v>
+      </c>
+      <c r="T20">
+        <v>1.005051463352091</v>
+      </c>
+      <c r="U20">
+        <v>1.002718088539317</v>
+      </c>
+      <c r="V20">
+        <v>1.003631115746841</v>
+      </c>
+      <c r="W20">
+        <v>1.000865134587298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9876083775710351</v>
+      </c>
+      <c r="D21">
+        <v>0.9988177280202946</v>
+      </c>
+      <c r="E21">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="F21">
+        <v>1.011819517744103</v>
+      </c>
+      <c r="G21">
+        <v>0.9876083775710351</v>
+      </c>
+      <c r="H21">
+        <v>1.002977713984881</v>
+      </c>
+      <c r="I21">
+        <v>1.003794364128101</v>
+      </c>
+      <c r="J21">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="K21">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="L21">
+        <v>0.999629799097242</v>
+      </c>
+      <c r="M21">
+        <v>1.003075939002608</v>
+      </c>
+      <c r="N21">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="O21">
+        <v>1.011819517744103</v>
+      </c>
+      <c r="P21">
+        <v>0.999713947657569</v>
+      </c>
+      <c r="Q21">
+        <v>1.007398615864492</v>
+      </c>
+      <c r="R21">
+        <v>0.9947198954478417</v>
+      </c>
+      <c r="S21">
+        <v>1.000801869766673</v>
+      </c>
+      <c r="T21">
+        <v>0.9947198954478417</v>
+      </c>
+      <c r="U21">
+        <v>0.9967843500821014</v>
+      </c>
+      <c r="V21">
+        <v>0.9943738382713585</v>
+      </c>
+      <c r="W21">
+        <v>0.9990569038220813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.039252265096552</v>
+      </c>
+      <c r="D22">
+        <v>0.9939908758921784</v>
+      </c>
+      <c r="E22">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="F22">
+        <v>0.9910118460667625</v>
+      </c>
+      <c r="G22">
+        <v>1.039252265096552</v>
+      </c>
+      <c r="H22">
+        <v>0.989164922116463</v>
+      </c>
+      <c r="I22">
+        <v>0.9951843398594349</v>
+      </c>
+      <c r="J22">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="K22">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="L22">
+        <v>0.9969663716627415</v>
+      </c>
+      <c r="M22">
+        <v>0.9972877311775811</v>
+      </c>
+      <c r="N22">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="O22">
+        <v>0.9910118460667625</v>
+      </c>
+      <c r="P22">
+        <v>1.015132055581657</v>
+      </c>
+      <c r="Q22">
+        <v>0.9900883840916128</v>
+      </c>
+      <c r="R22">
+        <v>1.027931897052611</v>
+      </c>
+      <c r="S22">
+        <v>1.006476344426593</v>
+      </c>
+      <c r="T22">
+        <v>1.027931897052611</v>
+      </c>
+      <c r="U22">
+        <v>1.018240153318574</v>
+      </c>
+      <c r="V22">
+        <v>1.025298438653763</v>
+      </c>
+      <c r="W22">
+        <v>1.007048741483279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.14244774914139</v>
+      </c>
+      <c r="D23">
+        <v>0.9745795681442522</v>
+      </c>
+      <c r="E23">
         <v>1.19847239911013</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9460257183358372</v>
+      </c>
+      <c r="G23">
         <v>1.14244774914139</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9532836906794623</v>
+      </c>
+      <c r="I23">
+        <v>0.993191089094258</v>
+      </c>
+      <c r="J23">
+        <v>1.19847239911013</v>
+      </c>
+      <c r="K23">
+        <v>1.19847239911013</v>
+      </c>
+      <c r="L23">
+        <v>1.002129459278065</v>
+      </c>
+      <c r="M23">
+        <v>0.9705574599970437</v>
+      </c>
+      <c r="N23">
+        <v>1.19847239911013</v>
+      </c>
+      <c r="O23">
         <v>0.9460257183358372</v>
       </c>
-      <c r="F19">
-        <v>1.19847239911013</v>
-      </c>
-      <c r="G19">
-        <v>0.9532836906794624</v>
-      </c>
-      <c r="H19">
-        <v>0.9931910890942578</v>
-      </c>
-      <c r="I19">
-        <v>1.19847239911013</v>
-      </c>
-      <c r="J19">
-        <v>1.14244774914139</v>
-      </c>
-      <c r="K19">
-        <v>0.9745795681442522</v>
-      </c>
-      <c r="L19">
-        <v>0.9705574599970437</v>
-      </c>
-      <c r="M19">
-        <v>1.002129459278065</v>
-      </c>
-      <c r="N19">
-        <v>1.19847239911013</v>
-      </c>
-      <c r="O19">
-        <v>0.9460257183358372</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.044236733738614</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9496547045076498</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.095648622195786</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.013919052718897</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.095648622195786</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.060057389316705</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.08774039127539</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.022585891722555</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.036965242401608</v>
+        <v>0.8208984585540889</v>
       </c>
       <c r="D3">
-        <v>0.9663026480904368</v>
+        <v>0.9743794637509494</v>
       </c>
       <c r="E3">
-        <v>1.072567366147534</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="F3">
-        <v>1.005729413725936</v>
+        <v>1.675374337351592</v>
       </c>
       <c r="G3">
-        <v>1.036965242401608</v>
+        <v>0.8208984585540889</v>
       </c>
       <c r="H3">
-        <v>0.9972453555767875</v>
+        <v>0.8655915889121029</v>
       </c>
       <c r="I3">
-        <v>1.003414476122849</v>
+        <v>1.195631661198846</v>
       </c>
       <c r="J3">
-        <v>1.072567366147534</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="K3">
-        <v>1.072567366147534</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="L3">
-        <v>1.002476443339916</v>
+        <v>0.8297690800503902</v>
       </c>
       <c r="M3">
-        <v>1.005042255997808</v>
+        <v>0.9012411572795369</v>
       </c>
       <c r="N3">
-        <v>1.072567366147534</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="O3">
-        <v>1.005729413725936</v>
+        <v>1.675374337351592</v>
       </c>
       <c r="P3">
-        <v>1.021347328063773</v>
+        <v>1.24813639795284</v>
       </c>
       <c r="Q3">
-        <v>1.001487384651362</v>
+        <v>1.270482963131847</v>
       </c>
       <c r="R3">
-        <v>1.038420674091693</v>
+        <v>1.135298703716961</v>
       </c>
       <c r="S3">
-        <v>1.013313337234778</v>
+        <v>1.120621461605928</v>
       </c>
       <c r="T3">
-        <v>1.038420674091693</v>
+        <v>1.135298703716961</v>
       </c>
       <c r="U3">
-        <v>1.028126844462967</v>
+        <v>1.067871925015746</v>
       </c>
       <c r="V3">
-        <v>1.03701494879988</v>
+        <v>1.036222203061638</v>
       </c>
       <c r="W3">
-        <v>1.01121790017536</v>
+        <v>1.021563632792839</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.064321935967398</v>
+        <v>0.8250435461416107</v>
       </c>
       <c r="D4">
-        <v>0.9398226413650237</v>
+        <v>0.9904758135736023</v>
       </c>
       <c r="E4">
-        <v>1.13719015288514</v>
+        <v>0.9023968859908896</v>
       </c>
       <c r="F4">
-        <v>1.006698973300732</v>
+        <v>1.593857589789883</v>
       </c>
       <c r="G4">
-        <v>1.064321935967398</v>
+        <v>0.8250435461416107</v>
       </c>
       <c r="H4">
-        <v>0.9947388519851915</v>
+        <v>0.8776809160832995</v>
       </c>
       <c r="I4">
-        <v>1.005807698721177</v>
+        <v>1.178338681795756</v>
       </c>
       <c r="J4">
-        <v>1.13719015288514</v>
+        <v>0.9023968859908896</v>
       </c>
       <c r="K4">
-        <v>1.13719015288514</v>
+        <v>0.9023968859908896</v>
       </c>
       <c r="L4">
-        <v>1.004709783190724</v>
+        <v>0.8434015765494844</v>
       </c>
       <c r="M4">
-        <v>1.011394490403949</v>
+        <v>0.9062236961324063</v>
       </c>
       <c r="N4">
-        <v>1.13719015288514</v>
+        <v>0.9023968859908896</v>
       </c>
       <c r="O4">
-        <v>1.006698973300732</v>
+        <v>1.593857589789883</v>
       </c>
       <c r="P4">
-        <v>1.035510454634065</v>
+        <v>1.209450567965747</v>
       </c>
       <c r="Q4">
-        <v>1.000718912642962</v>
+        <v>1.235769252936591</v>
       </c>
       <c r="R4">
-        <v>1.069403687384423</v>
+        <v>1.107099340640794</v>
       </c>
       <c r="S4">
-        <v>1.021919920417774</v>
+        <v>1.098860684004931</v>
       </c>
       <c r="T4">
-        <v>1.069403687384423</v>
+        <v>1.107099340640795</v>
       </c>
       <c r="U4">
-        <v>1.050737478534615</v>
+        <v>1.049744734501421</v>
       </c>
       <c r="V4">
-        <v>1.06802801340472</v>
+        <v>1.020275164799315</v>
       </c>
       <c r="W4">
-        <v>1.020585565977417</v>
+        <v>1.014677338257116</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.135015456391049</v>
+        <v>0.8117478495857073</v>
       </c>
       <c r="D5">
-        <v>0.888666132837603</v>
+        <v>0.9444688552935837</v>
       </c>
       <c r="E5">
-        <v>1.276944721361809</v>
+        <v>0.9212778784742325</v>
       </c>
       <c r="F5">
-        <v>1.024289187636179</v>
+        <v>1.830985057333696</v>
       </c>
       <c r="G5">
-        <v>1.135015456391049</v>
+        <v>0.8117478495857073</v>
       </c>
       <c r="H5">
-        <v>0.9918407958225328</v>
+        <v>0.8429733998059304</v>
       </c>
       <c r="I5">
-        <v>1.021716497644927</v>
+        <v>1.228112544555256</v>
       </c>
       <c r="J5">
-        <v>1.276944721361809</v>
+        <v>0.9212778784742325</v>
       </c>
       <c r="K5">
-        <v>1.276944721361809</v>
+        <v>0.9212778784742325</v>
       </c>
       <c r="L5">
-        <v>1.013095311980762</v>
+        <v>0.803589847036927</v>
       </c>
       <c r="M5">
-        <v>1.025735084627094</v>
+        <v>0.892387631700809</v>
       </c>
       <c r="N5">
-        <v>1.276944721361809</v>
+        <v>0.9212778784742325</v>
       </c>
       <c r="O5">
-        <v>1.024289187636179</v>
+        <v>1.830985057333696</v>
       </c>
       <c r="P5">
-        <v>1.079652322013614</v>
+        <v>1.321366453459702</v>
       </c>
       <c r="Q5">
-        <v>1.008064991729356</v>
+        <v>1.336979228569813</v>
       </c>
       <c r="R5">
-        <v>1.145416455129679</v>
+        <v>1.188003595131212</v>
       </c>
       <c r="S5">
-        <v>1.050381813283254</v>
+        <v>1.161902102241778</v>
       </c>
       <c r="T5">
-        <v>1.145416455129679</v>
+        <v>1.188003595131212</v>
       </c>
       <c r="U5">
-        <v>1.107022540302893</v>
+        <v>1.101746046299892</v>
       </c>
       <c r="V5">
-        <v>1.141006976514676</v>
+        <v>1.06565241273476</v>
       </c>
       <c r="W5">
-        <v>1.047162898537744</v>
+        <v>1.034442882973268</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.261101042591308</v>
+        <v>0.8032144561671594</v>
       </c>
       <c r="D6">
-        <v>0.7878851631677727</v>
+        <v>0.9172928745040917</v>
       </c>
       <c r="E6">
-        <v>1.465847113496503</v>
+        <v>0.9311285039624996</v>
       </c>
       <c r="F6">
-        <v>1.107667706015549</v>
+        <v>1.980992904588636</v>
       </c>
       <c r="G6">
-        <v>1.261101042591308</v>
+        <v>0.8032144561671594</v>
       </c>
       <c r="H6">
-        <v>1.04606773006256</v>
+        <v>0.8235071144772721</v>
       </c>
       <c r="I6">
-        <v>1.015203022926041</v>
+        <v>1.25793009846591</v>
       </c>
       <c r="J6">
-        <v>1.465847113496503</v>
+        <v>0.9311285039624996</v>
       </c>
       <c r="K6">
-        <v>1.465847113496503</v>
+        <v>0.9311285039624996</v>
       </c>
       <c r="L6">
-        <v>1.012765302427835</v>
+        <v>0.7789525466142048</v>
       </c>
       <c r="M6">
-        <v>1.008904989168817</v>
+        <v>0.8865061153920465</v>
       </c>
       <c r="N6">
-        <v>1.465847113496503</v>
+        <v>0.9311285039624996</v>
       </c>
       <c r="O6">
-        <v>1.107667706015549</v>
+        <v>1.980992904588636</v>
       </c>
       <c r="P6">
-        <v>1.184384374303428</v>
+        <v>1.392103680377898</v>
       </c>
       <c r="Q6">
-        <v>1.076867718039055</v>
+        <v>1.402250009532954</v>
       </c>
       <c r="R6">
-        <v>1.278205287367786</v>
+        <v>1.238445288239432</v>
       </c>
       <c r="S6">
-        <v>1.138278826223139</v>
+        <v>1.202571491744356</v>
       </c>
       <c r="T6">
-        <v>1.278205287367786</v>
+        <v>1.238445288239432</v>
       </c>
       <c r="U6">
-        <v>1.22017089804148</v>
+        <v>1.134710744798892</v>
       </c>
       <c r="V6">
-        <v>1.269306141132484</v>
+        <v>1.093994296631613</v>
       </c>
       <c r="W6">
-        <v>1.088180258732048</v>
+        <v>1.047440576771477</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987145329602173</v>
+        <v>0.001385702188627054</v>
       </c>
       <c r="D7">
-        <v>0.9995283337584981</v>
+        <v>0.5678446009082109</v>
       </c>
       <c r="E7">
-        <v>0.9989698924307933</v>
+        <v>0.3141922157574663</v>
       </c>
       <c r="F7">
-        <v>1.006474779620875</v>
+        <v>2.470539964015434</v>
       </c>
       <c r="G7">
-        <v>0.9987145329602173</v>
+        <v>0.001385702188627054</v>
       </c>
       <c r="H7">
-        <v>0.9992476449335369</v>
+        <v>0.7215043412431862</v>
       </c>
       <c r="I7">
-        <v>1.001302610139186</v>
+        <v>1.788463893064255</v>
       </c>
       <c r="J7">
-        <v>0.9989698924307933</v>
+        <v>0.3141922157574663</v>
       </c>
       <c r="K7">
-        <v>0.9989698924307933</v>
+        <v>0.3141922157574663</v>
       </c>
       <c r="L7">
-        <v>0.9988638822499092</v>
+        <v>0.1057028834473861</v>
       </c>
       <c r="M7">
-        <v>0.9994044950626975</v>
+        <v>1.447227510026767</v>
       </c>
       <c r="N7">
-        <v>0.9989698924307933</v>
+        <v>0.3141922157574663</v>
       </c>
       <c r="O7">
-        <v>1.006474779620875</v>
+        <v>2.470539964015434</v>
       </c>
       <c r="P7">
-        <v>1.002594656290546</v>
+        <v>1.23596283310203</v>
       </c>
       <c r="Q7">
-        <v>1.002861212277206</v>
+        <v>1.59602215262931</v>
       </c>
       <c r="R7">
-        <v>1.001386401670629</v>
+        <v>0.9287059606538425</v>
       </c>
       <c r="S7">
-        <v>1.00147898583821</v>
+        <v>1.064476669149082</v>
       </c>
       <c r="T7">
-        <v>1.001386401670629</v>
+        <v>0.9287059606538423</v>
       </c>
       <c r="U7">
-        <v>1.000851712486356</v>
+        <v>0.8769055558011782</v>
       </c>
       <c r="V7">
-        <v>1.000475348475243</v>
+        <v>0.7643628877924359</v>
       </c>
       <c r="W7">
-        <v>1.000313271394464</v>
+        <v>0.9271076388314166</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9966410272784649</v>
+        <v>0.001385562194050447</v>
       </c>
       <c r="D8">
-        <v>0.9995601028375825</v>
+        <v>0.5677721269685765</v>
       </c>
       <c r="E8">
-        <v>0.9973913953917507</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="F8">
-        <v>1.013557099933327</v>
+        <v>2.485380016487212</v>
       </c>
       <c r="G8">
-        <v>0.9966410272784649</v>
+        <v>0.001385562194050447</v>
       </c>
       <c r="H8">
-        <v>0.997139138859251</v>
+        <v>0.7208521572890533</v>
       </c>
       <c r="I8">
-        <v>1.003463314452179</v>
+        <v>1.788186260714938</v>
       </c>
       <c r="J8">
-        <v>0.9973913953917507</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="K8">
-        <v>0.9973913953917507</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="L8">
-        <v>0.996313720286784</v>
+        <v>0.1056032685047131</v>
       </c>
       <c r="M8">
-        <v>0.998940878650218</v>
+        <v>1.445914630321507</v>
       </c>
       <c r="N8">
-        <v>0.9973913953917507</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="O8">
-        <v>1.013557099933327</v>
+        <v>2.485380016487212</v>
       </c>
       <c r="P8">
-        <v>1.005099063605896</v>
+        <v>1.243382789340631</v>
       </c>
       <c r="Q8">
-        <v>1.005348119396289</v>
+        <v>1.603116086888133</v>
       </c>
       <c r="R8">
-        <v>1.002529840867848</v>
+        <v>0.9335526473266352</v>
       </c>
       <c r="S8">
-        <v>1.002445755357014</v>
+        <v>1.069205911990105</v>
       </c>
       <c r="T8">
-        <v>1.002529840867848</v>
+        <v>0.9335526473266352</v>
       </c>
       <c r="U8">
-        <v>1.001182165365698</v>
+        <v>0.8803775248172397</v>
       </c>
       <c r="V8">
-        <v>1.000424011370909</v>
+        <v>0.7670804925135204</v>
       </c>
       <c r="W8">
-        <v>1.000375834711195</v>
+        <v>0.9286232982223367</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9946834761648908</v>
+        <v>0.001382497414994814</v>
       </c>
       <c r="D9">
-        <v>0.9982343046442744</v>
+        <v>0.5683507753707144</v>
       </c>
       <c r="E9">
-        <v>0.9959410896239499</v>
+        <v>0.3126531445825398</v>
       </c>
       <c r="F9">
-        <v>1.017165676068001</v>
+        <v>2.508267877418877</v>
       </c>
       <c r="G9">
-        <v>0.9946834761648908</v>
+        <v>0.001382497414994814</v>
       </c>
       <c r="H9">
-        <v>0.9982993125756853</v>
+        <v>0.7180123022831439</v>
       </c>
       <c r="I9">
-        <v>1.003938014320451</v>
+        <v>1.78995499520869</v>
       </c>
       <c r="J9">
-        <v>0.9959410896239499</v>
+        <v>0.3126531445825398</v>
       </c>
       <c r="K9">
-        <v>0.9959410896239499</v>
+        <v>0.3126531445825398</v>
       </c>
       <c r="L9">
-        <v>0.9954790203751883</v>
+        <v>0.1051922367273186</v>
       </c>
       <c r="M9">
-        <v>1.000971007105117</v>
+        <v>1.440201422527679</v>
       </c>
       <c r="N9">
-        <v>0.9959410896239499</v>
+        <v>0.3126531445825398</v>
       </c>
       <c r="O9">
-        <v>1.017165676068001</v>
+        <v>2.508267877418877</v>
       </c>
       <c r="P9">
-        <v>1.005924576116446</v>
+        <v>1.254825187416936</v>
       </c>
       <c r="Q9">
-        <v>1.007732494321843</v>
+        <v>1.61314008985101</v>
       </c>
       <c r="R9">
-        <v>1.002596747285614</v>
+        <v>0.9407678398054705</v>
       </c>
       <c r="S9">
-        <v>1.003382821602859</v>
+        <v>1.075887559039005</v>
       </c>
       <c r="T9">
-        <v>1.002596747285614</v>
+        <v>0.9407678398054705</v>
       </c>
       <c r="U9">
-        <v>1.001522388608132</v>
+        <v>0.8850789554248888</v>
       </c>
       <c r="V9">
-        <v>1.000406128811295</v>
+        <v>0.770593793256419</v>
       </c>
       <c r="W9">
-        <v>1.000588987609695</v>
+        <v>0.9305019064417446</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9889031052246625</v>
+        <v>0.001402702941852901</v>
       </c>
       <c r="D10">
-        <v>0.9964769609863934</v>
+        <v>0.5653272573833525</v>
       </c>
       <c r="E10">
-        <v>0.9915977098176272</v>
+        <v>0.3150558485784588</v>
       </c>
       <c r="F10">
-        <v>1.041216472673288</v>
+        <v>2.528602050702244</v>
       </c>
       <c r="G10">
-        <v>0.9889031052246625</v>
+        <v>0.001402702941852901</v>
       </c>
       <c r="H10">
-        <v>0.9947264074317996</v>
+        <v>0.723656431256832</v>
       </c>
       <c r="I10">
-        <v>1.009134869489735</v>
+        <v>1.78022848146283</v>
       </c>
       <c r="J10">
-        <v>0.9915977098176272</v>
+        <v>0.3150558485784588</v>
       </c>
       <c r="K10">
-        <v>0.9915977098176272</v>
+        <v>0.3150558485784588</v>
       </c>
       <c r="L10">
-        <v>0.9898202727096107</v>
+        <v>0.1059889059425693</v>
       </c>
       <c r="M10">
-        <v>1.000277280143379</v>
+        <v>1.451498171207331</v>
       </c>
       <c r="N10">
-        <v>0.9915977098176272</v>
+        <v>0.3150558485784588</v>
       </c>
       <c r="O10">
-        <v>1.041216472673288</v>
+        <v>2.528602050702244</v>
       </c>
       <c r="P10">
-        <v>1.015059788948975</v>
+        <v>1.265002376822049</v>
       </c>
       <c r="Q10">
-        <v>1.017971440052544</v>
+        <v>1.626129240979538</v>
       </c>
       <c r="R10">
-        <v>1.007239095905192</v>
+        <v>0.9483535340741853</v>
       </c>
       <c r="S10">
-        <v>1.008281995109917</v>
+        <v>1.08455372830031</v>
       </c>
       <c r="T10">
-        <v>1.007239095905192</v>
+        <v>0.9483535340741853</v>
       </c>
       <c r="U10">
-        <v>1.004110923786844</v>
+        <v>0.892179258369847</v>
       </c>
       <c r="V10">
-        <v>1.001608280993001</v>
+        <v>0.7767545764115693</v>
       </c>
       <c r="W10">
-        <v>1.001519134809562</v>
+        <v>0.9339699811844338</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9800727663260642</v>
+        <v>1.028116037823652</v>
       </c>
       <c r="D11">
-        <v>0.9962670173106613</v>
+        <v>0.9658650327671742</v>
       </c>
       <c r="E11">
-        <v>0.9872028227904524</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="F11">
-        <v>1.05788586573848</v>
+        <v>0.9973282504329232</v>
       </c>
       <c r="G11">
-        <v>0.9800727663260642</v>
+        <v>1.028116037823652</v>
       </c>
       <c r="H11">
-        <v>0.9908793646931114</v>
+        <v>0.9972750863664599</v>
       </c>
       <c r="I11">
-        <v>1.013052545395172</v>
+        <v>1.005630399556859</v>
       </c>
       <c r="J11">
-        <v>0.9872028227904524</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="K11">
-        <v>0.9872028227904524</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="L11">
-        <v>0.9832152176922976</v>
+        <v>0.9982993038989216</v>
       </c>
       <c r="M11">
-        <v>1.005691990545817</v>
+        <v>1.011831941847921</v>
       </c>
       <c r="N11">
-        <v>0.9872028227904524</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="O11">
-        <v>1.05788586573848</v>
+        <v>0.9973282504329232</v>
       </c>
       <c r="P11">
-        <v>1.018979316032272</v>
+        <v>1.012722144128288</v>
       </c>
       <c r="Q11">
-        <v>1.024382615215796</v>
+        <v>0.9973016683996916</v>
       </c>
       <c r="R11">
-        <v>1.008387151618332</v>
+        <v>1.031224540166677</v>
       </c>
       <c r="S11">
-        <v>1.009612665585885</v>
+        <v>1.007573124874345</v>
       </c>
       <c r="T11">
-        <v>1.008387151618332</v>
+        <v>1.031224540166677</v>
       </c>
       <c r="U11">
-        <v>1.004010204887027</v>
+        <v>1.022737176716622</v>
       </c>
       <c r="V11">
-        <v>1.000648728467712</v>
+        <v>1.031835607821989</v>
       </c>
       <c r="W11">
-        <v>1.001783448811507</v>
+        <v>1.009071923117171</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.327374721268487</v>
+        <v>1.012436638656481</v>
       </c>
       <c r="D12">
-        <v>0.6298883385390468</v>
+        <v>0.9820478837925114</v>
       </c>
       <c r="E12">
-        <v>2.034395729111162</v>
+        <v>1.032701004758735</v>
       </c>
       <c r="F12">
-        <v>0.1153595862717336</v>
+        <v>1.010068154244268</v>
       </c>
       <c r="G12">
-        <v>2.327374721268487</v>
+        <v>1.012436638656481</v>
       </c>
       <c r="H12">
-        <v>0.8753736642658296</v>
+        <v>0.9963737126732091</v>
       </c>
       <c r="I12">
-        <v>0.68763290974809</v>
+        <v>1.005959054525768</v>
       </c>
       <c r="J12">
-        <v>2.034395729111162</v>
+        <v>1.032701004758735</v>
       </c>
       <c r="K12">
-        <v>2.034395729111162</v>
+        <v>1.032701004758735</v>
       </c>
       <c r="L12">
-        <v>1.40085442028962</v>
+        <v>0.9969302940870483</v>
       </c>
       <c r="M12">
-        <v>1.063288951095446</v>
+        <v>1.003980699440165</v>
       </c>
       <c r="N12">
-        <v>2.034395729111162</v>
+        <v>1.032701004758735</v>
       </c>
       <c r="O12">
-        <v>0.1153595862717336</v>
+        <v>1.010068154244268</v>
       </c>
       <c r="P12">
-        <v>1.22136715377011</v>
+        <v>1.011252396450375</v>
       </c>
       <c r="Q12">
-        <v>0.4953666252687816</v>
+        <v>1.003220933458739</v>
       </c>
       <c r="R12">
-        <v>1.492376678883794</v>
+        <v>1.018401932553161</v>
       </c>
       <c r="S12">
-        <v>1.106035990602017</v>
+        <v>1.006292835191319</v>
       </c>
       <c r="T12">
-        <v>1.492376678883794</v>
+        <v>1.018401932553161</v>
       </c>
       <c r="U12">
-        <v>1.338125925229303</v>
+        <v>1.012894877583173</v>
       </c>
       <c r="V12">
-        <v>1.477379886005675</v>
+        <v>1.016856103018286</v>
       </c>
       <c r="W12">
-        <v>1.141771040073677</v>
+        <v>1.005062180272273</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4291899956988436</v>
+        <v>1.051943873020562</v>
       </c>
       <c r="D13">
-        <v>1.120542303011416</v>
+        <v>0.9354989972254794</v>
       </c>
       <c r="E13">
-        <v>0.1870952442526272</v>
+        <v>1.122111450904569</v>
       </c>
       <c r="F13">
-        <v>1.12407327173895</v>
+        <v>1.030936501734384</v>
       </c>
       <c r="G13">
-        <v>0.4291899956988436</v>
+        <v>1.051943873020562</v>
       </c>
       <c r="H13">
-        <v>1.324001475886512</v>
+        <v>0.9872659402872113</v>
       </c>
       <c r="I13">
-        <v>1.016747159982073</v>
+        <v>1.023701716096427</v>
       </c>
       <c r="J13">
-        <v>0.1870952442526272</v>
+        <v>1.122111450904569</v>
       </c>
       <c r="K13">
-        <v>0.1870952442526272</v>
+        <v>1.122111450904569</v>
       </c>
       <c r="L13">
-        <v>0.9538174391954827</v>
+        <v>0.9932175977645277</v>
       </c>
       <c r="M13">
-        <v>1.136765566205405</v>
+        <v>1.009538504586758</v>
       </c>
       <c r="N13">
-        <v>0.1870952442526272</v>
+        <v>1.122111450904569</v>
       </c>
       <c r="O13">
-        <v>1.12407327173895</v>
+        <v>1.030936501734384</v>
       </c>
       <c r="P13">
-        <v>0.7766316337188968</v>
+        <v>1.041440187377473</v>
       </c>
       <c r="Q13">
-        <v>1.224037373812731</v>
+        <v>1.009101221010798</v>
       </c>
       <c r="R13">
-        <v>0.5801195038968069</v>
+        <v>1.068330608553172</v>
       </c>
       <c r="S13">
-        <v>0.9590882477747685</v>
+        <v>1.023382105014053</v>
       </c>
       <c r="T13">
-        <v>0.5801195038968069</v>
+        <v>1.068330608553172</v>
       </c>
       <c r="U13">
-        <v>0.7660899968942332</v>
+        <v>1.048064441486682</v>
       </c>
       <c r="V13">
-        <v>0.650291046365912</v>
+        <v>1.062873843370259</v>
       </c>
       <c r="W13">
-        <v>0.9115290569964136</v>
+        <v>1.01927682270249</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.124890800717806</v>
+        <v>1.093842715509077</v>
       </c>
       <c r="D14">
-        <v>1.311327858802549</v>
+        <v>0.914497377308102</v>
       </c>
       <c r="E14">
-        <v>0.1984753693927994</v>
+        <v>1.193329053352217</v>
       </c>
       <c r="F14">
-        <v>0.2822497524117137</v>
+        <v>1.015270926928874</v>
       </c>
       <c r="G14">
-        <v>1.124890800717806</v>
+        <v>1.093842715509077</v>
       </c>
       <c r="H14">
-        <v>1.427999128784146</v>
+        <v>0.9890355741672376</v>
       </c>
       <c r="I14">
-        <v>0.4083458592629884</v>
+        <v>1.011505714325341</v>
       </c>
       <c r="J14">
-        <v>0.1984753693927994</v>
+        <v>1.193329053352217</v>
       </c>
       <c r="K14">
-        <v>0.1984753693927994</v>
+        <v>1.193329053352217</v>
       </c>
       <c r="L14">
-        <v>1.533670443087697</v>
+        <v>1.004319189623713</v>
       </c>
       <c r="M14">
-        <v>1.193647977931714</v>
+        <v>1.019480423367578</v>
       </c>
       <c r="N14">
-        <v>0.1984753693927994</v>
+        <v>1.193329053352217</v>
       </c>
       <c r="O14">
-        <v>0.2822497524117137</v>
+        <v>1.015270926928874</v>
       </c>
       <c r="P14">
-        <v>0.7035702765647596</v>
+        <v>1.054556821218976</v>
       </c>
       <c r="Q14">
-        <v>0.8551244405979297</v>
+        <v>1.002153250548056</v>
       </c>
       <c r="R14">
-        <v>0.5352053075074396</v>
+        <v>1.100814231930056</v>
       </c>
       <c r="S14">
-        <v>0.9450465606378883</v>
+        <v>1.032716405535063</v>
       </c>
       <c r="T14">
-        <v>0.5352053075074396</v>
+        <v>1.100814231930056</v>
       </c>
       <c r="U14">
-        <v>0.758403762826616</v>
+        <v>1.072869567489352</v>
       </c>
       <c r="V14">
-        <v>0.6464180841398527</v>
+        <v>1.096961464661925</v>
       </c>
       <c r="W14">
-        <v>0.9350758987989265</v>
+        <v>1.030160121822768</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.094402482795869</v>
+        <v>1.036965242401608</v>
       </c>
       <c r="D15">
-        <v>0.9332565901690115</v>
+        <v>0.9663026480904368</v>
       </c>
       <c r="E15">
-        <v>1.227257498184662</v>
+        <v>1.072567366147534</v>
       </c>
       <c r="F15">
-        <v>1.450493793635849</v>
+        <v>1.005729413725936</v>
       </c>
       <c r="G15">
-        <v>2.094402482795869</v>
+        <v>1.036965242401608</v>
       </c>
       <c r="H15">
-        <v>0.6198510108965755</v>
+        <v>0.9972453555767875</v>
       </c>
       <c r="I15">
-        <v>1.21129753887605</v>
+        <v>1.003414476122849</v>
       </c>
       <c r="J15">
-        <v>1.227257498184662</v>
+        <v>1.072567366147534</v>
       </c>
       <c r="K15">
-        <v>1.227257498184662</v>
+        <v>1.072567366147534</v>
       </c>
       <c r="L15">
-        <v>1.148648632712702</v>
+        <v>1.002476443339916</v>
       </c>
       <c r="M15">
-        <v>0.4680577318229997</v>
+        <v>1.005042255997808</v>
       </c>
       <c r="N15">
-        <v>1.227257498184662</v>
+        <v>1.072567366147534</v>
       </c>
       <c r="O15">
-        <v>1.450493793635849</v>
+        <v>1.005729413725936</v>
       </c>
       <c r="P15">
-        <v>1.772448138215859</v>
+        <v>1.021347328063773</v>
       </c>
       <c r="Q15">
-        <v>1.035172402266212</v>
+        <v>1.001487384651362</v>
       </c>
       <c r="R15">
-        <v>1.590717924872127</v>
+        <v>1.038420674091693</v>
       </c>
       <c r="S15">
-        <v>1.388249095776098</v>
+        <v>1.013313337234778</v>
       </c>
       <c r="T15">
-        <v>1.590717924872127</v>
+        <v>1.038420674091693</v>
       </c>
       <c r="U15">
-        <v>1.348001196378239</v>
+        <v>1.028126844462967</v>
       </c>
       <c r="V15">
-        <v>1.323852456739524</v>
+        <v>1.03701494879988</v>
       </c>
       <c r="W15">
-        <v>1.144158159886715</v>
+        <v>1.01121790017536</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.565635945286266</v>
+        <v>1.064321935967398</v>
       </c>
       <c r="D16">
-        <v>0.4453582881901167</v>
+        <v>0.9398226413650237</v>
       </c>
       <c r="E16">
-        <v>2.261212544212993</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="F16">
-        <v>1.062737134374848</v>
+        <v>1.006698973300732</v>
       </c>
       <c r="G16">
-        <v>1.565635945286266</v>
+        <v>1.064321935967398</v>
       </c>
       <c r="H16">
-        <v>0.9256181646081388</v>
+        <v>0.9947388519851915</v>
       </c>
       <c r="I16">
-        <v>1.082939675926975</v>
+        <v>1.005807698721177</v>
       </c>
       <c r="J16">
-        <v>2.261212544212993</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="K16">
-        <v>2.261212544212993</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="L16">
-        <v>1.014964337327872</v>
+        <v>1.004709783190724</v>
       </c>
       <c r="M16">
-        <v>1.101453819172163</v>
+        <v>1.011394490403949</v>
       </c>
       <c r="N16">
-        <v>2.261212544212993</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="O16">
-        <v>1.062737134374848</v>
+        <v>1.006698973300732</v>
       </c>
       <c r="P16">
-        <v>1.314186539830557</v>
+        <v>1.035510454634065</v>
       </c>
       <c r="Q16">
-        <v>0.9941776494914936</v>
+        <v>1.000718912642962</v>
       </c>
       <c r="R16">
-        <v>1.629861874624702</v>
+        <v>1.069403687384423</v>
       </c>
       <c r="S16">
-        <v>1.184663748089751</v>
+        <v>1.021919920417774</v>
       </c>
       <c r="T16">
-        <v>1.629861874624702</v>
+        <v>1.069403687384423</v>
       </c>
       <c r="U16">
-        <v>1.453800947120562</v>
+        <v>1.050737478534615</v>
       </c>
       <c r="V16">
-        <v>1.615283266539048</v>
+        <v>1.06802801340472</v>
       </c>
       <c r="W16">
-        <v>1.182489988637422</v>
+        <v>1.020585565977417</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.320143222240684</v>
+        <v>1.135015456391049</v>
       </c>
       <c r="D17">
-        <v>0.6312646170717535</v>
+        <v>0.888666132837603</v>
       </c>
       <c r="E17">
-        <v>1.806785876503361</v>
+        <v>1.276944721361809</v>
       </c>
       <c r="F17">
-        <v>1.216495813973677</v>
+        <v>1.024289187636179</v>
       </c>
       <c r="G17">
-        <v>1.320143222240684</v>
+        <v>1.135015456391049</v>
       </c>
       <c r="H17">
-        <v>0.9133850990502544</v>
+        <v>0.9918407958225328</v>
       </c>
       <c r="I17">
-        <v>1.109429653463193</v>
+        <v>1.021716497644927</v>
       </c>
       <c r="J17">
-        <v>1.806785876503361</v>
+        <v>1.276944721361809</v>
       </c>
       <c r="K17">
-        <v>1.806785876503361</v>
+        <v>1.276944721361809</v>
       </c>
       <c r="L17">
-        <v>0.9616802710850841</v>
+        <v>1.013095311980762</v>
       </c>
       <c r="M17">
-        <v>1.038549872627111</v>
+        <v>1.025735084627094</v>
       </c>
       <c r="N17">
-        <v>1.806785876503361</v>
+        <v>1.276944721361809</v>
       </c>
       <c r="O17">
-        <v>1.216495813973677</v>
+        <v>1.024289187636179</v>
       </c>
       <c r="P17">
-        <v>1.26831951810718</v>
+        <v>1.079652322013614</v>
       </c>
       <c r="Q17">
-        <v>1.064940456511966</v>
+        <v>1.008064991729356</v>
       </c>
       <c r="R17">
-        <v>1.44780830423924</v>
+        <v>1.145416455129679</v>
       </c>
       <c r="S17">
-        <v>1.150008045088205</v>
+        <v>1.050381813283254</v>
       </c>
       <c r="T17">
-        <v>1.44780830423924</v>
+        <v>1.145416455129679</v>
       </c>
       <c r="U17">
-        <v>1.314202502941994</v>
+        <v>1.107022540302893</v>
       </c>
       <c r="V17">
-        <v>1.412719177654267</v>
+        <v>1.141006976514676</v>
       </c>
       <c r="W17">
-        <v>1.12471680325189</v>
+        <v>1.047162898537744</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8314979857697127</v>
+        <v>1.261101042591308</v>
       </c>
       <c r="D18">
-        <v>1.001671204405375</v>
+        <v>0.7878851631677727</v>
       </c>
       <c r="E18">
-        <v>0.9022362742921659</v>
+        <v>1.465847113496503</v>
       </c>
       <c r="F18">
-        <v>1.513883646287317</v>
+        <v>1.107667706015549</v>
       </c>
       <c r="G18">
-        <v>0.8314979857697127</v>
+        <v>1.261101042591308</v>
       </c>
       <c r="H18">
-        <v>0.8907535834842215</v>
+        <v>1.04606773006256</v>
       </c>
       <c r="I18">
-        <v>1.160331329316308</v>
+        <v>1.015203022926041</v>
       </c>
       <c r="J18">
-        <v>0.9022362742921659</v>
+        <v>1.465847113496503</v>
       </c>
       <c r="K18">
-        <v>0.9022362742921659</v>
+        <v>1.465847113496503</v>
       </c>
       <c r="L18">
-        <v>0.8562919910508224</v>
+        <v>1.012765302427835</v>
       </c>
       <c r="M18">
-        <v>0.9160228916108742</v>
+        <v>1.008904989168817</v>
       </c>
       <c r="N18">
-        <v>0.9022362742921659</v>
+        <v>1.465847113496503</v>
       </c>
       <c r="O18">
-        <v>1.513883646287317</v>
+        <v>1.107667706015549</v>
       </c>
       <c r="P18">
-        <v>1.172690816028515</v>
+        <v>1.184384374303428</v>
       </c>
       <c r="Q18">
-        <v>1.202318614885769</v>
+        <v>1.076867718039055</v>
       </c>
       <c r="R18">
-        <v>1.082539302116398</v>
+        <v>1.278205287367786</v>
       </c>
       <c r="S18">
-        <v>1.07871173851375</v>
+        <v>1.138278826223139</v>
       </c>
       <c r="T18">
-        <v>1.082539302116398</v>
+        <v>1.278205287367786</v>
       </c>
       <c r="U18">
-        <v>1.034592872458354</v>
+        <v>1.22017089804148</v>
       </c>
       <c r="V18">
-        <v>1.008121552825117</v>
+        <v>1.269306141132484</v>
       </c>
       <c r="W18">
-        <v>1.0090861132771</v>
+        <v>1.088180258732048</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8791384894230498</v>
+        <v>0.9987145329602173</v>
       </c>
       <c r="D19">
-        <v>0.9947840770225298</v>
+        <v>0.9995283337584981</v>
       </c>
       <c r="E19">
-        <v>0.8470660535160937</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="F19">
-        <v>1.785573920447649</v>
+        <v>1.006474779620875</v>
       </c>
       <c r="G19">
-        <v>0.8791384894230498</v>
+        <v>0.9987145329602173</v>
       </c>
       <c r="H19">
-        <v>0.8003334378045489</v>
+        <v>0.9992476449335369</v>
       </c>
       <c r="I19">
-        <v>1.236653765448589</v>
+        <v>1.001302610139186</v>
       </c>
       <c r="J19">
-        <v>0.8470660535160937</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="K19">
-        <v>0.8470660535160937</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="L19">
-        <v>0.8273357059683958</v>
+        <v>0.9988638822499092</v>
       </c>
       <c r="M19">
-        <v>0.8358600550508909</v>
+        <v>0.9994044950626975</v>
       </c>
       <c r="N19">
-        <v>0.8470660535160937</v>
+        <v>0.9989698924307933</v>
       </c>
       <c r="O19">
-        <v>1.785573920447649</v>
+        <v>1.006474779620875</v>
       </c>
       <c r="P19">
-        <v>1.332356204935349</v>
+        <v>1.002594656290546</v>
       </c>
       <c r="Q19">
-        <v>1.292953679126099</v>
+        <v>1.002861212277206</v>
       </c>
       <c r="R19">
-        <v>1.170592821128931</v>
+        <v>1.001386401670629</v>
       </c>
       <c r="S19">
-        <v>1.155015282558416</v>
+        <v>1.00147898583821</v>
       </c>
       <c r="T19">
-        <v>1.170592821128931</v>
+        <v>1.001386401670629</v>
       </c>
       <c r="U19">
-        <v>1.078027975297835</v>
+        <v>1.000851712486356</v>
       </c>
       <c r="V19">
-        <v>1.031835590941487</v>
+        <v>1.000475348475243</v>
       </c>
       <c r="W19">
-        <v>1.025843188085219</v>
+        <v>1.000313271394464</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.007180184780424</v>
+        <v>0.9966410272784649</v>
       </c>
       <c r="D20">
-        <v>1.000230740500655</v>
+        <v>0.9995601028375825</v>
       </c>
       <c r="E20">
-        <v>1.00728322457694</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="F20">
-        <v>1.000690980698909</v>
+        <v>1.013557099933327</v>
       </c>
       <c r="G20">
-        <v>1.007180184780424</v>
+        <v>0.9966410272784649</v>
       </c>
       <c r="H20">
-        <v>0.9957179641009924</v>
+        <v>0.997139138859251</v>
       </c>
       <c r="I20">
-        <v>0.9995659097983443</v>
+        <v>1.003463314452179</v>
       </c>
       <c r="J20">
-        <v>1.00728322457694</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="K20">
-        <v>1.00728322457694</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="L20">
-        <v>0.9992839303567203</v>
+        <v>0.996313720286784</v>
       </c>
       <c r="M20">
-        <v>0.9969681418853953</v>
+        <v>0.998940878650218</v>
       </c>
       <c r="N20">
-        <v>1.00728322457694</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="O20">
-        <v>1.000690980698909</v>
+        <v>1.013557099933327</v>
       </c>
       <c r="P20">
-        <v>1.003935582739667</v>
+        <v>1.005099063605896</v>
       </c>
       <c r="Q20">
-        <v>0.998204472399951</v>
+        <v>1.005348119396289</v>
       </c>
       <c r="R20">
-        <v>1.005051463352091</v>
+        <v>1.002529840867848</v>
       </c>
       <c r="S20">
-        <v>1.001196376526775</v>
+        <v>1.002445755357014</v>
       </c>
       <c r="T20">
-        <v>1.005051463352091</v>
+        <v>1.002529840867848</v>
       </c>
       <c r="U20">
-        <v>1.002718088539317</v>
+        <v>1.001182165365698</v>
       </c>
       <c r="V20">
-        <v>1.003631115746841</v>
+        <v>1.000424011370909</v>
       </c>
       <c r="W20">
-        <v>1.000865134587298</v>
+        <v>1.000375834711195</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9876083775710351</v>
+        <v>0.9946834761648908</v>
       </c>
       <c r="D21">
-        <v>0.9988177280202946</v>
+        <v>0.9982343046442744</v>
       </c>
       <c r="E21">
-        <v>0.9847317910283868</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="F21">
-        <v>1.011819517744103</v>
+        <v>1.017165676068001</v>
       </c>
       <c r="G21">
-        <v>0.9876083775710351</v>
+        <v>0.9946834761648908</v>
       </c>
       <c r="H21">
-        <v>1.002977713984881</v>
+        <v>0.9982993125756853</v>
       </c>
       <c r="I21">
-        <v>1.003794364128101</v>
+        <v>1.003938014320451</v>
       </c>
       <c r="J21">
-        <v>0.9847317910283868</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="K21">
-        <v>0.9847317910283868</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="L21">
-        <v>0.999629799097242</v>
+        <v>0.9954790203751883</v>
       </c>
       <c r="M21">
-        <v>1.003075939002608</v>
+        <v>1.000971007105117</v>
       </c>
       <c r="N21">
-        <v>0.9847317910283868</v>
+        <v>0.9959410896239499</v>
       </c>
       <c r="O21">
-        <v>1.011819517744103</v>
+        <v>1.017165676068001</v>
       </c>
       <c r="P21">
-        <v>0.999713947657569</v>
+        <v>1.005924576116446</v>
       </c>
       <c r="Q21">
-        <v>1.007398615864492</v>
+        <v>1.007732494321843</v>
       </c>
       <c r="R21">
-        <v>0.9947198954478417</v>
+        <v>1.002596747285614</v>
       </c>
       <c r="S21">
-        <v>1.000801869766673</v>
+        <v>1.003382821602859</v>
       </c>
       <c r="T21">
-        <v>0.9947198954478417</v>
+        <v>1.002596747285614</v>
       </c>
       <c r="U21">
-        <v>0.9967843500821014</v>
+        <v>1.001522388608132</v>
       </c>
       <c r="V21">
-        <v>0.9943738382713585</v>
+        <v>1.000406128811295</v>
       </c>
       <c r="W21">
-        <v>0.9990569038220813</v>
+        <v>1.000588987609695</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.039252265096552</v>
+        <v>0.9889031052246625</v>
       </c>
       <c r="D22">
-        <v>0.9939908758921784</v>
+        <v>0.9964769609863934</v>
       </c>
       <c r="E22">
-        <v>1.053531579994518</v>
+        <v>0.9915977098176272</v>
       </c>
       <c r="F22">
-        <v>0.9910118460667625</v>
+        <v>1.041216472673288</v>
       </c>
       <c r="G22">
-        <v>1.039252265096552</v>
+        <v>0.9889031052246625</v>
       </c>
       <c r="H22">
-        <v>0.989164922116463</v>
+        <v>0.9947264074317996</v>
       </c>
       <c r="I22">
-        <v>0.9951843398594349</v>
+        <v>1.009134869489735</v>
       </c>
       <c r="J22">
-        <v>1.053531579994518</v>
+        <v>0.9915977098176272</v>
       </c>
       <c r="K22">
-        <v>1.053531579994518</v>
+        <v>0.9915977098176272</v>
       </c>
       <c r="L22">
-        <v>0.9969663716627415</v>
+        <v>0.9898202727096107</v>
       </c>
       <c r="M22">
-        <v>0.9972877311775811</v>
+        <v>1.000277280143379</v>
       </c>
       <c r="N22">
-        <v>1.053531579994518</v>
+        <v>0.9915977098176272</v>
       </c>
       <c r="O22">
-        <v>0.9910118460667625</v>
+        <v>1.041216472673288</v>
       </c>
       <c r="P22">
-        <v>1.015132055581657</v>
+        <v>1.015059788948975</v>
       </c>
       <c r="Q22">
-        <v>0.9900883840916128</v>
+        <v>1.017971440052544</v>
       </c>
       <c r="R22">
-        <v>1.027931897052611</v>
+        <v>1.007239095905192</v>
       </c>
       <c r="S22">
-        <v>1.006476344426593</v>
+        <v>1.008281995109917</v>
       </c>
       <c r="T22">
-        <v>1.027931897052611</v>
+        <v>1.007239095905192</v>
       </c>
       <c r="U22">
-        <v>1.018240153318574</v>
+        <v>1.004110923786844</v>
       </c>
       <c r="V22">
-        <v>1.025298438653763</v>
+        <v>1.001608280993001</v>
       </c>
       <c r="W22">
-        <v>1.007048741483279</v>
+        <v>1.001519134809562</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9800727663260642</v>
+      </c>
+      <c r="D23">
+        <v>0.9962670173106613</v>
+      </c>
+      <c r="E23">
+        <v>0.9872028227904524</v>
+      </c>
+      <c r="F23">
+        <v>1.05788586573848</v>
+      </c>
+      <c r="G23">
+        <v>0.9800727663260642</v>
+      </c>
+      <c r="H23">
+        <v>0.9908793646931114</v>
+      </c>
+      <c r="I23">
+        <v>1.013052545395172</v>
+      </c>
+      <c r="J23">
+        <v>0.9872028227904524</v>
+      </c>
+      <c r="K23">
+        <v>0.9872028227904524</v>
+      </c>
+      <c r="L23">
+        <v>0.9832152176922976</v>
+      </c>
+      <c r="M23">
+        <v>1.005691990545817</v>
+      </c>
+      <c r="N23">
+        <v>0.9872028227904524</v>
+      </c>
+      <c r="O23">
+        <v>1.05788586573848</v>
+      </c>
+      <c r="P23">
+        <v>1.018979316032272</v>
+      </c>
+      <c r="Q23">
+        <v>1.024382615215796</v>
+      </c>
+      <c r="R23">
+        <v>1.008387151618332</v>
+      </c>
+      <c r="S23">
+        <v>1.009612665585885</v>
+      </c>
+      <c r="T23">
+        <v>1.008387151618332</v>
+      </c>
+      <c r="U23">
+        <v>1.004010204887027</v>
+      </c>
+      <c r="V23">
+        <v>1.000648728467712</v>
+      </c>
+      <c r="W23">
+        <v>1.001783448811507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2.327374721268487</v>
+      </c>
+      <c r="D24">
+        <v>0.6298883385390468</v>
+      </c>
+      <c r="E24">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="F24">
+        <v>0.1153595862717336</v>
+      </c>
+      <c r="G24">
+        <v>2.327374721268487</v>
+      </c>
+      <c r="H24">
+        <v>0.8753736642658296</v>
+      </c>
+      <c r="I24">
+        <v>0.68763290974809</v>
+      </c>
+      <c r="J24">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="K24">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="L24">
+        <v>1.40085442028962</v>
+      </c>
+      <c r="M24">
+        <v>1.063288951095446</v>
+      </c>
+      <c r="N24">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="O24">
+        <v>0.1153595862717336</v>
+      </c>
+      <c r="P24">
+        <v>1.22136715377011</v>
+      </c>
+      <c r="Q24">
+        <v>0.4953666252687816</v>
+      </c>
+      <c r="R24">
+        <v>1.492376678883794</v>
+      </c>
+      <c r="S24">
+        <v>1.106035990602017</v>
+      </c>
+      <c r="T24">
+        <v>1.492376678883794</v>
+      </c>
+      <c r="U24">
+        <v>1.338125925229303</v>
+      </c>
+      <c r="V24">
+        <v>1.477379886005675</v>
+      </c>
+      <c r="W24">
+        <v>1.141771040073677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4291899956988436</v>
+      </c>
+      <c r="D25">
+        <v>1.120542303011416</v>
+      </c>
+      <c r="E25">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="F25">
+        <v>1.12407327173895</v>
+      </c>
+      <c r="G25">
+        <v>0.4291899956988436</v>
+      </c>
+      <c r="H25">
+        <v>1.324001475886512</v>
+      </c>
+      <c r="I25">
+        <v>1.016747159982073</v>
+      </c>
+      <c r="J25">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="K25">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="L25">
+        <v>0.9538174391954827</v>
+      </c>
+      <c r="M25">
+        <v>1.136765566205405</v>
+      </c>
+      <c r="N25">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="O25">
+        <v>1.12407327173895</v>
+      </c>
+      <c r="P25">
+        <v>0.7766316337188968</v>
+      </c>
+      <c r="Q25">
+        <v>1.224037373812731</v>
+      </c>
+      <c r="R25">
+        <v>0.5801195038968069</v>
+      </c>
+      <c r="S25">
+        <v>0.9590882477747685</v>
+      </c>
+      <c r="T25">
+        <v>0.5801195038968069</v>
+      </c>
+      <c r="U25">
+        <v>0.7660899968942332</v>
+      </c>
+      <c r="V25">
+        <v>0.650291046365912</v>
+      </c>
+      <c r="W25">
+        <v>0.9115290569964136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.124890800717806</v>
+      </c>
+      <c r="D26">
+        <v>1.311327858802549</v>
+      </c>
+      <c r="E26">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="F26">
+        <v>0.2822497524117137</v>
+      </c>
+      <c r="G26">
+        <v>1.124890800717806</v>
+      </c>
+      <c r="H26">
+        <v>1.427999128784146</v>
+      </c>
+      <c r="I26">
+        <v>0.4083458592629884</v>
+      </c>
+      <c r="J26">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="K26">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="L26">
+        <v>1.533670443087697</v>
+      </c>
+      <c r="M26">
+        <v>1.193647977931714</v>
+      </c>
+      <c r="N26">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="O26">
+        <v>0.2822497524117137</v>
+      </c>
+      <c r="P26">
+        <v>0.7035702765647596</v>
+      </c>
+      <c r="Q26">
+        <v>0.8551244405979297</v>
+      </c>
+      <c r="R26">
+        <v>0.5352053075074396</v>
+      </c>
+      <c r="S26">
+        <v>0.9450465606378883</v>
+      </c>
+      <c r="T26">
+        <v>0.5352053075074396</v>
+      </c>
+      <c r="U26">
+        <v>0.758403762826616</v>
+      </c>
+      <c r="V26">
+        <v>0.6464180841398527</v>
+      </c>
+      <c r="W26">
+        <v>0.9350758987989265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.094402482795869</v>
+      </c>
+      <c r="D27">
+        <v>0.9332565901690115</v>
+      </c>
+      <c r="E27">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="F27">
+        <v>1.450493793635849</v>
+      </c>
+      <c r="G27">
+        <v>2.094402482795869</v>
+      </c>
+      <c r="H27">
+        <v>0.6198510108965755</v>
+      </c>
+      <c r="I27">
+        <v>1.21129753887605</v>
+      </c>
+      <c r="J27">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="K27">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="L27">
+        <v>1.148648632712702</v>
+      </c>
+      <c r="M27">
+        <v>0.4680577318229997</v>
+      </c>
+      <c r="N27">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="O27">
+        <v>1.450493793635849</v>
+      </c>
+      <c r="P27">
+        <v>1.772448138215859</v>
+      </c>
+      <c r="Q27">
+        <v>1.035172402266212</v>
+      </c>
+      <c r="R27">
+        <v>1.590717924872127</v>
+      </c>
+      <c r="S27">
+        <v>1.388249095776098</v>
+      </c>
+      <c r="T27">
+        <v>1.590717924872127</v>
+      </c>
+      <c r="U27">
+        <v>1.348001196378239</v>
+      </c>
+      <c r="V27">
+        <v>1.323852456739524</v>
+      </c>
+      <c r="W27">
+        <v>1.144158159886715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.565635945286266</v>
+      </c>
+      <c r="D28">
+        <v>0.4453582881901167</v>
+      </c>
+      <c r="E28">
+        <v>2.261212544212993</v>
+      </c>
+      <c r="F28">
+        <v>1.062737134374848</v>
+      </c>
+      <c r="G28">
+        <v>1.565635945286266</v>
+      </c>
+      <c r="H28">
+        <v>0.9256181646081388</v>
+      </c>
+      <c r="I28">
+        <v>1.082939675926975</v>
+      </c>
+      <c r="J28">
+        <v>2.261212544212993</v>
+      </c>
+      <c r="K28">
+        <v>2.261212544212993</v>
+      </c>
+      <c r="L28">
+        <v>1.014964337327872</v>
+      </c>
+      <c r="M28">
+        <v>1.101453819172163</v>
+      </c>
+      <c r="N28">
+        <v>2.261212544212993</v>
+      </c>
+      <c r="O28">
+        <v>1.062737134374848</v>
+      </c>
+      <c r="P28">
+        <v>1.314186539830557</v>
+      </c>
+      <c r="Q28">
+        <v>0.9941776494914936</v>
+      </c>
+      <c r="R28">
+        <v>1.629861874624702</v>
+      </c>
+      <c r="S28">
+        <v>1.184663748089751</v>
+      </c>
+      <c r="T28">
+        <v>1.629861874624702</v>
+      </c>
+      <c r="U28">
+        <v>1.453800947120562</v>
+      </c>
+      <c r="V28">
+        <v>1.615283266539048</v>
+      </c>
+      <c r="W28">
+        <v>1.182489988637422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.320143222240684</v>
+      </c>
+      <c r="D29">
+        <v>0.6312646170717535</v>
+      </c>
+      <c r="E29">
+        <v>1.806785876503361</v>
+      </c>
+      <c r="F29">
+        <v>1.216495813973677</v>
+      </c>
+      <c r="G29">
+        <v>1.320143222240684</v>
+      </c>
+      <c r="H29">
+        <v>0.9133850990502544</v>
+      </c>
+      <c r="I29">
+        <v>1.109429653463193</v>
+      </c>
+      <c r="J29">
+        <v>1.806785876503361</v>
+      </c>
+      <c r="K29">
+        <v>1.806785876503361</v>
+      </c>
+      <c r="L29">
+        <v>0.9616802710850841</v>
+      </c>
+      <c r="M29">
+        <v>1.038549872627111</v>
+      </c>
+      <c r="N29">
+        <v>1.806785876503361</v>
+      </c>
+      <c r="O29">
+        <v>1.216495813973677</v>
+      </c>
+      <c r="P29">
+        <v>1.26831951810718</v>
+      </c>
+      <c r="Q29">
+        <v>1.064940456511966</v>
+      </c>
+      <c r="R29">
+        <v>1.44780830423924</v>
+      </c>
+      <c r="S29">
+        <v>1.150008045088205</v>
+      </c>
+      <c r="T29">
+        <v>1.44780830423924</v>
+      </c>
+      <c r="U29">
+        <v>1.314202502941994</v>
+      </c>
+      <c r="V29">
+        <v>1.412719177654267</v>
+      </c>
+      <c r="W29">
+        <v>1.12471680325189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8314979857697127</v>
+      </c>
+      <c r="D30">
+        <v>1.001671204405375</v>
+      </c>
+      <c r="E30">
+        <v>0.9022362742921659</v>
+      </c>
+      <c r="F30">
+        <v>1.513883646287317</v>
+      </c>
+      <c r="G30">
+        <v>0.8314979857697127</v>
+      </c>
+      <c r="H30">
+        <v>0.8907535834842215</v>
+      </c>
+      <c r="I30">
+        <v>1.160331329316308</v>
+      </c>
+      <c r="J30">
+        <v>0.9022362742921659</v>
+      </c>
+      <c r="K30">
+        <v>0.9022362742921659</v>
+      </c>
+      <c r="L30">
+        <v>0.8562919910508224</v>
+      </c>
+      <c r="M30">
+        <v>0.9160228916108742</v>
+      </c>
+      <c r="N30">
+        <v>0.9022362742921659</v>
+      </c>
+      <c r="O30">
+        <v>1.513883646287317</v>
+      </c>
+      <c r="P30">
+        <v>1.172690816028515</v>
+      </c>
+      <c r="Q30">
+        <v>1.202318614885769</v>
+      </c>
+      <c r="R30">
+        <v>1.082539302116398</v>
+      </c>
+      <c r="S30">
+        <v>1.07871173851375</v>
+      </c>
+      <c r="T30">
+        <v>1.082539302116398</v>
+      </c>
+      <c r="U30">
+        <v>1.034592872458354</v>
+      </c>
+      <c r="V30">
+        <v>1.008121552825117</v>
+      </c>
+      <c r="W30">
+        <v>1.0090861132771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8791384894230498</v>
+      </c>
+      <c r="D31">
+        <v>0.9947840770225298</v>
+      </c>
+      <c r="E31">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="F31">
+        <v>1.785573920447649</v>
+      </c>
+      <c r="G31">
+        <v>0.8791384894230498</v>
+      </c>
+      <c r="H31">
+        <v>0.8003334378045489</v>
+      </c>
+      <c r="I31">
+        <v>1.236653765448589</v>
+      </c>
+      <c r="J31">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="K31">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="L31">
+        <v>0.8273357059683958</v>
+      </c>
+      <c r="M31">
+        <v>0.8358600550508909</v>
+      </c>
+      <c r="N31">
+        <v>0.8470660535160937</v>
+      </c>
+      <c r="O31">
+        <v>1.785573920447649</v>
+      </c>
+      <c r="P31">
+        <v>1.332356204935349</v>
+      </c>
+      <c r="Q31">
+        <v>1.292953679126099</v>
+      </c>
+      <c r="R31">
+        <v>1.170592821128931</v>
+      </c>
+      <c r="S31">
+        <v>1.155015282558416</v>
+      </c>
+      <c r="T31">
+        <v>1.170592821128931</v>
+      </c>
+      <c r="U31">
+        <v>1.078027975297835</v>
+      </c>
+      <c r="V31">
+        <v>1.031835590941487</v>
+      </c>
+      <c r="W31">
+        <v>1.025843188085219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.78555675456411</v>
+      </c>
+      <c r="D32">
+        <v>0.2575346432098631</v>
+      </c>
+      <c r="E32">
+        <v>2.688874108619178</v>
+      </c>
+      <c r="F32">
+        <v>0.9002298221643835</v>
+      </c>
+      <c r="G32">
+        <v>1.78555675456411</v>
+      </c>
+      <c r="H32">
+        <v>0.9508397390136986</v>
+      </c>
+      <c r="I32">
+        <v>1.048082380821918</v>
+      </c>
+      <c r="J32">
+        <v>2.688874108619178</v>
+      </c>
+      <c r="K32">
+        <v>2.688874108619178</v>
+      </c>
+      <c r="L32">
+        <v>1.056747162524383</v>
+      </c>
+      <c r="M32">
+        <v>1.200882694794521</v>
+      </c>
+      <c r="N32">
+        <v>2.688874108619178</v>
+      </c>
+      <c r="O32">
+        <v>0.9002298221643835</v>
+      </c>
+      <c r="P32">
+        <v>1.342893288364247</v>
+      </c>
+      <c r="Q32">
+        <v>0.925534780589041</v>
+      </c>
+      <c r="R32">
+        <v>1.791553561782557</v>
+      </c>
+      <c r="S32">
+        <v>1.212208771914064</v>
+      </c>
+      <c r="T32">
+        <v>1.791553561782557</v>
+      </c>
+      <c r="U32">
+        <v>1.581375106090342</v>
+      </c>
+      <c r="V32">
+        <v>1.802874906596109</v>
+      </c>
+      <c r="W32">
+        <v>1.236093413214007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.06081876347</v>
+      </c>
+      <c r="D33">
+        <v>1.277224390261053</v>
+      </c>
+      <c r="E33">
+        <v>1.598563466335263</v>
+      </c>
+      <c r="F33">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="G33">
+        <v>0.06081876347</v>
+      </c>
+      <c r="H33">
+        <v>1.07253729131579</v>
+      </c>
+      <c r="I33">
+        <v>0.8827492779999999</v>
+      </c>
+      <c r="J33">
+        <v>1.598563466335263</v>
+      </c>
+      <c r="K33">
+        <v>1.598563466335263</v>
+      </c>
+      <c r="L33">
+        <v>0.5760082934884211</v>
+      </c>
+      <c r="M33">
+        <v>0.9648038065263157</v>
+      </c>
+      <c r="N33">
+        <v>1.598563466335263</v>
+      </c>
+      <c r="O33">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="P33">
+        <v>0.6827564416955263</v>
+      </c>
+      <c r="Q33">
+        <v>1.188615705618421</v>
+      </c>
+      <c r="R33">
+        <v>0.9880254499087719</v>
+      </c>
+      <c r="S33">
+        <v>0.8126833915689474</v>
+      </c>
+      <c r="T33">
+        <v>0.9880254499087719</v>
+      </c>
+      <c r="U33">
+        <v>1.009153410260526</v>
+      </c>
+      <c r="V33">
+        <v>1.127035421475474</v>
+      </c>
+      <c r="W33">
+        <v>0.9671749261647369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.001367301754210526</v>
+      </c>
+      <c r="D34">
+        <v>0.5705742894736843</v>
+      </c>
+      <c r="E34">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="F34">
+        <v>2.774020111842105</v>
+      </c>
+      <c r="G34">
+        <v>0.001367301754210526</v>
+      </c>
+      <c r="H34">
+        <v>0.6969658337894737</v>
+      </c>
+      <c r="I34">
+        <v>1.796198174736842</v>
+      </c>
+      <c r="J34">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="K34">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="L34">
+        <v>0.1021013239473684</v>
+      </c>
+      <c r="M34">
+        <v>1.397825143</v>
+      </c>
+      <c r="N34">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="O34">
+        <v>2.774020111842105</v>
+      </c>
+      <c r="P34">
+        <v>1.387693706798158</v>
+      </c>
+      <c r="Q34">
+        <v>1.73549297281579</v>
+      </c>
+      <c r="R34">
+        <v>1.026242415758421</v>
+      </c>
+      <c r="S34">
+        <v>1.15745108246193</v>
+      </c>
+      <c r="T34">
+        <v>1.026242415758421</v>
+      </c>
+      <c r="U34">
+        <v>0.9439232702661842</v>
+      </c>
+      <c r="V34">
+        <v>0.8158065829487369</v>
+      </c>
+      <c r="W34">
+        <v>0.9552990015278289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4145683329586588</v>
+      </c>
+      <c r="D35">
+        <v>0.8642764785280691</v>
+      </c>
+      <c r="E35">
+        <v>0.4506923882707606</v>
+      </c>
+      <c r="F35">
+        <v>4.582212951829585</v>
+      </c>
+      <c r="G35">
+        <v>0.4145683329586588</v>
+      </c>
+      <c r="H35">
+        <v>0.4531220093974387</v>
+      </c>
+      <c r="I35">
+        <v>1.710069651445883</v>
+      </c>
+      <c r="J35">
+        <v>0.4506923882707606</v>
+      </c>
+      <c r="K35">
+        <v>0.4506923882707606</v>
+      </c>
+      <c r="L35">
+        <v>0.4306366831457674</v>
+      </c>
+      <c r="M35">
+        <v>0.4692291661365462</v>
+      </c>
+      <c r="N35">
+        <v>0.4506923882707606</v>
+      </c>
+      <c r="O35">
+        <v>4.582212951829585</v>
+      </c>
+      <c r="P35">
+        <v>2.498390642394122</v>
+      </c>
+      <c r="Q35">
+        <v>2.517667480613512</v>
+      </c>
+      <c r="R35">
+        <v>1.815824557686335</v>
+      </c>
+      <c r="S35">
+        <v>1.816634431395228</v>
+      </c>
+      <c r="T35">
+        <v>1.815824557686335</v>
+      </c>
+      <c r="U35">
+        <v>1.475148920614111</v>
+      </c>
+      <c r="V35">
+        <v>1.270257614145441</v>
+      </c>
+      <c r="W35">
+        <v>1.171850957714089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.007180184780424</v>
+      </c>
+      <c r="D36">
+        <v>1.000230740500655</v>
+      </c>
+      <c r="E36">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="F36">
+        <v>1.000690980698909</v>
+      </c>
+      <c r="G36">
+        <v>1.007180184780424</v>
+      </c>
+      <c r="H36">
+        <v>0.9957179641009924</v>
+      </c>
+      <c r="I36">
+        <v>0.9995659097983443</v>
+      </c>
+      <c r="J36">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="K36">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="L36">
+        <v>0.9992839303567203</v>
+      </c>
+      <c r="M36">
+        <v>0.9969681418853953</v>
+      </c>
+      <c r="N36">
+        <v>1.00728322457694</v>
+      </c>
+      <c r="O36">
+        <v>1.000690980698909</v>
+      </c>
+      <c r="P36">
+        <v>1.003935582739667</v>
+      </c>
+      <c r="Q36">
+        <v>0.998204472399951</v>
+      </c>
+      <c r="R36">
+        <v>1.005051463352091</v>
+      </c>
+      <c r="S36">
+        <v>1.001196376526775</v>
+      </c>
+      <c r="T36">
+        <v>1.005051463352091</v>
+      </c>
+      <c r="U36">
+        <v>1.002718088539317</v>
+      </c>
+      <c r="V36">
+        <v>1.003631115746841</v>
+      </c>
+      <c r="W36">
+        <v>1.000865134587298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9876083775710351</v>
+      </c>
+      <c r="D37">
+        <v>0.9988177280202946</v>
+      </c>
+      <c r="E37">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="F37">
+        <v>1.011819517744103</v>
+      </c>
+      <c r="G37">
+        <v>0.9876083775710351</v>
+      </c>
+      <c r="H37">
+        <v>1.002977713984881</v>
+      </c>
+      <c r="I37">
+        <v>1.003794364128101</v>
+      </c>
+      <c r="J37">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="K37">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="L37">
+        <v>0.999629799097242</v>
+      </c>
+      <c r="M37">
+        <v>1.003075939002608</v>
+      </c>
+      <c r="N37">
+        <v>0.9847317910283868</v>
+      </c>
+      <c r="O37">
+        <v>1.011819517744103</v>
+      </c>
+      <c r="P37">
+        <v>0.999713947657569</v>
+      </c>
+      <c r="Q37">
+        <v>1.007398615864492</v>
+      </c>
+      <c r="R37">
+        <v>0.9947198954478417</v>
+      </c>
+      <c r="S37">
+        <v>1.000801869766673</v>
+      </c>
+      <c r="T37">
+        <v>0.9947198954478417</v>
+      </c>
+      <c r="U37">
+        <v>0.9967843500821014</v>
+      </c>
+      <c r="V37">
+        <v>0.9943738382713585</v>
+      </c>
+      <c r="W37">
+        <v>0.9990569038220813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.039252265096552</v>
+      </c>
+      <c r="D38">
+        <v>0.9939908758921784</v>
+      </c>
+      <c r="E38">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="F38">
+        <v>0.9910118460667625</v>
+      </c>
+      <c r="G38">
+        <v>1.039252265096552</v>
+      </c>
+      <c r="H38">
+        <v>0.989164922116463</v>
+      </c>
+      <c r="I38">
+        <v>0.9951843398594349</v>
+      </c>
+      <c r="J38">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="K38">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="L38">
+        <v>0.9969663716627415</v>
+      </c>
+      <c r="M38">
+        <v>0.9972877311775811</v>
+      </c>
+      <c r="N38">
+        <v>1.053531579994518</v>
+      </c>
+      <c r="O38">
+        <v>0.9910118460667625</v>
+      </c>
+      <c r="P38">
+        <v>1.015132055581657</v>
+      </c>
+      <c r="Q38">
+        <v>0.9900883840916128</v>
+      </c>
+      <c r="R38">
+        <v>1.027931897052611</v>
+      </c>
+      <c r="S38">
+        <v>1.006476344426593</v>
+      </c>
+      <c r="T38">
+        <v>1.027931897052611</v>
+      </c>
+      <c r="U38">
+        <v>1.018240153318574</v>
+      </c>
+      <c r="V38">
+        <v>1.025298438653763</v>
+      </c>
+      <c r="W38">
+        <v>1.007048741483279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.14244774914139</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9745795681442522</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.19847239911013</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9460257183358372</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.14244774914139</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9532836906794623</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.993191089094258</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.19847239911013</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.19847239911013</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.002129459278065</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9705574599970437</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.19847239911013</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9460257183358372</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.044236733738614</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9496547045076498</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.095648622195786</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.013919052718897</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.095648622195786</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.060057389316705</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.08774039127539</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.022585891722555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.7752716020734357</v>
+      </c>
+      <c r="D40">
+        <v>0.8665027418265183</v>
+      </c>
+      <c r="E40">
+        <v>1.74697436050953</v>
+      </c>
+      <c r="F40">
+        <v>0.9107138137246289</v>
+      </c>
+      <c r="G40">
+        <v>0.7752716020734357</v>
+      </c>
+      <c r="H40">
+        <v>0.8958184452352339</v>
+      </c>
+      <c r="I40">
+        <v>1.024501109053124</v>
+      </c>
+      <c r="J40">
+        <v>1.74697436050953</v>
+      </c>
+      <c r="K40">
+        <v>1.74697436050953</v>
+      </c>
+      <c r="L40">
+        <v>0.8186345002488772</v>
+      </c>
+      <c r="M40">
+        <v>1.083052343073237</v>
+      </c>
+      <c r="N40">
+        <v>1.74697436050953</v>
+      </c>
+      <c r="O40">
+        <v>0.9107138137246289</v>
+      </c>
+      <c r="P40">
+        <v>0.8429927078990322</v>
+      </c>
+      <c r="Q40">
+        <v>0.9032661294799313</v>
+      </c>
+      <c r="R40">
+        <v>1.144319925435865</v>
+      </c>
+      <c r="S40">
+        <v>0.8606012870110994</v>
+      </c>
+      <c r="T40">
+        <v>1.144319925435865</v>
+      </c>
+      <c r="U40">
+        <v>1.082194555385707</v>
+      </c>
+      <c r="V40">
+        <v>1.215150516410472</v>
+      </c>
+      <c r="W40">
+        <v>1.015183614468073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.044850453514314</v>
+      </c>
+      <c r="D41">
+        <v>0.9748754504189217</v>
+      </c>
+      <c r="E41">
+        <v>1.026992431559071</v>
+      </c>
+      <c r="F41">
+        <v>0.9962509450893559</v>
+      </c>
+      <c r="G41">
+        <v>1.044850453514314</v>
+      </c>
+      <c r="H41">
+        <v>1.002390086637012</v>
+      </c>
+      <c r="I41">
+        <v>0.9983197074576594</v>
+      </c>
+      <c r="J41">
+        <v>1.026992431559071</v>
+      </c>
+      <c r="K41">
+        <v>1.026992431559071</v>
+      </c>
+      <c r="L41">
+        <v>1.012224340485735</v>
+      </c>
+      <c r="M41">
+        <v>1.006045272863243</v>
+      </c>
+      <c r="N41">
+        <v>1.026992431559071</v>
+      </c>
+      <c r="O41">
+        <v>0.9962509450893559</v>
+      </c>
+      <c r="P41">
+        <v>1.020550699301835</v>
+      </c>
+      <c r="Q41">
+        <v>0.9993205158631842</v>
+      </c>
+      <c r="R41">
+        <v>1.02269794338758</v>
+      </c>
+      <c r="S41">
+        <v>1.014497161746894</v>
+      </c>
+      <c r="T41">
+        <v>1.02269794338758</v>
+      </c>
+      <c r="U41">
+        <v>1.017620979199938</v>
+      </c>
+      <c r="V41">
+        <v>1.019495269671765</v>
+      </c>
+      <c r="W41">
+        <v>1.007743586003164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7400430100597707</v>
+      </c>
+      <c r="D42">
+        <v>0.8875878341589768</v>
+      </c>
+      <c r="E42">
+        <v>1.720914574226536</v>
+      </c>
+      <c r="F42">
+        <v>0.9222833761136924</v>
+      </c>
+      <c r="G42">
+        <v>0.7400430100597707</v>
+      </c>
+      <c r="H42">
+        <v>0.9059171889865839</v>
+      </c>
+      <c r="I42">
+        <v>1.019830534275371</v>
+      </c>
+      <c r="J42">
+        <v>1.720914574226536</v>
+      </c>
+      <c r="K42">
+        <v>1.720914574226536</v>
+      </c>
+      <c r="L42">
+        <v>0.8095450966386827</v>
+      </c>
+      <c r="M42">
+        <v>1.080546585454643</v>
+      </c>
+      <c r="N42">
+        <v>1.720914574226536</v>
+      </c>
+      <c r="O42">
+        <v>0.9222833761136924</v>
+      </c>
+      <c r="P42">
+        <v>0.8311631930867316</v>
+      </c>
+      <c r="Q42">
+        <v>0.9141002825501381</v>
+      </c>
+      <c r="R42">
+        <v>1.1277469868</v>
+      </c>
+      <c r="S42">
+        <v>0.8560811917200156</v>
+      </c>
+      <c r="T42">
+        <v>1.1277469868</v>
+      </c>
+      <c r="U42">
+        <v>1.072289537346646</v>
+      </c>
+      <c r="V42">
+        <v>1.202014544722624</v>
+      </c>
+      <c r="W42">
+        <v>1.010833524989282</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.072567366147534</v>
+        <v>0.9966410272784649</v>
       </c>
       <c r="D3">
-        <v>1.036965242401608</v>
+        <v>0.9995601028375825</v>
       </c>
       <c r="E3">
-        <v>1.005729413725936</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="F3">
-        <v>1.072567366147534</v>
+        <v>1.013557099933327</v>
       </c>
       <c r="G3">
-        <v>0.9972453555767875</v>
+        <v>0.9966410272784649</v>
       </c>
       <c r="H3">
-        <v>1.003414476122849</v>
+        <v>0.997139138859251</v>
       </c>
       <c r="I3">
-        <v>1.072567366147534</v>
+        <v>1.003463314452179</v>
       </c>
       <c r="J3">
-        <v>1.036965242401608</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="K3">
-        <v>0.9663026480904368</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="L3">
-        <v>1.005042255997808</v>
+        <v>0.996313720286784</v>
       </c>
       <c r="M3">
-        <v>1.002476443339916</v>
+        <v>0.998940878650218</v>
       </c>
       <c r="N3">
-        <v>1.072567366147534</v>
+        <v>0.9973913953917507</v>
       </c>
       <c r="O3">
-        <v>1.005729413725936</v>
+        <v>1.013557099933327</v>
       </c>
       <c r="P3">
-        <v>1.021347328063773</v>
+        <v>1.005099063605896</v>
       </c>
       <c r="Q3">
-        <v>1.001487384651362</v>
+        <v>1.005348119396289</v>
       </c>
       <c r="R3">
-        <v>1.038420674091693</v>
+        <v>1.002529840867848</v>
       </c>
       <c r="S3">
-        <v>1.013313337234778</v>
+        <v>1.002445755357014</v>
       </c>
       <c r="T3">
-        <v>1.038420674091693</v>
+        <v>1.002529840867848</v>
       </c>
       <c r="U3">
-        <v>1.028126844462967</v>
+        <v>1.001182165365698</v>
       </c>
       <c r="V3">
-        <v>1.03701494879988</v>
+        <v>1.000424011370909</v>
       </c>
       <c r="W3">
-        <v>1.011217900175359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000375834711195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.13719015288514</v>
+        <v>0.7752716020734357</v>
       </c>
       <c r="D4">
-        <v>1.064321935967398</v>
+        <v>0.8665027418265183</v>
       </c>
       <c r="E4">
-        <v>1.006698973300732</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="F4">
-        <v>1.13719015288514</v>
+        <v>0.9107138137246289</v>
       </c>
       <c r="G4">
-        <v>0.9947388519851915</v>
+        <v>0.7752716020734357</v>
       </c>
       <c r="H4">
-        <v>1.005807698721177</v>
+        <v>0.8958184452352339</v>
       </c>
       <c r="I4">
-        <v>1.13719015288514</v>
+        <v>1.024501109053124</v>
       </c>
       <c r="J4">
-        <v>1.064321935967398</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="K4">
-        <v>0.9398226413650237</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="L4">
-        <v>1.011394490403949</v>
+        <v>0.8186345002488772</v>
       </c>
       <c r="M4">
-        <v>1.004709783190724</v>
+        <v>1.083052343073237</v>
       </c>
       <c r="N4">
-        <v>1.13719015288514</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="O4">
-        <v>1.006698973300732</v>
+        <v>0.9107138137246289</v>
       </c>
       <c r="P4">
-        <v>1.035510454634065</v>
+        <v>0.8429927078990322</v>
       </c>
       <c r="Q4">
-        <v>1.000718912642962</v>
+        <v>0.9032661294799313</v>
       </c>
       <c r="R4">
-        <v>1.069403687384423</v>
+        <v>1.144319925435865</v>
       </c>
       <c r="S4">
-        <v>1.021919920417774</v>
+        <v>0.8606012870110994</v>
       </c>
       <c r="T4">
-        <v>1.069403687384423</v>
+        <v>1.144319925435865</v>
       </c>
       <c r="U4">
-        <v>1.050737478534615</v>
+        <v>1.082194555385707</v>
       </c>
       <c r="V4">
-        <v>1.06802801340472</v>
+        <v>1.215150516410472</v>
       </c>
       <c r="W4">
-        <v>1.020585565977417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.015183614468073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.276944721361809</v>
+        <v>0.8208984585540889</v>
       </c>
       <c r="D5">
-        <v>1.135015456391049</v>
+        <v>0.9743794637509494</v>
       </c>
       <c r="E5">
-        <v>1.024289187636179</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="F5">
-        <v>1.276944721361809</v>
+        <v>1.675374337351592</v>
       </c>
       <c r="G5">
-        <v>0.9918407958225328</v>
+        <v>0.8208984585540889</v>
       </c>
       <c r="H5">
-        <v>1.021716497644927</v>
+        <v>0.8655915889121029</v>
       </c>
       <c r="I5">
-        <v>1.276944721361809</v>
+        <v>1.195631661198846</v>
       </c>
       <c r="J5">
-        <v>1.135015456391049</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="K5">
-        <v>0.888666132837603</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="L5">
-        <v>1.025735084627094</v>
+        <v>0.8297690800503902</v>
       </c>
       <c r="M5">
-        <v>1.013095311980762</v>
+        <v>0.9012411572795369</v>
       </c>
       <c r="N5">
-        <v>1.276944721361809</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="O5">
-        <v>1.024289187636179</v>
+        <v>1.675374337351592</v>
       </c>
       <c r="P5">
-        <v>1.079652322013614</v>
+        <v>1.24813639795284</v>
       </c>
       <c r="Q5">
-        <v>1.008064991729356</v>
+        <v>1.270482963131847</v>
       </c>
       <c r="R5">
-        <v>1.145416455129679</v>
+        <v>1.135298703716961</v>
       </c>
       <c r="S5">
-        <v>1.050381813283254</v>
+        <v>1.120621461605928</v>
       </c>
       <c r="T5">
-        <v>1.145416455129679</v>
+        <v>1.135298703716961</v>
       </c>
       <c r="U5">
-        <v>1.107022540302893</v>
+        <v>1.067871925015746</v>
       </c>
       <c r="V5">
-        <v>1.141006976514676</v>
+        <v>1.036222203061638</v>
       </c>
       <c r="W5">
-        <v>1.047162898537744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.021563632792839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.465847113496503</v>
+        <v>0.4145683329586588</v>
       </c>
       <c r="D6">
-        <v>1.261101042591308</v>
+        <v>0.8642764785280691</v>
       </c>
       <c r="E6">
-        <v>1.107667706015549</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="F6">
-        <v>1.465847113496503</v>
+        <v>4.582212951829585</v>
       </c>
       <c r="G6">
-        <v>1.04606773006256</v>
+        <v>0.4145683329586588</v>
       </c>
       <c r="H6">
-        <v>1.015203022926041</v>
+        <v>0.4531220093974387</v>
       </c>
       <c r="I6">
-        <v>1.465847113496503</v>
+        <v>1.710069651445883</v>
       </c>
       <c r="J6">
-        <v>1.261101042591308</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="K6">
-        <v>0.7878851631677727</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="L6">
-        <v>1.008904989168817</v>
+        <v>0.4306366831457674</v>
       </c>
       <c r="M6">
-        <v>1.012765302427835</v>
+        <v>0.4692291661365462</v>
       </c>
       <c r="N6">
-        <v>1.465847113496503</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="O6">
-        <v>1.107667706015549</v>
+        <v>4.582212951829585</v>
       </c>
       <c r="P6">
-        <v>1.184384374303428</v>
+        <v>2.498390642394122</v>
       </c>
       <c r="Q6">
-        <v>1.076867718039055</v>
+        <v>2.517667480613512</v>
       </c>
       <c r="R6">
-        <v>1.278205287367786</v>
+        <v>1.815824557686335</v>
       </c>
       <c r="S6">
-        <v>1.138278826223139</v>
+        <v>1.816634431395228</v>
       </c>
       <c r="T6">
-        <v>1.278205287367786</v>
+        <v>1.815824557686335</v>
       </c>
       <c r="U6">
-        <v>1.22017089804148</v>
+        <v>1.475148920614111</v>
       </c>
       <c r="V6">
-        <v>1.269306141132484</v>
+        <v>1.270257614145441</v>
       </c>
       <c r="W6">
-        <v>1.088180258732048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.171850957714089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989698924307922</v>
+        <v>1.028116037823652</v>
       </c>
       <c r="D7">
-        <v>0.9987145329602168</v>
+        <v>0.9658650327671742</v>
       </c>
       <c r="E7">
-        <v>1.006474779620875</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="F7">
-        <v>0.9989698924307922</v>
+        <v>0.9973282504329232</v>
       </c>
       <c r="G7">
-        <v>0.9992476449335379</v>
+        <v>1.028116037823652</v>
       </c>
       <c r="H7">
-        <v>1.001302610139186</v>
+        <v>0.9972750863664599</v>
       </c>
       <c r="I7">
-        <v>0.9989698924307922</v>
+        <v>1.005630399556859</v>
       </c>
       <c r="J7">
-        <v>0.9987145329602168</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="K7">
-        <v>0.9995283337584973</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="L7">
-        <v>0.9994044950626975</v>
+        <v>0.9982993038989216</v>
       </c>
       <c r="M7">
-        <v>0.9988638822499101</v>
+        <v>1.011831941847921</v>
       </c>
       <c r="N7">
-        <v>0.9989698924307922</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="O7">
-        <v>1.006474779620875</v>
+        <v>0.9973282504329232</v>
       </c>
       <c r="P7">
-        <v>1.002594656290546</v>
+        <v>1.012722144128288</v>
       </c>
       <c r="Q7">
-        <v>1.002861212277206</v>
+        <v>0.9973016683996916</v>
       </c>
       <c r="R7">
-        <v>1.001386401670628</v>
+        <v>1.031224540166677</v>
       </c>
       <c r="S7">
-        <v>1.00147898583821</v>
+        <v>1.007573124874345</v>
       </c>
       <c r="T7">
-        <v>1.001386401670628</v>
+        <v>1.031224540166677</v>
       </c>
       <c r="U7">
-        <v>1.000851712486356</v>
+        <v>1.022737176716622</v>
       </c>
       <c r="V7">
-        <v>1.000475348475243</v>
+        <v>1.031835607821989</v>
       </c>
       <c r="W7">
-        <v>1.000313271394464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.009071923117171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.997391395391752</v>
+        <v>0.9876083775710351</v>
       </c>
       <c r="D8">
-        <v>0.996641027278466</v>
+        <v>0.9988177280202946</v>
       </c>
       <c r="E8">
-        <v>1.013557099933327</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="F8">
-        <v>0.997391395391752</v>
+        <v>1.011819517744103</v>
       </c>
       <c r="G8">
-        <v>0.9971391388592499</v>
+        <v>0.9876083775710351</v>
       </c>
       <c r="H8">
-        <v>1.003463314452178</v>
+        <v>1.002977713984881</v>
       </c>
       <c r="I8">
-        <v>0.997391395391752</v>
+        <v>1.003794364128101</v>
       </c>
       <c r="J8">
-        <v>0.996641027278466</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="K8">
-        <v>0.9995601028375812</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="L8">
-        <v>0.9989408786502176</v>
+        <v>0.999629799097242</v>
       </c>
       <c r="M8">
-        <v>0.9963137202867849</v>
+        <v>1.003075939002608</v>
       </c>
       <c r="N8">
-        <v>0.997391395391752</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="O8">
-        <v>1.013557099933327</v>
+        <v>1.011819517744103</v>
       </c>
       <c r="P8">
-        <v>1.005099063605896</v>
+        <v>0.999713947657569</v>
       </c>
       <c r="Q8">
-        <v>1.005348119396288</v>
+        <v>1.007398615864492</v>
       </c>
       <c r="R8">
-        <v>1.002529840867848</v>
+        <v>0.9947198954478417</v>
       </c>
       <c r="S8">
-        <v>1.002445755357014</v>
+        <v>1.000801869766673</v>
       </c>
       <c r="T8">
-        <v>1.002529840867848</v>
+        <v>0.9947198954478417</v>
       </c>
       <c r="U8">
-        <v>1.001182165365699</v>
+        <v>0.9967843500821014</v>
       </c>
       <c r="V8">
-        <v>1.000424011370909</v>
+        <v>0.9943738382713585</v>
       </c>
       <c r="W8">
-        <v>1.000375834711194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9990569038220813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9959410896239497</v>
+        <v>1.064321935967398</v>
       </c>
       <c r="D9">
-        <v>0.9946834761648907</v>
+        <v>0.9398226413650237</v>
       </c>
       <c r="E9">
-        <v>1.017165676068001</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="F9">
-        <v>0.9959410896239497</v>
+        <v>1.006698973300732</v>
       </c>
       <c r="G9">
-        <v>0.9982993125756853</v>
+        <v>1.064321935967398</v>
       </c>
       <c r="H9">
-        <v>1.003938014320451</v>
+        <v>0.9947388519851915</v>
       </c>
       <c r="I9">
-        <v>0.9959410896239497</v>
+        <v>1.005807698721177</v>
       </c>
       <c r="J9">
-        <v>0.9946834761648907</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="K9">
-        <v>0.9982343046442744</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="L9">
-        <v>1.000971007105117</v>
+        <v>1.004709783190724</v>
       </c>
       <c r="M9">
-        <v>0.9954790203751883</v>
+        <v>1.011394490403949</v>
       </c>
       <c r="N9">
-        <v>0.9959410896239497</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="O9">
-        <v>1.017165676068001</v>
+        <v>1.006698973300732</v>
       </c>
       <c r="P9">
-        <v>1.005924576116446</v>
+        <v>1.035510454634065</v>
       </c>
       <c r="Q9">
-        <v>1.007732494321843</v>
+        <v>1.000718912642962</v>
       </c>
       <c r="R9">
-        <v>1.002596747285614</v>
+        <v>1.069403687384423</v>
       </c>
       <c r="S9">
-        <v>1.003382821602859</v>
+        <v>1.021919920417774</v>
       </c>
       <c r="T9">
-        <v>1.002596747285614</v>
+        <v>1.069403687384423</v>
       </c>
       <c r="U9">
-        <v>1.001522388608132</v>
+        <v>1.050737478534615</v>
       </c>
       <c r="V9">
-        <v>1.000406128811295</v>
+        <v>1.06802801340472</v>
       </c>
       <c r="W9">
-        <v>1.000588987609695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.020585565977417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9915977098176272</v>
+        <v>0.4440128001772874</v>
       </c>
       <c r="D10">
-        <v>0.9889031052246625</v>
+        <v>0.8585216566519385</v>
       </c>
       <c r="E10">
-        <v>1.041216472673288</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="F10">
-        <v>0.9915977098176272</v>
+        <v>4.698952860914165</v>
       </c>
       <c r="G10">
-        <v>0.9947264074317996</v>
+        <v>0.4440128001772874</v>
       </c>
       <c r="H10">
-        <v>1.009134869489735</v>
+        <v>0.4093473084322372</v>
       </c>
       <c r="I10">
-        <v>0.9915977098176272</v>
+        <v>1.745403397933545</v>
       </c>
       <c r="J10">
-        <v>0.9889031052246625</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="K10">
-        <v>0.9964769609863934</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="L10">
-        <v>1.000277280143379</v>
+        <v>0.4176248707639025</v>
       </c>
       <c r="M10">
-        <v>0.9898202727096107</v>
+        <v>0.4343784088376028</v>
       </c>
       <c r="N10">
-        <v>0.9915977098176272</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="O10">
-        <v>1.041216472673288</v>
+        <v>4.698952860914165</v>
       </c>
       <c r="P10">
-        <v>1.015059788948975</v>
+        <v>2.571482830545726</v>
       </c>
       <c r="Q10">
-        <v>1.017971440052544</v>
+        <v>2.554150084673201</v>
       </c>
       <c r="R10">
-        <v>1.007239095905192</v>
+        <v>1.858438220545978</v>
       </c>
       <c r="S10">
-        <v>1.008281995109917</v>
+        <v>1.85077098984123</v>
       </c>
       <c r="T10">
-        <v>1.007239095905192</v>
+        <v>1.858438220545978</v>
       </c>
       <c r="U10">
-        <v>1.004110923786844</v>
+        <v>1.496165492517543</v>
       </c>
       <c r="V10">
-        <v>1.001608280993001</v>
+        <v>1.28340219412333</v>
       </c>
       <c r="W10">
-        <v>1.001519134809562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.180073788032145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9872028227904528</v>
+        <v>0.8296091502421541</v>
       </c>
       <c r="D11">
-        <v>0.9800727663260642</v>
+        <v>0.833785975526747</v>
       </c>
       <c r="E11">
-        <v>1.05788586573848</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="F11">
-        <v>0.9872028227904528</v>
+        <v>0.8997914177666023</v>
       </c>
       <c r="G11">
-        <v>0.9908793646931114</v>
+        <v>0.8296091502421541</v>
       </c>
       <c r="H11">
-        <v>1.013052545395172</v>
+        <v>0.8901940210446476</v>
       </c>
       <c r="I11">
-        <v>0.9872028227904528</v>
+        <v>1.027582574839116</v>
       </c>
       <c r="J11">
-        <v>0.9800727663260642</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="K11">
-        <v>0.9962670173106613</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="L11">
-        <v>1.005691990545817</v>
+        <v>0.8324518940507191</v>
       </c>
       <c r="M11">
-        <v>0.9832152176922976</v>
+        <v>1.087891202006198</v>
       </c>
       <c r="N11">
-        <v>0.9872028227904528</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="O11">
-        <v>1.05788586573848</v>
+        <v>0.8997914177666023</v>
       </c>
       <c r="P11">
-        <v>1.018979316032272</v>
+        <v>0.8647002840043783</v>
       </c>
       <c r="Q11">
-        <v>1.024382615215796</v>
+        <v>0.894992719405625</v>
       </c>
       <c r="R11">
-        <v>1.008387151618332</v>
+        <v>1.173888292888131</v>
       </c>
       <c r="S11">
-        <v>1.009612665585885</v>
+        <v>0.8731981963511347</v>
       </c>
       <c r="T11">
-        <v>1.008387151618332</v>
+        <v>1.173888292888131</v>
       </c>
       <c r="U11">
-        <v>1.004010204887027</v>
+        <v>1.10296472492726</v>
       </c>
       <c r="V11">
-        <v>1.000648728467712</v>
+        <v>1.240824642072936</v>
       </c>
       <c r="W11">
-        <v>1.001783448811507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.024196318266478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.034395729111162</v>
+        <v>0.8254793875379287</v>
       </c>
       <c r="D12">
-        <v>2.327374721268486</v>
+        <v>0.9871009915199973</v>
       </c>
       <c r="E12">
-        <v>0.1153595862717338</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="F12">
-        <v>2.034395729111162</v>
+        <v>2.005495154877475</v>
       </c>
       <c r="G12">
-        <v>0.8753736642658295</v>
+        <v>0.8254793875379287</v>
       </c>
       <c r="H12">
-        <v>0.6876329097480902</v>
+        <v>0.7895106128473687</v>
       </c>
       <c r="I12">
-        <v>2.034395729111162</v>
+        <v>1.268883575210527</v>
       </c>
       <c r="J12">
-        <v>2.327374721268486</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="K12">
-        <v>0.6298883385390467</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="L12">
-        <v>1.063288951095446</v>
+        <v>0.8007703154663163</v>
       </c>
       <c r="M12">
-        <v>1.40085442028962</v>
+        <v>0.8122525955957901</v>
       </c>
       <c r="N12">
-        <v>2.034395729111162</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="O12">
-        <v>0.1153595862717338</v>
+        <v>2.005495154877475</v>
       </c>
       <c r="P12">
-        <v>1.22136715377011</v>
+        <v>1.415487271207702</v>
       </c>
       <c r="Q12">
-        <v>0.4953666252687816</v>
+        <v>1.397502883862422</v>
       </c>
       <c r="R12">
-        <v>1.492376678883794</v>
+        <v>1.205293903160889</v>
       </c>
       <c r="S12">
-        <v>1.106035990602017</v>
+        <v>1.206828385087591</v>
       </c>
       <c r="T12">
-        <v>1.492376678883794</v>
+        <v>1.205293903160889</v>
       </c>
       <c r="U12">
-        <v>1.338125925229303</v>
+        <v>1.101348080582509</v>
       </c>
       <c r="V12">
-        <v>1.477379886005675</v>
+        <v>1.03805989787946</v>
       </c>
       <c r="W12">
-        <v>1.141771040073677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.034299975015333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1870952442526272</v>
+        <v>1.266124160124604</v>
       </c>
       <c r="D13">
-        <v>0.4291899956988435</v>
+        <v>0.9818467687040567</v>
       </c>
       <c r="E13">
-        <v>1.12407327173895</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="F13">
-        <v>0.1870952442526272</v>
+        <v>0.9553237149811065</v>
       </c>
       <c r="G13">
-        <v>1.324001475886511</v>
+        <v>1.266124160124604</v>
       </c>
       <c r="H13">
-        <v>1.016747159982073</v>
+        <v>0.9563458495452167</v>
       </c>
       <c r="I13">
-        <v>0.1870952442526272</v>
+        <v>0.9746150407990269</v>
       </c>
       <c r="J13">
-        <v>0.4291899956988435</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="K13">
-        <v>1.120542303011417</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="L13">
-        <v>1.136765566205405</v>
+        <v>1.08878588061443</v>
       </c>
       <c r="M13">
-        <v>0.9538174391954826</v>
+        <v>0.9541979427965862</v>
       </c>
       <c r="N13">
-        <v>0.1870952442526272</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="O13">
-        <v>1.12407327173895</v>
+        <v>0.9553237149811065</v>
       </c>
       <c r="P13">
-        <v>0.7766316337188968</v>
+        <v>1.110723937552855</v>
       </c>
       <c r="Q13">
-        <v>1.224037373812731</v>
+        <v>0.9558347822631617</v>
       </c>
       <c r="R13">
-        <v>0.5801195038968069</v>
+        <v>1.074089752318254</v>
       </c>
       <c r="S13">
-        <v>0.9590882477747682</v>
+        <v>1.059264574883642</v>
       </c>
       <c r="T13">
-        <v>0.5801195038968069</v>
+        <v>1.074089752318254</v>
       </c>
       <c r="U13">
-        <v>0.766089996894233</v>
+        <v>1.044653776624995</v>
       </c>
       <c r="V13">
-        <v>0.6502910463659118</v>
+        <v>1.035887297669806</v>
       </c>
       <c r="W13">
-        <v>0.9115290569964136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.02225759242676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1984753693927995</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="D14">
-        <v>1.124890800717806</v>
+        <v>0.7211417700000006</v>
       </c>
       <c r="E14">
-        <v>0.2822497524117139</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="F14">
-        <v>0.1984753693927995</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="G14">
-        <v>1.427999128784145</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="H14">
-        <v>0.4083458592629885</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="I14">
-        <v>0.1984753693927995</v>
+        <v>2.259875099999999</v>
       </c>
       <c r="J14">
-        <v>1.124890800717806</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="K14">
-        <v>1.311327858802549</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L14">
-        <v>1.193647977931714</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="M14">
-        <v>1.533670443087696</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="N14">
-        <v>0.1984753693927995</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="O14">
-        <v>0.2822497524117139</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="P14">
-        <v>0.7035702765647598</v>
+        <v>3.827624884319998</v>
       </c>
       <c r="Q14">
-        <v>0.8551244405979295</v>
+        <v>3.835162454999998</v>
       </c>
       <c r="R14">
-        <v>0.5352053075074397</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="S14">
-        <v>0.9450465606378883</v>
+        <v>2.556991192879999</v>
       </c>
       <c r="T14">
-        <v>0.5352053075074398</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="U14">
-        <v>0.758403762826616</v>
+        <v>1.919613708534999</v>
       </c>
       <c r="V14">
-        <v>0.6464180841398528</v>
+        <v>1.537187217927999</v>
       </c>
       <c r="W14">
-        <v>0.9350758987989265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.336288635254999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.227257498184662</v>
+        <v>0.0040034715</v>
       </c>
       <c r="D15">
-        <v>2.094402482795868</v>
+        <v>0.13297696</v>
       </c>
       <c r="E15">
-        <v>1.450493793635849</v>
+        <v>0.82520477</v>
       </c>
       <c r="F15">
-        <v>1.227257498184662</v>
+        <v>0.026860309</v>
       </c>
       <c r="G15">
-        <v>0.6198510108965755</v>
+        <v>0.0040034715</v>
       </c>
       <c r="H15">
-        <v>1.21129753887605</v>
+        <v>1.9088887</v>
       </c>
       <c r="I15">
-        <v>1.227257498184662</v>
+        <v>0.40899606</v>
       </c>
       <c r="J15">
-        <v>2.094402482795868</v>
+        <v>0.82520477</v>
       </c>
       <c r="K15">
-        <v>0.9332565901690115</v>
+        <v>0.82520477</v>
       </c>
       <c r="L15">
-        <v>0.4680577318229997</v>
+        <v>0.27515243</v>
       </c>
       <c r="M15">
-        <v>1.148648632712702</v>
+        <v>3.8304134</v>
       </c>
       <c r="N15">
-        <v>1.227257498184662</v>
+        <v>0.82520477</v>
       </c>
       <c r="O15">
-        <v>1.450493793635849</v>
+        <v>0.026860309</v>
       </c>
       <c r="P15">
-        <v>1.772448138215859</v>
+        <v>0.01543189025</v>
       </c>
       <c r="Q15">
-        <v>1.035172402266212</v>
+        <v>0.9678745044999999</v>
       </c>
       <c r="R15">
-        <v>1.590717924872126</v>
+        <v>0.2853561835</v>
       </c>
       <c r="S15">
-        <v>1.388249095776098</v>
+        <v>0.6465841601666666</v>
       </c>
       <c r="T15">
-        <v>1.590717924872126</v>
+        <v>0.2853561835</v>
       </c>
       <c r="U15">
-        <v>1.348001196378239</v>
+        <v>0.691239312625</v>
       </c>
       <c r="V15">
-        <v>1.323852456739524</v>
+        <v>0.7180324041</v>
       </c>
       <c r="W15">
-        <v>1.144158159886715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9265620125625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.007283224576939</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="D16">
-        <v>1.007180184780424</v>
+        <v>0.00081841436</v>
       </c>
       <c r="E16">
-        <v>1.00069098069891</v>
+        <v>11.477873</v>
       </c>
       <c r="F16">
-        <v>1.007283224576939</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="G16">
-        <v>0.9957179641009922</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H16">
-        <v>0.9995659097983443</v>
+        <v>0.024380834</v>
       </c>
       <c r="I16">
-        <v>1.007283224576939</v>
+        <v>0.39572697</v>
       </c>
       <c r="J16">
-        <v>1.007180184780424</v>
+        <v>11.477873</v>
       </c>
       <c r="K16">
-        <v>1.000230740500656</v>
+        <v>11.477873</v>
       </c>
       <c r="L16">
-        <v>0.996968141885395</v>
+        <v>-0.002229274</v>
       </c>
       <c r="M16">
-        <v>0.99928393035672</v>
+        <v>0.8252917</v>
       </c>
       <c r="N16">
-        <v>1.007283224576939</v>
+        <v>11.477873</v>
       </c>
       <c r="O16">
-        <v>1.00069098069891</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="P16">
-        <v>1.003935582739667</v>
+        <v>0.002112787850000001</v>
       </c>
       <c r="Q16">
-        <v>0.9982044723999512</v>
+        <v>0.01593104475</v>
       </c>
       <c r="R16">
-        <v>1.005051463352092</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="S16">
-        <v>1.001196376526776</v>
+        <v>0.009535469900000001</v>
       </c>
       <c r="T16">
-        <v>1.005051463352092</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="U16">
-        <v>1.002718088539317</v>
+        <v>2.876619852425</v>
       </c>
       <c r="V16">
-        <v>1.003631115746841</v>
+        <v>4.59687048194</v>
       </c>
       <c r="W16">
-        <v>1.000865134587298</v>
+        <v>1.5907609025075</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9847317910283866</v>
+        <v>0.014840961</v>
       </c>
       <c r="D17">
-        <v>0.9876083775710348</v>
+        <v>2.1249123</v>
       </c>
       <c r="E17">
-        <v>1.011819517744103</v>
+        <v>0.019807336</v>
       </c>
       <c r="F17">
-        <v>0.9847317910283866</v>
+        <v>1.0678604</v>
       </c>
       <c r="G17">
-        <v>1.002977713984881</v>
+        <v>0.014840961</v>
       </c>
       <c r="H17">
-        <v>1.003794364128101</v>
+        <v>0.85528532</v>
       </c>
       <c r="I17">
-        <v>0.9847317910283866</v>
+        <v>0.8084057699999999</v>
       </c>
       <c r="J17">
-        <v>0.9876083775710348</v>
+        <v>0.019807336</v>
       </c>
       <c r="K17">
-        <v>0.9988177280202958</v>
+        <v>0.019807336</v>
       </c>
       <c r="L17">
-        <v>1.003075939002608</v>
+        <v>0.3354703</v>
       </c>
       <c r="M17">
-        <v>0.9996297990972419</v>
+        <v>0.63790612</v>
       </c>
       <c r="N17">
-        <v>0.9847317910283866</v>
+        <v>0.019807336</v>
       </c>
       <c r="O17">
-        <v>1.011819517744103</v>
+        <v>1.0678604</v>
       </c>
       <c r="P17">
-        <v>0.9997139476575687</v>
+        <v>0.5413506805</v>
       </c>
       <c r="Q17">
-        <v>1.007398615864492</v>
+        <v>0.96157286</v>
       </c>
       <c r="R17">
-        <v>0.9947198954478415</v>
+        <v>0.367502899</v>
       </c>
       <c r="S17">
-        <v>1.000801869766673</v>
+        <v>0.6459955603333333</v>
       </c>
       <c r="T17">
-        <v>0.9947198954478415</v>
+        <v>0.367502899</v>
       </c>
       <c r="U17">
-        <v>0.9967843500821012</v>
+        <v>0.48944850425</v>
       </c>
       <c r="V17">
-        <v>0.9943738382713583</v>
+        <v>0.3955202705999999</v>
       </c>
       <c r="W17">
-        <v>0.9990569038220815</v>
+        <v>0.733061063375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.053531579994518</v>
+        <v>1.78555675456411</v>
       </c>
       <c r="D18">
-        <v>1.039252265096551</v>
+        <v>0.2575346432098631</v>
       </c>
       <c r="E18">
-        <v>0.9910118460667627</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="F18">
-        <v>1.053531579994518</v>
+        <v>0.9002298221643835</v>
       </c>
       <c r="G18">
-        <v>0.9891649221164635</v>
+        <v>1.78555675456411</v>
       </c>
       <c r="H18">
-        <v>0.9951843398594346</v>
+        <v>0.9508397390136986</v>
       </c>
       <c r="I18">
-        <v>1.053531579994518</v>
+        <v>1.048082380821918</v>
       </c>
       <c r="J18">
-        <v>1.039252265096551</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="K18">
-        <v>0.9939908758921788</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="L18">
-        <v>0.9972877311775813</v>
+        <v>1.056747162524383</v>
       </c>
       <c r="M18">
-        <v>0.9969663716627418</v>
+        <v>1.200882694794521</v>
       </c>
       <c r="N18">
-        <v>1.053531579994518</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="O18">
-        <v>0.9910118460667627</v>
+        <v>0.9002298221643835</v>
       </c>
       <c r="P18">
-        <v>1.015132055581657</v>
+        <v>1.342893288364247</v>
       </c>
       <c r="Q18">
-        <v>0.990088384091613</v>
+        <v>0.925534780589041</v>
       </c>
       <c r="R18">
-        <v>1.027931897052611</v>
+        <v>1.791553561782557</v>
       </c>
       <c r="S18">
-        <v>1.006476344426593</v>
+        <v>1.212208771914064</v>
       </c>
       <c r="T18">
-        <v>1.027931897052611</v>
+        <v>1.791553561782557</v>
       </c>
       <c r="U18">
-        <v>1.018240153318574</v>
+        <v>1.581375106090342</v>
       </c>
       <c r="V18">
-        <v>1.025298438653763</v>
+        <v>1.802874906596109</v>
       </c>
       <c r="W18">
-        <v>1.007048741483279</v>
+        <v>1.236093413214007</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.19847239911013</v>
+        <v>0.06081876347</v>
       </c>
       <c r="D19">
-        <v>1.14244774914139</v>
+        <v>1.277224390261053</v>
       </c>
       <c r="E19">
-        <v>0.9460257183358372</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="F19">
-        <v>1.19847239911013</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="G19">
-        <v>0.9532836906794624</v>
+        <v>0.06081876347</v>
       </c>
       <c r="H19">
-        <v>0.9931910890942578</v>
+        <v>1.07253729131579</v>
       </c>
       <c r="I19">
-        <v>1.19847239911013</v>
+        <v>0.8827492779999999</v>
       </c>
       <c r="J19">
-        <v>1.14244774914139</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="K19">
-        <v>0.9745795681442522</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="L19">
-        <v>0.9705574599970437</v>
+        <v>0.5760082934884211</v>
       </c>
       <c r="M19">
-        <v>1.002129459278065</v>
+        <v>0.9648038065263157</v>
       </c>
       <c r="N19">
-        <v>1.19847239911013</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="O19">
-        <v>0.9460257183358372</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="P19">
-        <v>1.044236733738614</v>
+        <v>0.6827564416955263</v>
       </c>
       <c r="Q19">
-        <v>0.9496547045076498</v>
+        <v>1.188615705618421</v>
       </c>
       <c r="R19">
-        <v>1.095648622195786</v>
+        <v>0.9880254499087719</v>
       </c>
       <c r="S19">
-        <v>1.013919052718897</v>
+        <v>0.8126833915689474</v>
       </c>
       <c r="T19">
-        <v>1.095648622195786</v>
+        <v>0.9880254499087719</v>
       </c>
       <c r="U19">
-        <v>1.060057389316705</v>
+        <v>1.009153410260526</v>
       </c>
       <c r="V19">
-        <v>1.08774039127539</v>
+        <v>1.127035421475474</v>
       </c>
       <c r="W19">
-        <v>1.022585891722555</v>
+        <v>0.9671749261647369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.001367301754210526</v>
+      </c>
+      <c r="D20">
+        <v>0.5705742894736843</v>
+      </c>
+      <c r="E20">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="F20">
+        <v>2.774020111842105</v>
+      </c>
+      <c r="G20">
+        <v>0.001367301754210526</v>
+      </c>
+      <c r="H20">
+        <v>0.6969658337894737</v>
+      </c>
+      <c r="I20">
+        <v>1.796198174736842</v>
+      </c>
+      <c r="J20">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="K20">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="L20">
+        <v>0.1021013239473684</v>
+      </c>
+      <c r="M20">
+        <v>1.397825143</v>
+      </c>
+      <c r="N20">
+        <v>0.3033398336789473</v>
+      </c>
+      <c r="O20">
+        <v>2.774020111842105</v>
+      </c>
+      <c r="P20">
+        <v>1.387693706798158</v>
+      </c>
+      <c r="Q20">
+        <v>1.73549297281579</v>
+      </c>
+      <c r="R20">
+        <v>1.026242415758421</v>
+      </c>
+      <c r="S20">
+        <v>1.15745108246193</v>
+      </c>
+      <c r="T20">
+        <v>1.026242415758421</v>
+      </c>
+      <c r="U20">
+        <v>0.9439232702661842</v>
+      </c>
+      <c r="V20">
+        <v>0.8158065829487369</v>
+      </c>
+      <c r="W20">
+        <v>0.9552990015278289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.124890800717806</v>
+      </c>
+      <c r="D21">
+        <v>1.311327858802549</v>
+      </c>
+      <c r="E21">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="F21">
+        <v>0.2822497524117137</v>
+      </c>
+      <c r="G21">
+        <v>1.124890800717806</v>
+      </c>
+      <c r="H21">
+        <v>1.427999128784146</v>
+      </c>
+      <c r="I21">
+        <v>0.4083458592629884</v>
+      </c>
+      <c r="J21">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="K21">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="L21">
+        <v>1.533670443087697</v>
+      </c>
+      <c r="M21">
+        <v>1.193647977931714</v>
+      </c>
+      <c r="N21">
+        <v>0.1984753693927994</v>
+      </c>
+      <c r="O21">
+        <v>0.2822497524117137</v>
+      </c>
+      <c r="P21">
+        <v>0.7035702765647596</v>
+      </c>
+      <c r="Q21">
+        <v>0.8551244405979297</v>
+      </c>
+      <c r="R21">
+        <v>0.5352053075074396</v>
+      </c>
+      <c r="S21">
+        <v>0.9450465606378883</v>
+      </c>
+      <c r="T21">
+        <v>0.5352053075074396</v>
+      </c>
+      <c r="U21">
+        <v>0.758403762826616</v>
+      </c>
+      <c r="V21">
+        <v>0.6464180841398527</v>
+      </c>
+      <c r="W21">
+        <v>0.9350758987989265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.094402482795869</v>
+      </c>
+      <c r="D22">
+        <v>0.9332565901690115</v>
+      </c>
+      <c r="E22">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="F22">
+        <v>1.450493793635849</v>
+      </c>
+      <c r="G22">
+        <v>2.094402482795869</v>
+      </c>
+      <c r="H22">
+        <v>0.6198510108965755</v>
+      </c>
+      <c r="I22">
+        <v>1.21129753887605</v>
+      </c>
+      <c r="J22">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="K22">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="L22">
+        <v>1.148648632712702</v>
+      </c>
+      <c r="M22">
+        <v>0.4680577318229997</v>
+      </c>
+      <c r="N22">
+        <v>1.227257498184662</v>
+      </c>
+      <c r="O22">
+        <v>1.450493793635849</v>
+      </c>
+      <c r="P22">
+        <v>1.772448138215859</v>
+      </c>
+      <c r="Q22">
+        <v>1.035172402266212</v>
+      </c>
+      <c r="R22">
+        <v>1.590717924872127</v>
+      </c>
+      <c r="S22">
+        <v>1.388249095776098</v>
+      </c>
+      <c r="T22">
+        <v>1.590717924872127</v>
+      </c>
+      <c r="U22">
+        <v>1.348001196378239</v>
+      </c>
+      <c r="V22">
+        <v>1.323852456739524</v>
+      </c>
+      <c r="W22">
+        <v>1.144158159886715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2.327374721268487</v>
+      </c>
+      <c r="D23">
+        <v>0.6298883385390468</v>
+      </c>
+      <c r="E23">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="F23">
+        <v>0.1153595862717336</v>
+      </c>
+      <c r="G23">
+        <v>2.327374721268487</v>
+      </c>
+      <c r="H23">
+        <v>0.8753736642658296</v>
+      </c>
+      <c r="I23">
+        <v>0.68763290974809</v>
+      </c>
+      <c r="J23">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="K23">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="L23">
+        <v>1.40085442028962</v>
+      </c>
+      <c r="M23">
+        <v>1.063288951095446</v>
+      </c>
+      <c r="N23">
+        <v>2.034395729111162</v>
+      </c>
+      <c r="O23">
+        <v>0.1153595862717336</v>
+      </c>
+      <c r="P23">
+        <v>1.22136715377011</v>
+      </c>
+      <c r="Q23">
+        <v>0.4953666252687816</v>
+      </c>
+      <c r="R23">
+        <v>1.492376678883794</v>
+      </c>
+      <c r="S23">
+        <v>1.106035990602017</v>
+      </c>
+      <c r="T23">
+        <v>1.492376678883794</v>
+      </c>
+      <c r="U23">
+        <v>1.338125925229303</v>
+      </c>
+      <c r="V23">
+        <v>1.477379886005675</v>
+      </c>
+      <c r="W23">
+        <v>1.141771040073677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4291899956988436</v>
+      </c>
+      <c r="D24">
+        <v>1.120542303011416</v>
+      </c>
+      <c r="E24">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="F24">
+        <v>1.12407327173895</v>
+      </c>
+      <c r="G24">
+        <v>0.4291899956988436</v>
+      </c>
+      <c r="H24">
+        <v>1.324001475886512</v>
+      </c>
+      <c r="I24">
+        <v>1.016747159982073</v>
+      </c>
+      <c r="J24">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="K24">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="L24">
+        <v>0.9538174391954827</v>
+      </c>
+      <c r="M24">
+        <v>1.136765566205405</v>
+      </c>
+      <c r="N24">
+        <v>0.1870952442526272</v>
+      </c>
+      <c r="O24">
+        <v>1.12407327173895</v>
+      </c>
+      <c r="P24">
+        <v>0.7766316337188968</v>
+      </c>
+      <c r="Q24">
+        <v>1.224037373812731</v>
+      </c>
+      <c r="R24">
+        <v>0.5801195038968069</v>
+      </c>
+      <c r="S24">
+        <v>0.9590882477747685</v>
+      </c>
+      <c r="T24">
+        <v>0.5801195038968069</v>
+      </c>
+      <c r="U24">
+        <v>0.7660899968942332</v>
+      </c>
+      <c r="V24">
+        <v>0.650291046365912</v>
+      </c>
+      <c r="W24">
+        <v>0.9115290569964136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.06067594511230329</v>
+      </c>
+      <c r="D25">
+        <v>0.6786034179333235</v>
+      </c>
+      <c r="E25">
+        <v>1.689974808184376</v>
+      </c>
+      <c r="F25">
+        <v>0.5635620272047654</v>
+      </c>
+      <c r="G25">
+        <v>0.06067594511230329</v>
+      </c>
+      <c r="H25">
+        <v>1.212543118981331</v>
+      </c>
+      <c r="I25">
+        <v>1.148958989163753</v>
+      </c>
+      <c r="J25">
+        <v>1.689974808184376</v>
+      </c>
+      <c r="K25">
+        <v>1.689974808184376</v>
+      </c>
+      <c r="L25">
+        <v>0.5784234104486158</v>
+      </c>
+      <c r="M25">
+        <v>1.433476615039198</v>
+      </c>
+      <c r="N25">
+        <v>1.689974808184376</v>
+      </c>
+      <c r="O25">
+        <v>0.5635620272047654</v>
+      </c>
+      <c r="P25">
+        <v>0.3121189861585344</v>
+      </c>
+      <c r="Q25">
+        <v>0.8880525730930484</v>
+      </c>
+      <c r="R25">
+        <v>0.7714042601671482</v>
+      </c>
+      <c r="S25">
+        <v>0.6122603637661334</v>
+      </c>
+      <c r="T25">
+        <v>0.7714042601671482</v>
+      </c>
+      <c r="U25">
+        <v>0.881688974870694</v>
+      </c>
+      <c r="V25">
+        <v>1.04334614153343</v>
+      </c>
+      <c r="W25">
+        <v>0.9207772915084582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9377502337002399</v>
+      </c>
+      <c r="D26">
+        <v>1.119365329469335</v>
+      </c>
+      <c r="E26">
+        <v>1.417227026490135</v>
+      </c>
+      <c r="F26">
+        <v>1.572155546433684</v>
+      </c>
+      <c r="G26">
+        <v>0.9377502337002399</v>
+      </c>
+      <c r="H26">
+        <v>0.488959103539518</v>
+      </c>
+      <c r="I26">
+        <v>1.169539112718628</v>
+      </c>
+      <c r="J26">
+        <v>1.417227026490135</v>
+      </c>
+      <c r="K26">
+        <v>1.417227026490135</v>
+      </c>
+      <c r="L26">
+        <v>0.8006653665965766</v>
+      </c>
+      <c r="M26">
+        <v>0.702700266299937</v>
+      </c>
+      <c r="N26">
+        <v>1.417227026490135</v>
+      </c>
+      <c r="O26">
+        <v>1.572155546433684</v>
+      </c>
+      <c r="P26">
+        <v>1.254952890066962</v>
+      </c>
+      <c r="Q26">
+        <v>1.030557324986601</v>
+      </c>
+      <c r="R26">
+        <v>1.309044268874686</v>
+      </c>
+      <c r="S26">
+        <v>0.9996216278911474</v>
+      </c>
+      <c r="T26">
+        <v>1.309044268874686</v>
+      </c>
+      <c r="U26">
+        <v>1.104022977540894</v>
+      </c>
+      <c r="V26">
+        <v>1.166663787330742</v>
+      </c>
+      <c r="W26">
+        <v>1.026045248156007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.4375082828555513</v>
+      </c>
+      <c r="D27">
+        <v>0.9143568892471111</v>
+      </c>
+      <c r="E27">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="F27">
+        <v>0.9969282827512534</v>
+      </c>
+      <c r="G27">
+        <v>0.4375082828555513</v>
+      </c>
+      <c r="H27">
+        <v>1.351540684125949</v>
+      </c>
+      <c r="I27">
+        <v>0.821435633069224</v>
+      </c>
+      <c r="J27">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="K27">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="L27">
+        <v>1.042350812934067</v>
+      </c>
+      <c r="M27">
+        <v>1.255889908542058</v>
+      </c>
+      <c r="N27">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="O27">
+        <v>0.9969282827512534</v>
+      </c>
+      <c r="P27">
+        <v>0.7172182828034024</v>
+      </c>
+      <c r="Q27">
+        <v>1.174234483438601</v>
+      </c>
+      <c r="R27">
+        <v>0.8573155375005198</v>
+      </c>
+      <c r="S27">
+        <v>0.9286590832442515</v>
+      </c>
+      <c r="T27">
+        <v>0.8573155375005198</v>
+      </c>
+      <c r="U27">
+        <v>0.9808718241568772</v>
+      </c>
+      <c r="V27">
+        <v>1.012199468704453</v>
+      </c>
+      <c r="W27">
+        <v>0.9946900675524962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.086444435978063</v>
+      </c>
+      <c r="D28">
+        <v>1.001155884050603</v>
+      </c>
+      <c r="E28">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="F28">
+        <v>1.216245063860123</v>
+      </c>
+      <c r="G28">
+        <v>1.086444435978063</v>
+      </c>
+      <c r="H28">
+        <v>0.7997304699310781</v>
+      </c>
+      <c r="I28">
+        <v>0.8608678504466351</v>
+      </c>
+      <c r="J28">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="K28">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="L28">
+        <v>0.9354550929040016</v>
+      </c>
+      <c r="M28">
+        <v>1.142882624560537</v>
+      </c>
+      <c r="N28">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="O28">
+        <v>1.216245063860123</v>
+      </c>
+      <c r="P28">
+        <v>1.151344749919093</v>
+      </c>
+      <c r="Q28">
+        <v>1.0079877668956</v>
+      </c>
+      <c r="R28">
+        <v>1.247907028225373</v>
+      </c>
+      <c r="S28">
+        <v>1.034139989923088</v>
+      </c>
+      <c r="T28">
+        <v>1.247907028225373</v>
+      </c>
+      <c r="U28">
+        <v>1.135862888651799</v>
+      </c>
+      <c r="V28">
+        <v>1.196896627889026</v>
+      </c>
+      <c r="W28">
+        <v>1.060476625821122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.527393580736663</v>
+      </c>
+      <c r="D29">
+        <v>1.379167128514857</v>
+      </c>
+      <c r="E29">
+        <v>0.6878598527548704</v>
+      </c>
+      <c r="F29">
+        <v>0.2623975080513765</v>
+      </c>
+      <c r="G29">
+        <v>0.527393580736663</v>
+      </c>
+      <c r="H29">
+        <v>1.227589305877936</v>
+      </c>
+      <c r="I29">
+        <v>0.3615430099963116</v>
+      </c>
+      <c r="J29">
+        <v>0.6878598527548704</v>
+      </c>
+      <c r="K29">
+        <v>0.6878598527548704</v>
+      </c>
+      <c r="L29">
+        <v>0.9020543140223011</v>
+      </c>
+      <c r="M29">
+        <v>1.852074004114296</v>
+      </c>
+      <c r="N29">
+        <v>0.6878598527548704</v>
+      </c>
+      <c r="O29">
+        <v>0.2623975080513765</v>
+      </c>
+      <c r="P29">
+        <v>0.3948955443940197</v>
+      </c>
+      <c r="Q29">
+        <v>0.7449934069646561</v>
+      </c>
+      <c r="R29">
+        <v>0.4925503138476366</v>
+      </c>
+      <c r="S29">
+        <v>0.672460131555325</v>
+      </c>
+      <c r="T29">
+        <v>0.4925503138476366</v>
+      </c>
+      <c r="U29">
+        <v>0.6763100618552114</v>
+      </c>
+      <c r="V29">
+        <v>0.6786200200351431</v>
+      </c>
+      <c r="W29">
+        <v>0.9000098380085763</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7752716020734357</v>
+        <v>0.8357975553510357</v>
       </c>
       <c r="D4">
-        <v>0.8665027418265183</v>
+        <v>1.006826651687704</v>
       </c>
       <c r="E4">
-        <v>1.74697436050953</v>
+        <v>0.8911600224436456</v>
       </c>
       <c r="F4">
-        <v>0.9107138137246289</v>
+        <v>1.52899200910204</v>
       </c>
       <c r="G4">
-        <v>0.7752716020734357</v>
+        <v>0.8357975553510357</v>
       </c>
       <c r="H4">
-        <v>0.8958184452352339</v>
+        <v>0.8830645045437154</v>
       </c>
       <c r="I4">
-        <v>1.024501109053124</v>
+        <v>1.16675846900188</v>
       </c>
       <c r="J4">
-        <v>1.74697436050953</v>
+        <v>0.8911600224436456</v>
       </c>
       <c r="K4">
-        <v>1.74697436050953</v>
+        <v>0.8911600224436456</v>
       </c>
       <c r="L4">
-        <v>0.8186345002488772</v>
+        <v>0.855961491981313</v>
       </c>
       <c r="M4">
-        <v>1.083052343073237</v>
+        <v>0.9033784577399147</v>
       </c>
       <c r="N4">
-        <v>1.74697436050953</v>
+        <v>0.8911600224436456</v>
       </c>
       <c r="O4">
-        <v>0.9107138137246289</v>
+        <v>1.52899200910204</v>
       </c>
       <c r="P4">
-        <v>0.8429927078990322</v>
+        <v>1.182394782226538</v>
       </c>
       <c r="Q4">
-        <v>0.9032661294799313</v>
+        <v>1.206028256822878</v>
       </c>
       <c r="R4">
-        <v>1.144319925435865</v>
+        <v>1.085316528965574</v>
       </c>
       <c r="S4">
-        <v>0.8606012870110994</v>
+        <v>1.08261802299893</v>
       </c>
       <c r="T4">
-        <v>1.144319925435865</v>
+        <v>1.085316528965574</v>
       </c>
       <c r="U4">
-        <v>1.082194555385707</v>
+        <v>1.034753522860109</v>
       </c>
       <c r="V4">
-        <v>1.215150516410472</v>
+        <v>1.006034822776817</v>
       </c>
       <c r="W4">
-        <v>1.015183614468073</v>
+        <v>1.008992395231406</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8208984585540889</v>
+        <v>0.001385562194050447</v>
       </c>
       <c r="D5">
-        <v>0.9743794637509494</v>
+        <v>0.5677721269685765</v>
       </c>
       <c r="E5">
-        <v>0.9096233152452021</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="F5">
-        <v>1.675374337351592</v>
+        <v>2.485380016487212</v>
       </c>
       <c r="G5">
-        <v>0.8208984585540889</v>
+        <v>0.001385562194050447</v>
       </c>
       <c r="H5">
-        <v>0.8655915889121029</v>
+        <v>0.7208521572890533</v>
       </c>
       <c r="I5">
-        <v>1.195631661198846</v>
+        <v>1.788186260714938</v>
       </c>
       <c r="J5">
-        <v>0.9096233152452021</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="K5">
-        <v>0.9096233152452021</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="L5">
-        <v>0.8297690800503902</v>
+        <v>0.1056032685047131</v>
       </c>
       <c r="M5">
-        <v>0.9012411572795369</v>
+        <v>1.445914630321507</v>
       </c>
       <c r="N5">
-        <v>0.9096233152452021</v>
+        <v>0.3138923632986431</v>
       </c>
       <c r="O5">
-        <v>1.675374337351592</v>
+        <v>2.485380016487212</v>
       </c>
       <c r="P5">
-        <v>1.24813639795284</v>
+        <v>1.243382789340631</v>
       </c>
       <c r="Q5">
-        <v>1.270482963131847</v>
+        <v>1.603116086888133</v>
       </c>
       <c r="R5">
-        <v>1.135298703716961</v>
+        <v>0.9335526473266352</v>
       </c>
       <c r="S5">
-        <v>1.120621461605928</v>
+        <v>1.069205911990105</v>
       </c>
       <c r="T5">
-        <v>1.135298703716961</v>
+        <v>0.9335526473266352</v>
       </c>
       <c r="U5">
-        <v>1.067871925015746</v>
+        <v>0.8803775248172397</v>
       </c>
       <c r="V5">
-        <v>1.036222203061638</v>
+        <v>0.7670804925135204</v>
       </c>
       <c r="W5">
-        <v>1.021563632792839</v>
+        <v>0.9286232982223367</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4145683329586588</v>
+        <v>0.7752716020734357</v>
       </c>
       <c r="D6">
-        <v>0.8642764785280691</v>
+        <v>0.8665027418265183</v>
       </c>
       <c r="E6">
-        <v>0.4506923882707606</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="F6">
-        <v>4.582212951829585</v>
+        <v>0.9107138137246289</v>
       </c>
       <c r="G6">
-        <v>0.4145683329586588</v>
+        <v>0.7752716020734357</v>
       </c>
       <c r="H6">
-        <v>0.4531220093974387</v>
+        <v>0.8958184452352339</v>
       </c>
       <c r="I6">
-        <v>1.710069651445883</v>
+        <v>1.024501109053124</v>
       </c>
       <c r="J6">
-        <v>0.4506923882707606</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="K6">
-        <v>0.4506923882707606</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="L6">
-        <v>0.4306366831457674</v>
+        <v>0.8186345002488772</v>
       </c>
       <c r="M6">
-        <v>0.4692291661365462</v>
+        <v>1.083052343073237</v>
       </c>
       <c r="N6">
-        <v>0.4506923882707606</v>
+        <v>1.74697436050953</v>
       </c>
       <c r="O6">
-        <v>4.582212951829585</v>
+        <v>0.9107138137246289</v>
       </c>
       <c r="P6">
-        <v>2.498390642394122</v>
+        <v>0.8429927078990322</v>
       </c>
       <c r="Q6">
-        <v>2.517667480613512</v>
+        <v>0.9032661294799313</v>
       </c>
       <c r="R6">
-        <v>1.815824557686335</v>
+        <v>1.144319925435865</v>
       </c>
       <c r="S6">
-        <v>1.816634431395228</v>
+        <v>0.8606012870110994</v>
       </c>
       <c r="T6">
-        <v>1.815824557686335</v>
+        <v>1.144319925435865</v>
       </c>
       <c r="U6">
-        <v>1.475148920614111</v>
+        <v>1.082194555385707</v>
       </c>
       <c r="V6">
-        <v>1.270257614145441</v>
+        <v>1.215150516410472</v>
       </c>
       <c r="W6">
-        <v>1.171850957714089</v>
+        <v>1.015183614468073</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.028116037823652</v>
+        <v>0.8208984585540889</v>
       </c>
       <c r="D7">
-        <v>0.9658650327671742</v>
+        <v>0.9743794637509494</v>
       </c>
       <c r="E7">
-        <v>1.068229332243455</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="F7">
-        <v>0.9973282504329232</v>
+        <v>1.675374337351592</v>
       </c>
       <c r="G7">
-        <v>1.028116037823652</v>
+        <v>0.8208984585540889</v>
       </c>
       <c r="H7">
-        <v>0.9972750863664599</v>
+        <v>0.8655915889121029</v>
       </c>
       <c r="I7">
-        <v>1.005630399556859</v>
+        <v>1.195631661198846</v>
       </c>
       <c r="J7">
-        <v>1.068229332243455</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="K7">
-        <v>1.068229332243455</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="L7">
-        <v>0.9982993038989216</v>
+        <v>0.8297690800503902</v>
       </c>
       <c r="M7">
-        <v>1.011831941847921</v>
+        <v>0.9012411572795369</v>
       </c>
       <c r="N7">
-        <v>1.068229332243455</v>
+        <v>0.9096233152452021</v>
       </c>
       <c r="O7">
-        <v>0.9973282504329232</v>
+        <v>1.675374337351592</v>
       </c>
       <c r="P7">
-        <v>1.012722144128288</v>
+        <v>1.24813639795284</v>
       </c>
       <c r="Q7">
-        <v>0.9973016683996916</v>
+        <v>1.270482963131847</v>
       </c>
       <c r="R7">
-        <v>1.031224540166677</v>
+        <v>1.135298703716961</v>
       </c>
       <c r="S7">
-        <v>1.007573124874345</v>
+        <v>1.120621461605928</v>
       </c>
       <c r="T7">
-        <v>1.031224540166677</v>
+        <v>1.135298703716961</v>
       </c>
       <c r="U7">
-        <v>1.022737176716622</v>
+        <v>1.067871925015746</v>
       </c>
       <c r="V7">
-        <v>1.031835607821989</v>
+        <v>1.036222203061638</v>
       </c>
       <c r="W7">
-        <v>1.009071923117171</v>
+        <v>1.021563632792839</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9876083775710351</v>
+        <v>0.4145683329586588</v>
       </c>
       <c r="D8">
-        <v>0.9988177280202946</v>
+        <v>0.8642764785280691</v>
       </c>
       <c r="E8">
-        <v>0.9847317910283868</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="F8">
-        <v>1.011819517744103</v>
+        <v>4.582212951829585</v>
       </c>
       <c r="G8">
-        <v>0.9876083775710351</v>
+        <v>0.4145683329586588</v>
       </c>
       <c r="H8">
-        <v>1.002977713984881</v>
+        <v>0.4531220093974387</v>
       </c>
       <c r="I8">
-        <v>1.003794364128101</v>
+        <v>1.710069651445883</v>
       </c>
       <c r="J8">
-        <v>0.9847317910283868</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="K8">
-        <v>0.9847317910283868</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="L8">
-        <v>0.999629799097242</v>
+        <v>0.4306366831457674</v>
       </c>
       <c r="M8">
-        <v>1.003075939002608</v>
+        <v>0.4692291661365462</v>
       </c>
       <c r="N8">
-        <v>0.9847317910283868</v>
+        <v>0.4506923882707606</v>
       </c>
       <c r="O8">
-        <v>1.011819517744103</v>
+        <v>4.582212951829585</v>
       </c>
       <c r="P8">
-        <v>0.999713947657569</v>
+        <v>2.498390642394122</v>
       </c>
       <c r="Q8">
-        <v>1.007398615864492</v>
+        <v>2.517667480613512</v>
       </c>
       <c r="R8">
-        <v>0.9947198954478417</v>
+        <v>1.815824557686335</v>
       </c>
       <c r="S8">
-        <v>1.000801869766673</v>
+        <v>1.816634431395228</v>
       </c>
       <c r="T8">
-        <v>0.9947198954478417</v>
+        <v>1.815824557686335</v>
       </c>
       <c r="U8">
-        <v>0.9967843500821014</v>
+        <v>1.475148920614111</v>
       </c>
       <c r="V8">
-        <v>0.9943738382713585</v>
+        <v>1.270257614145441</v>
       </c>
       <c r="W8">
-        <v>0.9990569038220813</v>
+        <v>1.171850957714089</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.064321935967398</v>
+        <v>1.028116037823652</v>
       </c>
       <c r="D9">
-        <v>0.9398226413650237</v>
+        <v>0.9658650327671742</v>
       </c>
       <c r="E9">
-        <v>1.13719015288514</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="F9">
-        <v>1.006698973300732</v>
+        <v>0.9973282504329232</v>
       </c>
       <c r="G9">
-        <v>1.064321935967398</v>
+        <v>1.028116037823652</v>
       </c>
       <c r="H9">
-        <v>0.9947388519851915</v>
+        <v>0.9972750863664599</v>
       </c>
       <c r="I9">
-        <v>1.005807698721177</v>
+        <v>1.005630399556859</v>
       </c>
       <c r="J9">
-        <v>1.13719015288514</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="K9">
-        <v>1.13719015288514</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="L9">
-        <v>1.004709783190724</v>
+        <v>0.9982993038989216</v>
       </c>
       <c r="M9">
-        <v>1.011394490403949</v>
+        <v>1.011831941847921</v>
       </c>
       <c r="N9">
-        <v>1.13719015288514</v>
+        <v>1.068229332243455</v>
       </c>
       <c r="O9">
-        <v>1.006698973300732</v>
+        <v>0.9973282504329232</v>
       </c>
       <c r="P9">
-        <v>1.035510454634065</v>
+        <v>1.012722144128288</v>
       </c>
       <c r="Q9">
-        <v>1.000718912642962</v>
+        <v>0.9973016683996916</v>
       </c>
       <c r="R9">
-        <v>1.069403687384423</v>
+        <v>1.031224540166677</v>
       </c>
       <c r="S9">
-        <v>1.021919920417774</v>
+        <v>1.007573124874345</v>
       </c>
       <c r="T9">
-        <v>1.069403687384423</v>
+        <v>1.031224540166677</v>
       </c>
       <c r="U9">
-        <v>1.050737478534615</v>
+        <v>1.022737176716622</v>
       </c>
       <c r="V9">
-        <v>1.06802801340472</v>
+        <v>1.031835607821989</v>
       </c>
       <c r="W9">
-        <v>1.020585565977417</v>
+        <v>1.009071923117171</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4440128001772874</v>
+        <v>0.9876083775710351</v>
       </c>
       <c r="D10">
-        <v>0.8585216566519385</v>
+        <v>0.9988177280202946</v>
       </c>
       <c r="E10">
-        <v>0.4323490005464813</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="F10">
-        <v>4.698952860914165</v>
+        <v>1.011819517744103</v>
       </c>
       <c r="G10">
-        <v>0.4440128001772874</v>
+        <v>0.9876083775710351</v>
       </c>
       <c r="H10">
-        <v>0.4093473084322372</v>
+        <v>1.002977713984881</v>
       </c>
       <c r="I10">
-        <v>1.745403397933545</v>
+        <v>1.003794364128101</v>
       </c>
       <c r="J10">
-        <v>0.4323490005464813</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="K10">
-        <v>0.4323490005464813</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="L10">
-        <v>0.4176248707639025</v>
+        <v>0.999629799097242</v>
       </c>
       <c r="M10">
-        <v>0.4343784088376028</v>
+        <v>1.003075939002608</v>
       </c>
       <c r="N10">
-        <v>0.4323490005464813</v>
+        <v>0.9847317910283868</v>
       </c>
       <c r="O10">
-        <v>4.698952860914165</v>
+        <v>1.011819517744103</v>
       </c>
       <c r="P10">
-        <v>2.571482830545726</v>
+        <v>0.999713947657569</v>
       </c>
       <c r="Q10">
-        <v>2.554150084673201</v>
+        <v>1.007398615864492</v>
       </c>
       <c r="R10">
-        <v>1.858438220545978</v>
+        <v>0.9947198954478417</v>
       </c>
       <c r="S10">
-        <v>1.85077098984123</v>
+        <v>1.000801869766673</v>
       </c>
       <c r="T10">
-        <v>1.858438220545978</v>
+        <v>0.9947198954478417</v>
       </c>
       <c r="U10">
-        <v>1.496165492517543</v>
+        <v>0.9967843500821014</v>
       </c>
       <c r="V10">
-        <v>1.28340219412333</v>
+        <v>0.9943738382713585</v>
       </c>
       <c r="W10">
-        <v>1.180073788032145</v>
+        <v>0.9990569038220813</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8296091502421541</v>
+        <v>1.064321935967398</v>
       </c>
       <c r="D11">
-        <v>0.833785975526747</v>
+        <v>0.9398226413650237</v>
       </c>
       <c r="E11">
-        <v>1.792264310655637</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="F11">
-        <v>0.8997914177666023</v>
+        <v>1.006698973300732</v>
       </c>
       <c r="G11">
-        <v>0.8296091502421541</v>
+        <v>1.064321935967398</v>
       </c>
       <c r="H11">
-        <v>0.8901940210446476</v>
+        <v>0.9947388519851915</v>
       </c>
       <c r="I11">
-        <v>1.027582574839116</v>
+        <v>1.005807698721177</v>
       </c>
       <c r="J11">
-        <v>1.792264310655637</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="K11">
-        <v>1.792264310655637</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="L11">
-        <v>0.8324518940507191</v>
+        <v>1.004709783190724</v>
       </c>
       <c r="M11">
-        <v>1.087891202006198</v>
+        <v>1.011394490403949</v>
       </c>
       <c r="N11">
-        <v>1.792264310655637</v>
+        <v>1.13719015288514</v>
       </c>
       <c r="O11">
-        <v>0.8997914177666023</v>
+        <v>1.006698973300732</v>
       </c>
       <c r="P11">
-        <v>0.8647002840043783</v>
+        <v>1.035510454634065</v>
       </c>
       <c r="Q11">
-        <v>0.894992719405625</v>
+        <v>1.000718912642962</v>
       </c>
       <c r="R11">
-        <v>1.173888292888131</v>
+        <v>1.069403687384423</v>
       </c>
       <c r="S11">
-        <v>0.8731981963511347</v>
+        <v>1.021919920417774</v>
       </c>
       <c r="T11">
-        <v>1.173888292888131</v>
+        <v>1.069403687384423</v>
       </c>
       <c r="U11">
-        <v>1.10296472492726</v>
+        <v>1.050737478534615</v>
       </c>
       <c r="V11">
-        <v>1.240824642072936</v>
+        <v>1.06802801340472</v>
       </c>
       <c r="W11">
-        <v>1.024196318266478</v>
+        <v>1.020585565977417</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8254793875379287</v>
+        <v>0.4440128001772874</v>
       </c>
       <c r="D12">
-        <v>0.9871009915199973</v>
+        <v>0.8585216566519385</v>
       </c>
       <c r="E12">
-        <v>0.7849071670672636</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="F12">
-        <v>2.005495154877475</v>
+        <v>4.698952860914165</v>
       </c>
       <c r="G12">
-        <v>0.8254793875379287</v>
+        <v>0.4440128001772874</v>
       </c>
       <c r="H12">
-        <v>0.7895106128473687</v>
+        <v>0.4093473084322372</v>
       </c>
       <c r="I12">
-        <v>1.268883575210527</v>
+        <v>1.745403397933545</v>
       </c>
       <c r="J12">
-        <v>0.7849071670672636</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="K12">
-        <v>0.7849071670672636</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="L12">
-        <v>0.8007703154663163</v>
+        <v>0.4176248707639025</v>
       </c>
       <c r="M12">
-        <v>0.8122525955957901</v>
+        <v>0.4343784088376028</v>
       </c>
       <c r="N12">
-        <v>0.7849071670672636</v>
+        <v>0.4323490005464813</v>
       </c>
       <c r="O12">
-        <v>2.005495154877475</v>
+        <v>4.698952860914165</v>
       </c>
       <c r="P12">
-        <v>1.415487271207702</v>
+        <v>2.571482830545726</v>
       </c>
       <c r="Q12">
-        <v>1.397502883862422</v>
+        <v>2.554150084673201</v>
       </c>
       <c r="R12">
-        <v>1.205293903160889</v>
+        <v>1.858438220545978</v>
       </c>
       <c r="S12">
-        <v>1.206828385087591</v>
+        <v>1.85077098984123</v>
       </c>
       <c r="T12">
-        <v>1.205293903160889</v>
+        <v>1.858438220545978</v>
       </c>
       <c r="U12">
-        <v>1.101348080582509</v>
+        <v>1.496165492517543</v>
       </c>
       <c r="V12">
-        <v>1.03805989787946</v>
+        <v>1.28340219412333</v>
       </c>
       <c r="W12">
-        <v>1.034299975015333</v>
+        <v>1.180073788032145</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.266124160124604</v>
+        <v>0.8296091502421541</v>
       </c>
       <c r="D13">
-        <v>0.9818467687040567</v>
+        <v>0.833785975526747</v>
       </c>
       <c r="E13">
-        <v>1.000821381849052</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="F13">
-        <v>0.9553237149811065</v>
+        <v>0.8997914177666023</v>
       </c>
       <c r="G13">
-        <v>1.266124160124604</v>
+        <v>0.8296091502421541</v>
       </c>
       <c r="H13">
-        <v>0.9563458495452167</v>
+        <v>0.8901940210446476</v>
       </c>
       <c r="I13">
-        <v>0.9746150407990269</v>
+        <v>1.027582574839116</v>
       </c>
       <c r="J13">
-        <v>1.000821381849052</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="K13">
-        <v>1.000821381849052</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="L13">
-        <v>1.08878588061443</v>
+        <v>0.8324518940507191</v>
       </c>
       <c r="M13">
-        <v>0.9541979427965862</v>
+        <v>1.087891202006198</v>
       </c>
       <c r="N13">
-        <v>1.000821381849052</v>
+        <v>1.792264310655637</v>
       </c>
       <c r="O13">
-        <v>0.9553237149811065</v>
+        <v>0.8997914177666023</v>
       </c>
       <c r="P13">
-        <v>1.110723937552855</v>
+        <v>0.8647002840043783</v>
       </c>
       <c r="Q13">
-        <v>0.9558347822631617</v>
+        <v>0.894992719405625</v>
       </c>
       <c r="R13">
-        <v>1.074089752318254</v>
+        <v>1.173888292888131</v>
       </c>
       <c r="S13">
-        <v>1.059264574883642</v>
+        <v>0.8731981963511347</v>
       </c>
       <c r="T13">
-        <v>1.074089752318254</v>
+        <v>1.173888292888131</v>
       </c>
       <c r="U13">
-        <v>1.044653776624995</v>
+        <v>1.10296472492726</v>
       </c>
       <c r="V13">
-        <v>1.035887297669806</v>
+        <v>1.240824642072936</v>
       </c>
       <c r="W13">
-        <v>1.02225759242676</v>
+        <v>1.024196318266478</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0006486686400000005</v>
+        <v>0.8254793875379287</v>
       </c>
       <c r="D14">
-        <v>0.7211417700000006</v>
+        <v>0.9871009915199973</v>
       </c>
       <c r="E14">
-        <v>0.007481255500000003</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="F14">
-        <v>7.654601099999995</v>
+        <v>2.005495154877475</v>
       </c>
       <c r="G14">
-        <v>0.0006486686400000005</v>
+        <v>0.8254793875379287</v>
       </c>
       <c r="H14">
-        <v>0.01572380999999999</v>
+        <v>0.7895106128473687</v>
       </c>
       <c r="I14">
-        <v>2.259875099999999</v>
+        <v>1.268883575210527</v>
       </c>
       <c r="J14">
-        <v>0.007481255500000003</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="K14">
-        <v>0.007481255500000003</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="L14">
-        <v>0.003976896900000002</v>
+        <v>0.8007703154663163</v>
       </c>
       <c r="M14">
-        <v>0.02686048099999998</v>
+        <v>0.8122525955957901</v>
       </c>
       <c r="N14">
-        <v>0.007481255500000003</v>
+        <v>0.7849071670672636</v>
       </c>
       <c r="O14">
-        <v>7.654601099999995</v>
+        <v>2.005495154877475</v>
       </c>
       <c r="P14">
-        <v>3.827624884319998</v>
+        <v>1.415487271207702</v>
       </c>
       <c r="Q14">
-        <v>3.835162454999998</v>
+        <v>1.397502883862422</v>
       </c>
       <c r="R14">
-        <v>2.554243674713332</v>
+        <v>1.205293903160889</v>
       </c>
       <c r="S14">
-        <v>2.556991192879999</v>
+        <v>1.206828385087591</v>
       </c>
       <c r="T14">
-        <v>2.554243674713332</v>
+        <v>1.205293903160889</v>
       </c>
       <c r="U14">
-        <v>1.919613708534999</v>
+        <v>1.101348080582509</v>
       </c>
       <c r="V14">
-        <v>1.537187217927999</v>
+        <v>1.03805989787946</v>
       </c>
       <c r="W14">
-        <v>1.336288635254999</v>
+        <v>1.034299975015333</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0040034715</v>
+        <v>1.266124160124604</v>
       </c>
       <c r="D15">
-        <v>0.13297696</v>
+        <v>0.9818467687040567</v>
       </c>
       <c r="E15">
-        <v>0.82520477</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="F15">
-        <v>0.026860309</v>
+        <v>0.9553237149811065</v>
       </c>
       <c r="G15">
-        <v>0.0040034715</v>
+        <v>1.266124160124604</v>
       </c>
       <c r="H15">
-        <v>1.9088887</v>
+        <v>0.9563458495452167</v>
       </c>
       <c r="I15">
-        <v>0.40899606</v>
+        <v>0.9746150407990269</v>
       </c>
       <c r="J15">
-        <v>0.82520477</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="K15">
-        <v>0.82520477</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="L15">
-        <v>0.27515243</v>
+        <v>1.08878588061443</v>
       </c>
       <c r="M15">
-        <v>3.8304134</v>
+        <v>0.9541979427965862</v>
       </c>
       <c r="N15">
-        <v>0.82520477</v>
+        <v>1.000821381849052</v>
       </c>
       <c r="O15">
-        <v>0.026860309</v>
+        <v>0.9553237149811065</v>
       </c>
       <c r="P15">
-        <v>0.01543189025</v>
+        <v>1.110723937552855</v>
       </c>
       <c r="Q15">
-        <v>0.9678745044999999</v>
+        <v>0.9558347822631617</v>
       </c>
       <c r="R15">
-        <v>0.2853561835</v>
+        <v>1.074089752318254</v>
       </c>
       <c r="S15">
-        <v>0.6465841601666666</v>
+        <v>1.059264574883642</v>
       </c>
       <c r="T15">
-        <v>0.2853561835</v>
+        <v>1.074089752318254</v>
       </c>
       <c r="U15">
-        <v>0.691239312625</v>
+        <v>1.044653776624995</v>
       </c>
       <c r="V15">
-        <v>0.7180324041</v>
+        <v>1.035887297669806</v>
       </c>
       <c r="W15">
-        <v>0.9265620125625</v>
+        <v>1.02225759242676</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0032556798</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="D16">
-        <v>0.00081841436</v>
+        <v>0.7211417700000006</v>
       </c>
       <c r="E16">
-        <v>11.477873</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="F16">
-        <v>0.007481255500000001</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="G16">
-        <v>-0.0032556798</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="H16">
-        <v>0.024380834</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="I16">
-        <v>0.39572697</v>
+        <v>2.259875099999999</v>
       </c>
       <c r="J16">
-        <v>11.477873</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="K16">
-        <v>11.477873</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L16">
-        <v>-0.002229274</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="M16">
-        <v>0.8252917</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="N16">
-        <v>11.477873</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="O16">
-        <v>0.007481255500000001</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="P16">
-        <v>0.002112787850000001</v>
+        <v>3.827624884319998</v>
       </c>
       <c r="Q16">
-        <v>0.01593104475</v>
+        <v>3.835162454999998</v>
       </c>
       <c r="R16">
-        <v>3.827366191899999</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="S16">
-        <v>0.009535469900000001</v>
+        <v>2.556991192879999</v>
       </c>
       <c r="T16">
-        <v>3.827366191899999</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="U16">
-        <v>2.876619852425</v>
+        <v>1.919613708534999</v>
       </c>
       <c r="V16">
-        <v>4.59687048194</v>
+        <v>1.537187217927999</v>
       </c>
       <c r="W16">
-        <v>1.5907609025075</v>
+        <v>1.336288635254999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.014840961</v>
+        <v>0.0040034715</v>
       </c>
       <c r="D17">
-        <v>2.1249123</v>
+        <v>0.13297696</v>
       </c>
       <c r="E17">
-        <v>0.019807336</v>
+        <v>0.82520477</v>
       </c>
       <c r="F17">
-        <v>1.0678604</v>
+        <v>0.026860309</v>
       </c>
       <c r="G17">
-        <v>0.014840961</v>
+        <v>0.0040034715</v>
       </c>
       <c r="H17">
-        <v>0.85528532</v>
+        <v>1.9088887</v>
       </c>
       <c r="I17">
-        <v>0.8084057699999999</v>
+        <v>0.40899606</v>
       </c>
       <c r="J17">
-        <v>0.019807336</v>
+        <v>0.82520477</v>
       </c>
       <c r="K17">
-        <v>0.019807336</v>
+        <v>0.82520477</v>
       </c>
       <c r="L17">
-        <v>0.3354703</v>
+        <v>0.27515243</v>
       </c>
       <c r="M17">
-        <v>0.63790612</v>
+        <v>3.8304134</v>
       </c>
       <c r="N17">
-        <v>0.019807336</v>
+        <v>0.82520477</v>
       </c>
       <c r="O17">
-        <v>1.0678604</v>
+        <v>0.026860309</v>
       </c>
       <c r="P17">
-        <v>0.5413506805</v>
+        <v>0.01543189025</v>
       </c>
       <c r="Q17">
-        <v>0.96157286</v>
+        <v>0.9678745044999999</v>
       </c>
       <c r="R17">
-        <v>0.367502899</v>
+        <v>0.2853561835</v>
       </c>
       <c r="S17">
-        <v>0.6459955603333333</v>
+        <v>0.6465841601666666</v>
       </c>
       <c r="T17">
-        <v>0.367502899</v>
+        <v>0.2853561835</v>
       </c>
       <c r="U17">
-        <v>0.48944850425</v>
+        <v>0.691239312625</v>
       </c>
       <c r="V17">
-        <v>0.3955202705999999</v>
+        <v>0.7180324041</v>
       </c>
       <c r="W17">
-        <v>0.733061063375</v>
+        <v>0.9265620125625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.78555675456411</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="D18">
-        <v>0.2575346432098631</v>
+        <v>0.00081841436</v>
       </c>
       <c r="E18">
-        <v>2.688874108619178</v>
+        <v>11.477873</v>
       </c>
       <c r="F18">
-        <v>0.9002298221643835</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="G18">
-        <v>1.78555675456411</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H18">
-        <v>0.9508397390136986</v>
+        <v>0.024380834</v>
       </c>
       <c r="I18">
-        <v>1.048082380821918</v>
+        <v>0.39572697</v>
       </c>
       <c r="J18">
-        <v>2.688874108619178</v>
+        <v>11.477873</v>
       </c>
       <c r="K18">
-        <v>2.688874108619178</v>
+        <v>11.477873</v>
       </c>
       <c r="L18">
-        <v>1.056747162524383</v>
+        <v>-0.002229274</v>
       </c>
       <c r="M18">
-        <v>1.200882694794521</v>
+        <v>0.8252917</v>
       </c>
       <c r="N18">
-        <v>2.688874108619178</v>
+        <v>11.477873</v>
       </c>
       <c r="O18">
-        <v>0.9002298221643835</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="P18">
-        <v>1.342893288364247</v>
+        <v>0.002112787850000001</v>
       </c>
       <c r="Q18">
-        <v>0.925534780589041</v>
+        <v>0.01593104475</v>
       </c>
       <c r="R18">
-        <v>1.791553561782557</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="S18">
-        <v>1.212208771914064</v>
+        <v>0.009535469900000001</v>
       </c>
       <c r="T18">
-        <v>1.791553561782557</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="U18">
-        <v>1.581375106090342</v>
+        <v>2.876619852425</v>
       </c>
       <c r="V18">
-        <v>1.802874906596109</v>
+        <v>4.59687048194</v>
       </c>
       <c r="W18">
-        <v>1.236093413214007</v>
+        <v>1.5907609025075</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.06081876347</v>
+        <v>0.014840961</v>
       </c>
       <c r="D19">
-        <v>1.277224390261053</v>
+        <v>2.1249123</v>
       </c>
       <c r="E19">
-        <v>1.598563466335263</v>
+        <v>0.019807336</v>
       </c>
       <c r="F19">
-        <v>1.304694119921053</v>
+        <v>1.0678604</v>
       </c>
       <c r="G19">
-        <v>0.06081876347</v>
+        <v>0.014840961</v>
       </c>
       <c r="H19">
-        <v>1.07253729131579</v>
+        <v>0.85528532</v>
       </c>
       <c r="I19">
-        <v>0.8827492779999999</v>
+        <v>0.8084057699999999</v>
       </c>
       <c r="J19">
-        <v>1.598563466335263</v>
+        <v>0.019807336</v>
       </c>
       <c r="K19">
-        <v>1.598563466335263</v>
+        <v>0.019807336</v>
       </c>
       <c r="L19">
-        <v>0.5760082934884211</v>
+        <v>0.3354703</v>
       </c>
       <c r="M19">
-        <v>0.9648038065263157</v>
+        <v>0.63790612</v>
       </c>
       <c r="N19">
-        <v>1.598563466335263</v>
+        <v>0.019807336</v>
       </c>
       <c r="O19">
-        <v>1.304694119921053</v>
+        <v>1.0678604</v>
       </c>
       <c r="P19">
-        <v>0.6827564416955263</v>
+        <v>0.5413506805</v>
       </c>
       <c r="Q19">
-        <v>1.188615705618421</v>
+        <v>0.96157286</v>
       </c>
       <c r="R19">
-        <v>0.9880254499087719</v>
+        <v>0.367502899</v>
       </c>
       <c r="S19">
-        <v>0.8126833915689474</v>
+        <v>0.6459955603333333</v>
       </c>
       <c r="T19">
-        <v>0.9880254499087719</v>
+        <v>0.367502899</v>
       </c>
       <c r="U19">
-        <v>1.009153410260526</v>
+        <v>0.48944850425</v>
       </c>
       <c r="V19">
-        <v>1.127035421475474</v>
+        <v>0.3955202705999999</v>
       </c>
       <c r="W19">
-        <v>0.9671749261647369</v>
+        <v>0.733061063375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.001367301754210526</v>
+        <v>1.78555675456411</v>
       </c>
       <c r="D20">
-        <v>0.5705742894736843</v>
+        <v>0.2575346432098631</v>
       </c>
       <c r="E20">
-        <v>0.3033398336789473</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="F20">
-        <v>2.774020111842105</v>
+        <v>0.9002298221643835</v>
       </c>
       <c r="G20">
-        <v>0.001367301754210526</v>
+        <v>1.78555675456411</v>
       </c>
       <c r="H20">
-        <v>0.6969658337894737</v>
+        <v>0.9508397390136986</v>
       </c>
       <c r="I20">
-        <v>1.796198174736842</v>
+        <v>1.048082380821918</v>
       </c>
       <c r="J20">
-        <v>0.3033398336789473</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="K20">
-        <v>0.3033398336789473</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="L20">
-        <v>0.1021013239473684</v>
+        <v>1.056747162524383</v>
       </c>
       <c r="M20">
-        <v>1.397825143</v>
+        <v>1.200882694794521</v>
       </c>
       <c r="N20">
-        <v>0.3033398336789473</v>
+        <v>2.688874108619178</v>
       </c>
       <c r="O20">
-        <v>2.774020111842105</v>
+        <v>0.9002298221643835</v>
       </c>
       <c r="P20">
-        <v>1.387693706798158</v>
+        <v>1.342893288364247</v>
       </c>
       <c r="Q20">
-        <v>1.73549297281579</v>
+        <v>0.925534780589041</v>
       </c>
       <c r="R20">
-        <v>1.026242415758421</v>
+        <v>1.791553561782557</v>
       </c>
       <c r="S20">
-        <v>1.15745108246193</v>
+        <v>1.212208771914064</v>
       </c>
       <c r="T20">
-        <v>1.026242415758421</v>
+        <v>1.791553561782557</v>
       </c>
       <c r="U20">
-        <v>0.9439232702661842</v>
+        <v>1.581375106090342</v>
       </c>
       <c r="V20">
-        <v>0.8158065829487369</v>
+        <v>1.802874906596109</v>
       </c>
       <c r="W20">
-        <v>0.9552990015278289</v>
+        <v>1.236093413214007</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.124890800717806</v>
+        <v>0.06081876347</v>
       </c>
       <c r="D21">
-        <v>1.311327858802549</v>
+        <v>1.277224390261053</v>
       </c>
       <c r="E21">
-        <v>0.1984753693927994</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="F21">
-        <v>0.2822497524117137</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="G21">
-        <v>1.124890800717806</v>
+        <v>0.06081876347</v>
       </c>
       <c r="H21">
-        <v>1.427999128784146</v>
+        <v>1.07253729131579</v>
       </c>
       <c r="I21">
-        <v>0.4083458592629884</v>
+        <v>0.8827492779999999</v>
       </c>
       <c r="J21">
-        <v>0.1984753693927994</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="K21">
-        <v>0.1984753693927994</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="L21">
-        <v>1.533670443087697</v>
+        <v>0.5760082934884211</v>
       </c>
       <c r="M21">
-        <v>1.193647977931714</v>
+        <v>0.9648038065263157</v>
       </c>
       <c r="N21">
-        <v>0.1984753693927994</v>
+        <v>1.598563466335263</v>
       </c>
       <c r="O21">
-        <v>0.2822497524117137</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="P21">
-        <v>0.7035702765647596</v>
+        <v>0.6827564416955263</v>
       </c>
       <c r="Q21">
-        <v>0.8551244405979297</v>
+        <v>1.188615705618421</v>
       </c>
       <c r="R21">
-        <v>0.5352053075074396</v>
+        <v>0.9880254499087719</v>
       </c>
       <c r="S21">
-        <v>0.9450465606378883</v>
+        <v>0.8126833915689474</v>
       </c>
       <c r="T21">
-        <v>0.5352053075074396</v>
+        <v>0.9880254499087719</v>
       </c>
       <c r="U21">
-        <v>0.758403762826616</v>
+        <v>1.009153410260526</v>
       </c>
       <c r="V21">
-        <v>0.6464180841398527</v>
+        <v>1.127035421475474</v>
       </c>
       <c r="W21">
-        <v>0.9350758987989265</v>
+        <v>0.9671749261647369</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.094402482795869</v>
+        <v>0.001367301754210526</v>
       </c>
       <c r="D22">
-        <v>0.9332565901690115</v>
+        <v>0.5705742894736843</v>
       </c>
       <c r="E22">
-        <v>1.227257498184662</v>
+        <v>0.3033398336789473</v>
       </c>
       <c r="F22">
-        <v>1.450493793635849</v>
+        <v>2.774020111842105</v>
       </c>
       <c r="G22">
-        <v>2.094402482795869</v>
+        <v>0.001367301754210526</v>
       </c>
       <c r="H22">
-        <v>0.6198510108965755</v>
+        <v>0.6969658337894737</v>
       </c>
       <c r="I22">
-        <v>1.21129753887605</v>
+        <v>1.796198174736842</v>
       </c>
       <c r="J22">
-        <v>1.227257498184662</v>
+        <v>0.3033398336789473</v>
       </c>
       <c r="K22">
-        <v>1.227257498184662</v>
+        <v>0.3033398336789473</v>
       </c>
       <c r="L22">
-        <v>1.148648632712702</v>
+        <v>0.1021013239473684</v>
       </c>
       <c r="M22">
-        <v>0.4680577318229997</v>
+        <v>1.397825143</v>
       </c>
       <c r="N22">
-        <v>1.227257498184662</v>
+        <v>0.3033398336789473</v>
       </c>
       <c r="O22">
-        <v>1.450493793635849</v>
+        <v>2.774020111842105</v>
       </c>
       <c r="P22">
-        <v>1.772448138215859</v>
+        <v>1.387693706798158</v>
       </c>
       <c r="Q22">
-        <v>1.035172402266212</v>
+        <v>1.73549297281579</v>
       </c>
       <c r="R22">
-        <v>1.590717924872127</v>
+        <v>1.026242415758421</v>
       </c>
       <c r="S22">
-        <v>1.388249095776098</v>
+        <v>1.15745108246193</v>
       </c>
       <c r="T22">
-        <v>1.590717924872127</v>
+        <v>1.026242415758421</v>
       </c>
       <c r="U22">
-        <v>1.348001196378239</v>
+        <v>0.9439232702661842</v>
       </c>
       <c r="V22">
-        <v>1.323852456739524</v>
+        <v>0.8158065829487369</v>
       </c>
       <c r="W22">
-        <v>1.144158159886715</v>
+        <v>0.9552990015278289</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.327374721268487</v>
+        <v>1.124890800717806</v>
       </c>
       <c r="D23">
-        <v>0.6298883385390468</v>
+        <v>1.311327858802549</v>
       </c>
       <c r="E23">
-        <v>2.034395729111162</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="F23">
-        <v>0.1153595862717336</v>
+        <v>0.2822497524117137</v>
       </c>
       <c r="G23">
-        <v>2.327374721268487</v>
+        <v>1.124890800717806</v>
       </c>
       <c r="H23">
-        <v>0.8753736642658296</v>
+        <v>1.427999128784146</v>
       </c>
       <c r="I23">
-        <v>0.68763290974809</v>
+        <v>0.4083458592629884</v>
       </c>
       <c r="J23">
-        <v>2.034395729111162</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="K23">
-        <v>2.034395729111162</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="L23">
-        <v>1.40085442028962</v>
+        <v>1.533670443087697</v>
       </c>
       <c r="M23">
-        <v>1.063288951095446</v>
+        <v>1.193647977931714</v>
       </c>
       <c r="N23">
-        <v>2.034395729111162</v>
+        <v>0.1984753693927994</v>
       </c>
       <c r="O23">
-        <v>0.1153595862717336</v>
+        <v>0.2822497524117137</v>
       </c>
       <c r="P23">
-        <v>1.22136715377011</v>
+        <v>0.7035702765647596</v>
       </c>
       <c r="Q23">
-        <v>0.4953666252687816</v>
+        <v>0.8551244405979297</v>
       </c>
       <c r="R23">
-        <v>1.492376678883794</v>
+        <v>0.5352053075074396</v>
       </c>
       <c r="S23">
-        <v>1.106035990602017</v>
+        <v>0.9450465606378883</v>
       </c>
       <c r="T23">
-        <v>1.492376678883794</v>
+        <v>0.5352053075074396</v>
       </c>
       <c r="U23">
-        <v>1.338125925229303</v>
+        <v>0.758403762826616</v>
       </c>
       <c r="V23">
-        <v>1.477379886005675</v>
+        <v>0.6464180841398527</v>
       </c>
       <c r="W23">
-        <v>1.141771040073677</v>
+        <v>0.9350758987989265</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4291899956988436</v>
+        <v>2.094402482795869</v>
       </c>
       <c r="D24">
-        <v>1.120542303011416</v>
+        <v>0.9332565901690115</v>
       </c>
       <c r="E24">
-        <v>0.1870952442526272</v>
+        <v>1.227257498184662</v>
       </c>
       <c r="F24">
-        <v>1.12407327173895</v>
+        <v>1.450493793635849</v>
       </c>
       <c r="G24">
-        <v>0.4291899956988436</v>
+        <v>2.094402482795869</v>
       </c>
       <c r="H24">
-        <v>1.324001475886512</v>
+        <v>0.6198510108965755</v>
       </c>
       <c r="I24">
-        <v>1.016747159982073</v>
+        <v>1.21129753887605</v>
       </c>
       <c r="J24">
-        <v>0.1870952442526272</v>
+        <v>1.227257498184662</v>
       </c>
       <c r="K24">
-        <v>0.1870952442526272</v>
+        <v>1.227257498184662</v>
       </c>
       <c r="L24">
-        <v>0.9538174391954827</v>
+        <v>1.148648632712702</v>
       </c>
       <c r="M24">
-        <v>1.136765566205405</v>
+        <v>0.4680577318229997</v>
       </c>
       <c r="N24">
-        <v>0.1870952442526272</v>
+        <v>1.227257498184662</v>
       </c>
       <c r="O24">
-        <v>1.12407327173895</v>
+        <v>1.450493793635849</v>
       </c>
       <c r="P24">
-        <v>0.7766316337188968</v>
+        <v>1.772448138215859</v>
       </c>
       <c r="Q24">
-        <v>1.224037373812731</v>
+        <v>1.035172402266212</v>
       </c>
       <c r="R24">
-        <v>0.5801195038968069</v>
+        <v>1.590717924872127</v>
       </c>
       <c r="S24">
-        <v>0.9590882477747685</v>
+        <v>1.388249095776098</v>
       </c>
       <c r="T24">
-        <v>0.5801195038968069</v>
+        <v>1.590717924872127</v>
       </c>
       <c r="U24">
-        <v>0.7660899968942332</v>
+        <v>1.348001196378239</v>
       </c>
       <c r="V24">
-        <v>0.650291046365912</v>
+        <v>1.323852456739524</v>
       </c>
       <c r="W24">
-        <v>0.9115290569964136</v>
+        <v>1.144158159886715</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.06067594511230329</v>
+        <v>2.327374721268487</v>
       </c>
       <c r="D25">
-        <v>0.6786034179333235</v>
+        <v>0.6298883385390468</v>
       </c>
       <c r="E25">
-        <v>1.689974808184376</v>
+        <v>2.034395729111162</v>
       </c>
       <c r="F25">
-        <v>0.5635620272047654</v>
+        <v>0.1153595862717336</v>
       </c>
       <c r="G25">
-        <v>0.06067594511230329</v>
+        <v>2.327374721268487</v>
       </c>
       <c r="H25">
-        <v>1.212543118981331</v>
+        <v>0.8753736642658296</v>
       </c>
       <c r="I25">
-        <v>1.148958989163753</v>
+        <v>0.68763290974809</v>
       </c>
       <c r="J25">
-        <v>1.689974808184376</v>
+        <v>2.034395729111162</v>
       </c>
       <c r="K25">
-        <v>1.689974808184376</v>
+        <v>2.034395729111162</v>
       </c>
       <c r="L25">
-        <v>0.5784234104486158</v>
+        <v>1.40085442028962</v>
       </c>
       <c r="M25">
-        <v>1.433476615039198</v>
+        <v>1.063288951095446</v>
       </c>
       <c r="N25">
-        <v>1.689974808184376</v>
+        <v>2.034395729111162</v>
       </c>
       <c r="O25">
-        <v>0.5635620272047654</v>
+        <v>0.1153595862717336</v>
       </c>
       <c r="P25">
-        <v>0.3121189861585344</v>
+        <v>1.22136715377011</v>
       </c>
       <c r="Q25">
-        <v>0.8880525730930484</v>
+        <v>0.4953666252687816</v>
       </c>
       <c r="R25">
-        <v>0.7714042601671482</v>
+        <v>1.492376678883794</v>
       </c>
       <c r="S25">
-        <v>0.6122603637661334</v>
+        <v>1.106035990602017</v>
       </c>
       <c r="T25">
-        <v>0.7714042601671482</v>
+        <v>1.492376678883794</v>
       </c>
       <c r="U25">
-        <v>0.881688974870694</v>
+        <v>1.338125925229303</v>
       </c>
       <c r="V25">
-        <v>1.04334614153343</v>
+        <v>1.477379886005675</v>
       </c>
       <c r="W25">
-        <v>0.9207772915084582</v>
+        <v>1.141771040073677</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9377502337002399</v>
+        <v>0.4291899956988436</v>
       </c>
       <c r="D26">
-        <v>1.119365329469335</v>
+        <v>1.120542303011416</v>
       </c>
       <c r="E26">
-        <v>1.417227026490135</v>
+        <v>0.1870952442526272</v>
       </c>
       <c r="F26">
-        <v>1.572155546433684</v>
+        <v>1.12407327173895</v>
       </c>
       <c r="G26">
-        <v>0.9377502337002399</v>
+        <v>0.4291899956988436</v>
       </c>
       <c r="H26">
-        <v>0.488959103539518</v>
+        <v>1.324001475886512</v>
       </c>
       <c r="I26">
-        <v>1.169539112718628</v>
+        <v>1.016747159982073</v>
       </c>
       <c r="J26">
-        <v>1.417227026490135</v>
+        <v>0.1870952442526272</v>
       </c>
       <c r="K26">
-        <v>1.417227026490135</v>
+        <v>0.1870952442526272</v>
       </c>
       <c r="L26">
-        <v>0.8006653665965766</v>
+        <v>0.9538174391954827</v>
       </c>
       <c r="M26">
-        <v>0.702700266299937</v>
+        <v>1.136765566205405</v>
       </c>
       <c r="N26">
-        <v>1.417227026490135</v>
+        <v>0.1870952442526272</v>
       </c>
       <c r="O26">
-        <v>1.572155546433684</v>
+        <v>1.12407327173895</v>
       </c>
       <c r="P26">
-        <v>1.254952890066962</v>
+        <v>0.7766316337188968</v>
       </c>
       <c r="Q26">
-        <v>1.030557324986601</v>
+        <v>1.224037373812731</v>
       </c>
       <c r="R26">
-        <v>1.309044268874686</v>
+        <v>0.5801195038968069</v>
       </c>
       <c r="S26">
-        <v>0.9996216278911474</v>
+        <v>0.9590882477747685</v>
       </c>
       <c r="T26">
-        <v>1.309044268874686</v>
+        <v>0.5801195038968069</v>
       </c>
       <c r="U26">
-        <v>1.104022977540894</v>
+        <v>0.7660899968942332</v>
       </c>
       <c r="V26">
-        <v>1.166663787330742</v>
+        <v>0.650291046365912</v>
       </c>
       <c r="W26">
-        <v>1.026045248156007</v>
+        <v>0.9115290569964136</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4375082828555513</v>
+        <v>0.06067594511230329</v>
       </c>
       <c r="D27">
-        <v>0.9143568892471111</v>
+        <v>0.6786034179333235</v>
       </c>
       <c r="E27">
-        <v>1.137510046894755</v>
+        <v>1.689974808184376</v>
       </c>
       <c r="F27">
-        <v>0.9969282827512534</v>
+        <v>0.5635620272047654</v>
       </c>
       <c r="G27">
-        <v>0.4375082828555513</v>
+        <v>0.06067594511230329</v>
       </c>
       <c r="H27">
-        <v>1.351540684125949</v>
+        <v>1.212543118981331</v>
       </c>
       <c r="I27">
-        <v>0.821435633069224</v>
+        <v>1.148958989163753</v>
       </c>
       <c r="J27">
-        <v>1.137510046894755</v>
+        <v>1.689974808184376</v>
       </c>
       <c r="K27">
-        <v>1.137510046894755</v>
+        <v>1.689974808184376</v>
       </c>
       <c r="L27">
-        <v>1.042350812934067</v>
+        <v>0.5784234104486158</v>
       </c>
       <c r="M27">
-        <v>1.255889908542058</v>
+        <v>1.433476615039198</v>
       </c>
       <c r="N27">
-        <v>1.137510046894755</v>
+        <v>1.689974808184376</v>
       </c>
       <c r="O27">
-        <v>0.9969282827512534</v>
+        <v>0.5635620272047654</v>
       </c>
       <c r="P27">
-        <v>0.7172182828034024</v>
+        <v>0.3121189861585344</v>
       </c>
       <c r="Q27">
-        <v>1.174234483438601</v>
+        <v>0.8880525730930484</v>
       </c>
       <c r="R27">
-        <v>0.8573155375005198</v>
+        <v>0.7714042601671482</v>
       </c>
       <c r="S27">
-        <v>0.9286590832442515</v>
+        <v>0.6122603637661334</v>
       </c>
       <c r="T27">
-        <v>0.8573155375005198</v>
+        <v>0.7714042601671482</v>
       </c>
       <c r="U27">
-        <v>0.9808718241568772</v>
+        <v>0.881688974870694</v>
       </c>
       <c r="V27">
-        <v>1.012199468704453</v>
+        <v>1.04334614153343</v>
       </c>
       <c r="W27">
-        <v>0.9946900675524962</v>
+        <v>0.9207772915084582</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.086444435978063</v>
+        <v>0.9377502337002399</v>
       </c>
       <c r="D28">
-        <v>1.001155884050603</v>
+        <v>1.119365329469335</v>
       </c>
       <c r="E28">
-        <v>1.441031584837933</v>
+        <v>1.417227026490135</v>
       </c>
       <c r="F28">
-        <v>1.216245063860123</v>
+        <v>1.572155546433684</v>
       </c>
       <c r="G28">
-        <v>1.086444435978063</v>
+        <v>0.9377502337002399</v>
       </c>
       <c r="H28">
-        <v>0.7997304699310781</v>
+        <v>0.488959103539518</v>
       </c>
       <c r="I28">
-        <v>0.8608678504466351</v>
+        <v>1.169539112718628</v>
       </c>
       <c r="J28">
-        <v>1.441031584837933</v>
+        <v>1.417227026490135</v>
       </c>
       <c r="K28">
-        <v>1.441031584837933</v>
+        <v>1.417227026490135</v>
       </c>
       <c r="L28">
-        <v>0.9354550929040016</v>
+        <v>0.8006653665965766</v>
       </c>
       <c r="M28">
-        <v>1.142882624560537</v>
+        <v>0.702700266299937</v>
       </c>
       <c r="N28">
-        <v>1.441031584837933</v>
+        <v>1.417227026490135</v>
       </c>
       <c r="O28">
-        <v>1.216245063860123</v>
+        <v>1.572155546433684</v>
       </c>
       <c r="P28">
-        <v>1.151344749919093</v>
+        <v>1.254952890066962</v>
       </c>
       <c r="Q28">
-        <v>1.0079877668956</v>
+        <v>1.030557324986601</v>
       </c>
       <c r="R28">
-        <v>1.247907028225373</v>
+        <v>1.309044268874686</v>
       </c>
       <c r="S28">
-        <v>1.034139989923088</v>
+        <v>0.9996216278911474</v>
       </c>
       <c r="T28">
-        <v>1.247907028225373</v>
+        <v>1.309044268874686</v>
       </c>
       <c r="U28">
-        <v>1.135862888651799</v>
+        <v>1.104022977540894</v>
       </c>
       <c r="V28">
-        <v>1.196896627889026</v>
+        <v>1.166663787330742</v>
       </c>
       <c r="W28">
-        <v>1.060476625821122</v>
+        <v>1.026045248156007</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.4375082828555513</v>
+      </c>
+      <c r="D29">
+        <v>0.9143568892471111</v>
+      </c>
+      <c r="E29">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="F29">
+        <v>0.9969282827512534</v>
+      </c>
+      <c r="G29">
+        <v>0.4375082828555513</v>
+      </c>
+      <c r="H29">
+        <v>1.351540684125949</v>
+      </c>
+      <c r="I29">
+        <v>0.821435633069224</v>
+      </c>
+      <c r="J29">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="K29">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="L29">
+        <v>1.042350812934067</v>
+      </c>
+      <c r="M29">
+        <v>1.255889908542058</v>
+      </c>
+      <c r="N29">
+        <v>1.137510046894755</v>
+      </c>
+      <c r="O29">
+        <v>0.9969282827512534</v>
+      </c>
+      <c r="P29">
+        <v>0.7172182828034024</v>
+      </c>
+      <c r="Q29">
+        <v>1.174234483438601</v>
+      </c>
+      <c r="R29">
+        <v>0.8573155375005198</v>
+      </c>
+      <c r="S29">
+        <v>0.9286590832442515</v>
+      </c>
+      <c r="T29">
+        <v>0.8573155375005198</v>
+      </c>
+      <c r="U29">
+        <v>0.9808718241568772</v>
+      </c>
+      <c r="V29">
+        <v>1.012199468704453</v>
+      </c>
+      <c r="W29">
+        <v>0.9946900675524962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.086444435978063</v>
+      </c>
+      <c r="D30">
+        <v>1.001155884050603</v>
+      </c>
+      <c r="E30">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="F30">
+        <v>1.216245063860123</v>
+      </c>
+      <c r="G30">
+        <v>1.086444435978063</v>
+      </c>
+      <c r="H30">
+        <v>0.7997304699310781</v>
+      </c>
+      <c r="I30">
+        <v>0.8608678504466351</v>
+      </c>
+      <c r="J30">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="K30">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="L30">
+        <v>0.9354550929040016</v>
+      </c>
+      <c r="M30">
+        <v>1.142882624560537</v>
+      </c>
+      <c r="N30">
+        <v>1.441031584837933</v>
+      </c>
+      <c r="O30">
+        <v>1.216245063860123</v>
+      </c>
+      <c r="P30">
+        <v>1.151344749919093</v>
+      </c>
+      <c r="Q30">
+        <v>1.0079877668956</v>
+      </c>
+      <c r="R30">
+        <v>1.247907028225373</v>
+      </c>
+      <c r="S30">
+        <v>1.034139989923088</v>
+      </c>
+      <c r="T30">
+        <v>1.247907028225373</v>
+      </c>
+      <c r="U30">
+        <v>1.135862888651799</v>
+      </c>
+      <c r="V30">
+        <v>1.196896627889026</v>
+      </c>
+      <c r="W30">
+        <v>1.060476625821122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.527393580736663</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.379167128514857</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.6878598527548704</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.2623975080513765</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.527393580736663</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.227589305877936</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.3615430099963116</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.6878598527548704</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.6878598527548704</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9020543140223011</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.852074004114296</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.6878598527548704</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.2623975080513765</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.3948955443940197</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.7449934069646561</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.4925503138476366</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.672460131555325</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.4925503138476366</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.6763100618552114</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.6786200200351431</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9000098380085763</v>
       </c>
     </row>
